--- a/deuChatbot/research_result/version_2(3500_100).xlsx
+++ b/deuChatbot/research_result/version_2(3500_100).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13797,6 +13797,7301 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 공예디자인에 대한 구체적인 실기종목 정보가 누락되어 있습니다. 이로 인해 일부 정보가 불완전하게 전달되었습니다.
+2. Consistency Score (1-5): 3
+   - 응답은 원본 텍스트의 정보와 일치하는 부분이 많지만, 공예디자인에 대한 언급이 부족하여 일관성이 떨어집니다. 또한, 배점에 대한 정보가 잘못 기재되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 실기시험에 대한 정보를 잘 요약하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 공예디자인에 대한 정보가 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 응답의 대부분은 정확하지만, 공예디자인에 대한 정보가 누락되어 있어 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 적절한 용어와 표현을 사용하고 있습니다. 다만, 공예디자인에 대한 정보가 부족하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다. 그러나 일부 누락된 정보로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.7923457604323227</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 각각 진행되며, 주요 내용은 다음과 같습니다:
+1. **모집단위 및 종목**:
+   - **시각디자인**: 기초디자인
+   - **산업디자인**: 사고의 전환
+   - **공예디자인**: 구체적인 실기종목 정보가 제공되지 않았습니다.
+2. **준비물**:
+   - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+3. **실기주제 및 화지크기**:
+   - **시각디자인**: 
+     - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+     - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+     - 화지크기: 켄트지3절
+   - **산업디자인**: 
+     - 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+     - 주제B: 바이러스, 자유, 여행, 계절, 꿈
+     - 화지크기: 켄트지2절
+4. **시험 시간**:
+   - 5시간
+5. **배점 및 비율**:
+   - **시각디자인**: 기초디자인 (700점 중 70%)
+   - **산업디자인**: 사고의 전환 (240점 중 24%)
+이러한 실기시험은 학생들의 창의성, 표현력, 문제 해결 능력을 평가하는 데 중점을 두고 있습니다. 준비 시에는 주제와 관련된 다양한 아이디어를 발전시키며, 시간 내에 효율적으로 작업을 완료할 수 있도록 계획을 세우는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보를 포함하고 있습니다. 그러나 "시각디자인, 산업디자인, 공예디자인"이라는 내용은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 일관되게 제공하지만, "시각디자인, 산업디자인, 공예디자인"이라는 추가 정보는 원본과 일치하지 않으므로 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우며, 약간의 어색한 표현이 있지만 전반적인 유창성은 좋습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 추가 정보가 원본과 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 추가된 정보로 인해 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 부정확성으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본과 일치하지 않아 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다. 그러나 일부 추가 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.8426147517571814</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인이 있으며, 각각 다음과 같은 세부 사항이 있습니다:
+1. **실기종목**: 기초디자인, 사고의 전환
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기주제**:
+   - 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+     - 예시: 잠자리와 저울 (주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지 / 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음)
+     - 예시: 콜라병과 계절 (주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼 / 주제B: 바이러스, 자유, 여행, 계절, 꿈)
+4. **화지크기**: 
+   - 켄트지3절
+5. **시간**:
+   - 5시간
+이 정보를 참고하여 준비하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 대부분의 대회 목록이 정확하게 나열되어 있습니다. 그러나 "주니어팀 소속으로 출전한 대회만 인정"이라는 부분이 원본 텍스트의 "국가대표팀, 주니어팀 소속으로 출전한 대회만 인정"이라는 문구에서 "국가대표팀" 부분이 누락되어 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 대회 목록과 관련된 정보는 일관되지만, "경기출전 70% 이상의 선수들이 모집종목별 인정대회에 포함됩니다."라는 추가 정보는 원본 텍스트에 포함되어 있지 않아 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 모든 주요 포인트를 포함하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 조금 더 매끄럽게 연결될 수 있는 여지가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회 목록이 명확하게 구분되어 있습니다. 그러나 추가된 문장이 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 앞서 언급한 대로 "국가대표팀" 부분의 누락이 있어 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 사실성에서 높은 점수를 받고 있습니다. 그러나 일부 세부 사항에서의 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 문구의 누락으로 인해 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 더 명확하게 표현될 수 있는 여지가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.8890221674591468</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 대한 정보는 다음과 같습니다:
+배드민턴(남) 종목의 인정대회:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회(주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남) 종목의 인정대회:
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전
+이러한 대회들 중에서 경기출전 70% 이상의 선수들이 모집종목별 인정대회에 포함됩니다.</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 기초디자인 실기시험 주제에 대한 구체적인 정보를 제공하지 않고, 일반적인 디자인 관련 주제들을 나열하고 있습니다. 이는 원본 텍스트의 내용과 상충하며, 원본에서 제시된 주제들을 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본에서 명시된 주제와 관련된 정보가 전혀 포함되어 있지 않습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 디자인 관련 주제를 언급하고 있지만, 원본 텍스트의 구체적인 내용과는 관련이 적습니다. 원본의 주제를 직접적으로 다루지 않기 때문에 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본과의 관련성이 떨어지기 때문에 점수를 약간 낮추었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 주제에 대한 설명이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 부족합니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 가장 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 디자인 관련 주제를 다루고 있지만, 원본 텍스트의 맥락과는 맞지 않기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 원본과의 관련성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.6013870061363215</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2024년도 디자인조형학과의 기초디자인 실기시험에 대한 공식적인 주제나 내용은 제공되지 않았습니다. 하지만, 일반적으로 디자인조형학과의 기초디자인 실기 시험에서는 다양한 주제가 출제될 수 있습니다. 예를 들어:
+1. 환경설계
+2. 제품디자인
+3. 그래픽디자인
+4. 패션디자인
+5. 조각
+6. 그림(화가, 캔버스)
+7. 디지털디자인
+이러한 주제들은 학과의 특성에 따라 다르게 출제될 수 있으며, 실제 시험에서는 특정 주제나 작업을 수행하도록 요구될 것입니다. 예를 들어:
+- 환경설계: 주어진 공간을 설계하고 그림으로 표현
+- 제품디자인: 일상품을 디자인하고 3D 모델링 또는 스케치로 표현
+- 그래픽디자인: 포스터나 브랜드 이미지를 디자인
+정확한 주제와 요구사항은 해당 대학의 입시 안내를 확인하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있으며, 추가적인 세부사항도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 출결 점수가 반영되지 않는다는 주장을 일관되게 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 점수에 대한 질문에 대한 명확한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.7662623439033893</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 학생부교과 전형에서는 출결 점수가 반영되지 않습니다. 
+상세 내용은 다음과 같습니다:
+- 나군 학생부교과(농어촌학생전형)의 경우, 전형요소 반영비율에서 출결 항목이 없습니다.
+- 나군 학생부교과(평생학습자전형), (성인학습자(정원내/외)전형) 등의 경우에도 출결은 반영되지 않습니다.
+따라서, 모든 나군 학생부교과 전형에서 출결 점수는 반영되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 17명을 모집한다고 명시되어 있지만, 생성된 응답에서는 45명을 모집한다고 잘못 언급하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원본 텍스트의 모집 인원과 생성된 응답의 모집 인원이 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제에 대한 신뢰성이 떨어집니다. 원본 텍스트의 핵심 정보인 모집 인원에 대한 정확한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 연결이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있습니다. 잘못된 모집 인원 정보로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.6675595742398721</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>45명을 모집합니다. 
+인문사회과학대학의 국어국문학과 - 교직은 다음과 같이 정원 내 모집 인원이 주어져 있습니다:
+전형별 모집단위별 모집인원에서 단과대학은 인문사회과학대학이며, 모집단위은 국어국문학과 - 교직이며, 정원 내 모집인원은 45입니다.
+또한 가군의 일반 학생 모집인원도 17명으로 제시되어 있습니다만, 이는 전체 모집 인원 중 일부일 뿐 정원 내 모집 인원보다 적습니다.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 원문에서 제공된 정보와 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 추가적인 정보도 원문과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 질문한 내용과 직접적으로 관련이 있으며, 핵심 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6257682108480809</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직입니다. 해당 정보에서 모집인원은 28이라고 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 22명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, "교직 - 간호교육인증의" 부분이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, "교직 - 간호교육인증의" 부분이 문맥상 다소 불필요하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, "교직 - 간호교육인증의" 부분이 문맥에 완전히 부합하지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 표현이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.7535106464292631</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 - 교직 - 간호교육인증의 나군 일반 학생 전형 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.9478527570388584</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "다른 전형이나 다른 유형의 농어촌학생전형을 통해만 지원이 가능할 것으로 보입니다."라는 부분은 다소 모호하며, 원문에서 명확히 언급되지 않은 내용이므로 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 예술고 학생의 지원 불가능성을 설명하고 있습니다. 그러나 "다른 전형이나 다른 유형의 농어촌학생전형"에 대한 언급은 원문에 명시되어 있지 않으므로 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 예술고 학생의 지원 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에서 제공된 정보에 기반하고 있지만, "다른 전형이나 다른 유형의 농어촌학생전형"에 대한 언급이 원문에 없으므로 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 정보의 추가로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으나, 추가된 정보가 원문과의 일치성에서 약간의 차이를 보입니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.7823786139875653</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과(농어촌학생전형)에서는 지원이 불가능합니다.
+관련 내용을 보면, 나군 학생부교과(농어촌학생전형)의 고교유형별 지원자격에서 예술고는 지원 불가능한 대상으로 분류되어 있습니다.
+따라서 예술고 학생은 다른 전형이나 다른 유형의 농어촌학생전형을 통해만 지원이 가능할 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+2. Consistency Score (1-5): 5
+3. Relevance Score (1-5): 5
+4. Fluency Score (1-5): 5
+5. Coherence Score (1-5): 5
+6. Accuracy Score (1-5): 5
+7. Multidimensional Quality Score (1-5): 5
+8. Semantic Appropriateness Score (1-5): 5
+9. Understandability Score (1-5): 5
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8962441718933661</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>4등급의 레저스포츠학과 여자 제자리 멀리뛰기 기록은 218~221cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.6962872951557816</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과에서 나군 실기/실적(경기실적우수자전형) 전형에 대한 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원에 대한 정보가 잘못되어 있습니다. 원본 텍스트에서는 4명을 모집한다고 명시되어 있지만, 생성된 응답에서는 2명을 모집한다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본의 모집 인원과 생성된 응답의 모집 인원이 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 물리치료학과의 모집에 대한 정보를 제공하고 있으므로 관련성이 높습니다. 그러나 잘못된 정보로 인해 완전한 관련성을 갖추지 못합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 그러나 유창성과 일관성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.7809200475786078</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2명을 모집합니다.
+2024학년도 동의대학교 가군 수능(일반학생전형)에서 물리치료학과는 2명을 모집한다고 알려져 있습니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜와 요일을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용을 잘 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 있으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.5275686840951729</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 2024학년도 응용화학과의 수능 최저기준에 대한 질문에 대해 "수능 최저 학력 기준은 없습니다."라는 사실을 무시하고, 관련 정보가 없다고 언급하고 있습니다. 이는 명백한 사실의 왜곡입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 수능 최저기준이 없다는 정보를 부정하는 내용이 포함되어 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저기준에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 없는 정보로 가득 차 있습니다. 그러나 일부 정보는 동의대학교의 입학 정책에 대한 일반적인 내용을 포함하고 있어 약간의 관련성을 가질 수 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되었으나, 한국어로 질문이 주어졌음에도 불구하고 중국어로 작성되어 있어 유창성 측면에서 부족합니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 주제를 다루고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 떨어집니다. 주제 간의 연결이 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 수능 최저기준이 없다는 사실을 무시하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 질문에 대한 적절한 답변을 제공하지 않습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 질문과 관련이 없고 맥락이 부족하여 이해하기 어려운 부분이 많습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.3228190363828999</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学2024学年应用化学专业的具体最低录取标准（수능 최저기준）。根据给出的信息，有关东义大学的招生政策和数据主要集中在以下几个方面：
+1. 各专业在不同入学考试类型下的初步合格者和最终注册者的统计数据。
+2. 不同学院和专业的详细信息，包括招生人数、申请人数、竞争比例等。
+3. 考试科目及其权重分配情况。
+4. 一些关于录取分数的统计指标（如平均分、标准差）。
+为了找到应用化学专业的确切最低录取标准，您可能需要直接查看东义大学2024学年的招生简章或联系学校的招生办公室获取最准确的信息。通常这些信息会在学校官方网站上的招生页面中公布。如果您能提供更多的上下文或者具体的数据来源，我或许能够帮助您进一步查找相关信息。</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 2024학년도에 신설된 학과 목록을 잘못 제시하고 있으며, 제공된 자료와 일치하지 않습니다. 신설된 학과로 언급된 '스마트호스피탈리티학과', '미래형자동차학과', '소프트웨어융합학과'는 원본 텍스트에 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트에 명시된 학과 목록과 생성된 응답의 학과 목록이 서로 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 원본 텍스트와 관련이 없고, 잘못된 정보를 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 품질 차원에서 모두 낮은 점수를 기록하고 있으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 의미적으로 적절하지 않으며, 원본 텍스트의 맥락과 일치하지 않습니다. 잘못된 정보가 포함되어 있어 의미 전달이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성과 관련성 부족으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.5050118515764495</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과 정보는 제공된 자료에서는 확인할 수 없습니다. 하지만, 제공된 정보 중에서 새로운 모집단위로 추가된 학과들을 살펴보면:
+1. 스마트호스피탈리티학과 (나군 조기취업형 계약학과전형 - 정원외)
+2. 미래형자동차학과 (나군 조기취업형 계약학과전형 - 정원외)
+3. 소프트웨어융합학과 (나군 조기취업형 계약학과전형 - 정원외)
+이러한 학과들은 2024학년도에 신설되었거나 추가로 모집을 시작한 것으로 보입니다. 하지만, 이 정보는 제공된 자료에서 직접적으로 확인할 수 있는 내용이며, 최신 공식 입학 안내서나 대학교 웹사이트를 참조하는 것이 가장 정확한 방법일 것입니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 서류와 면접의 비율은 정확하게 반영하고 있지만, 학생부 교과, 출결, 실기, 수능의 비율이 0%로 잘못 기재되어 있습니다. 이러한 정보는 원본 텍스트에 포함되어 있지 않으며, 불필요한 추가 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 추가된 0% 비율 정보는 원본 텍스트와 일치하지 않으며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 불필요한 정보가 포함되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 전체적인 흐름이 매끄럽지 않으며, 추가된 정보가 원본 텍스트와의 연결성을 약화시킵니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 서류와 면접의 비율은 정확하지만, 나머지 전형요소에 대한 정보는 잘못된 정보로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성, 정확성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보가 문맥에 맞지 않아 의미 전달이 약간 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 불필요한 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.8285926753335375</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 학생부 교과: 0%
+- 출결: 0%
+- 서류: 70%
+- 면접: 30%
+- 실기: 0%
+- 수능: 0%
+이전형에서는 서류 비중이 높게 설정되어 있으며, 면접 비중도 상대적으로 높은 편입니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위와 수학 과목에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "기타 학부"에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 따르지만, 추가된 정보(기타 학부에 대한 언급)가 원본과 일치하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 수능 가산점 적용에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 구조가 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보로 인해 정확성이 약간 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.5294794556098024</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>东义大学在以下学部中应用了수능(普通学生类型)加分：
+1. 医疗·保健·生活学部 (Medical &amp; Health &amp; Life Department)
+2. 工学部 (Engineering Department)
+3. ICT融合工学部 (ICT Integrated Engineering Department)
+具体来说，在这些学部中的科目加分为：
+- 数学（微积分或几何）应试者：数学标准分数的10%加分。
+对于其他学部，如人文社会科学学部、经济管理学部等，则不适用加分政策。</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과 상충하는 내용을 담고 있습니다. 원문에서는 수능 성적이 100% 반영된다고 했지만, 생성된 응답에서는 각 과목별로 25%씩 반영된다고 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 일관성이 없습니다. 원문에서 수능 성적이 100% 반영된다고 했으나, 생성된 응답은 각 과목의 비율을 제시하며 서로 모순된 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하지만, 원문에서 요구하는 100% 반영이라는 핵심 내용을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 각 과목별 비율을 나열하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제시한 사실과 크게 다릅니다. 수능 성적이 100% 반영된다는 사실을 왜곡하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하지만, 원문과의 의미적 일치가 부족하여 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.7068100756319177</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서 수능 성적은 다음과 같이 반영됩니다:
+- 국어(화법과작문 or 언어와매체): 25%
+- 수학(확률과통계 or 미적분 or 기하): 25%
+- 영어: 25%
+- 탐구(사회탐구 or 과학탐구 or 직업탐구 - 2개 과목 합): 25%
+이렇게 각 영역별로 25%씩 반영되며, 총점은 이 네 가지 영역의 표준 점수를 각각 25%씩 가중 평균한 값으로 계산됩니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 날짜와 학교 이름이 일치하며, 내용이 동일합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있습니다. 두 텍스트 모두 동일한 정보를 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조가 매끄럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 정보에 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다. 사실성, 일관성, 관련성, 정확성 모두 뛰어납니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다. 의미 전달이 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.8640016888189623</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 2024년 1월 16일(화)에 열립니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과와 경기지도학과가 제외된다는 사실을 누락하고 있으며, 레저스포츠학과와 태권도학과가 포함되어 있다고 잘못 언급하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서 제외된 학과와 생성된 응답에서 언급된 학과 간에 불일치가 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 일부 관련성이 떨어집니다. 그러나 전반적으로 질문의 주제에 대한 응답을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 완전한 유창성을 평가하기는 어렵습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 불일치로 인해 응답의 일관성이 저하되었습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원본 텍스트의 의미와 일치하지 않는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 구조는 명확합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.8074704274181401</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 실기/실적 전형으로 모집되므로 일반학생전형에서 제외됩니다.
+즉, 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 최저기준이 적용되지 않는다는 사실을 명확히 반영하지 않고 있으며, 관련 정보가 없다는 내용으로 대체하고 있습니다. 이는 원문과의 불일치를 나타냅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 부정확하게 전달하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 다군 전형에 대한 정보를 제공하려고 하지만, 수능 최저기준에 대한 질문에 대한 직접적인 답변이 부족합니다. 그러나 관련된 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 논리적으로 연결되어 있지만, 원문과의 관계가 명확하지 않아 일관된 흐름이 부족합니다. 수능 최저기준에 대한 직접적인 언급이 없기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 응답은 수능 최저기준이 적용되지 않는다는 원문의 사실을 정확히 반영하지 않고 있으며, 이로 인해 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성에서 모두 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 응답은 의미적으로 적절한 부분이 있지만, 원문의 핵심 내용을 반영하지 못하고 있어 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.725126835659059</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에 대한 정보는 제공된 데이터에서 확인할 수 없습니다. 제공된 내용은 주로 특정 단과대학 및 학과별 모집단위, 지원 인원, 경쟁률 등에 관한 통계적인 자료이며, 수능 최저기준 관련 정보는 포함되어 있지 않습니다.
+수능 최저기준이 적용되는지 확인하려면 동의대학교 입학처 웹사이트나 공식 안내서를 참조하거나, 직접 입학처와 연락하여 확인하는 것이 가장 정확할 것입니다. 또한, 대입 전형 및 수능 최저기준은 매년 변경될 수 있으므로, 최신 정보를 얻기 위해서는 올해의 최신 자료를 참고해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 학과 분리 정보를 정확하게 반영하고 있지만, "경제금융보험학과가 금융경영학과로 변경되었습니다"라는 문장은 다소 오해의 소지가 있습니다. 원문에서는 "경제금융보험학과 → 금융경영학과"로 단순히 명칭 변경을 언급하고 있으며, "유일한 사례"라는 표현은 사실과 다릅니다. 여러 학과가 분리되었기 때문에 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 많지만, "유일한 사례"라는 표현은 원문에서 여러 학과가 분리되었다는 사실과 모순됩니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 학과 분리와 변경 사항에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 변경 사항을 명확하게 나열하고 있습니다. 그러나 "유일한 사례"라는 표현이 전체적인 흐름에 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, "유일한 사례"라는 표현이 사실과 다르기 때문에 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하지만, "유일한 사례"라는 표현이 의미적으로 부적절할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 표현이 혼란을 줄 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.6718073564650875</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 경제금융보험학과가 분리되어 금융경영학과로 변경되었습니다.
+또한 다른 몇몇 학과들도 분리되거나 변경되었습니다:
+1. 보육·가정상담학과 -&gt; 아동학과
+2. 정보경영학부(경영정보학, e비즈니스학) -&gt; 경영정보학과, e비즈니스학과
+3. 부동산금융·자산경영학과 -&gt; 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+4. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) -&gt; 기계공학과, 로봇자동화공학과, 자동차공학과
+5. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) -&gt; 신소재공학과, 고분자나노공학과
+6. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) -&gt; 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+7. 화학환경공학부(화학공학, 환경공학, 응용화학) -&gt; 화학공학과, 환경공학과, 응용화학과
+8. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) -&gt; 의생명공학과, 바이오의약공학과, 식품공학과
+9. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) -&gt; 인간공학과, 제품디자인공학과
+따라서 경제금융보험학과가 금융경영학과로 분리된 것이 2024학년도 동의대학교에서 학부에서 학과로 분리된 유일한 사례입니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 날짜와 시간도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.8405776734669093</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수(인터넷)의 마감일은 2024. 01. 06.(토) 18시까지입니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 전형 요소 변화에 대한 구체적인 정보가 잘못되거나 누락되어 있습니다. 예를 들어, 원본 텍스트에서 언급된 전형의 세부 사항이 생성된 응답에서는 전혀 다르게 설명되고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 전혀 없으며, 서로 다른 전형에 대한 정보가 혼합되어 있습니다. 원본 텍스트의 전형 요소 변화와는 상반된 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보가 원본 텍스트의 핵심 포인트와는 크게 다릅니다. 전형 요소 변화에 대한 정보가 아닌 다른 전형에 대한 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 구조적으로 어느 정도 일관성을 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전형 요소 변화에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 전형 요소 변화에 대한 설명이 잘못되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성과 관련성이 부족하여 전체적으로 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.6829386595975221</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요한 전형 요소 변화는 다음과 같습니다:
+1. **나군 학생부종합(조기취업형계약학과전형) - 정원외**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+     - 공동체역량: 1등급 120점, 2등급 111점 등
+     - 학업역량: 1등급 240점, 2등급 222점 등
+     - 전공적합성: 1등급 240점, 2등급 222점 등
+2. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+     - 공동체역량: 1등급 140점, 2등급 129.5점 등
+     - 학업역량: 1등급 280점, 2등급 259점 등
+     - 전공적합성: 1등급 280점, 2등급 259점 등
+3. **나군 학생부종합(조기취업형계약학과전형) - 정원외**:
+   - 면접평가 영역별 세부 평가 기준이 변경되었습니다.
+     - 학업역량: 문제해결능력에 대한 평가
+     - 전공적합성: 진로정보 탐색능력에 대한 평가
+4. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 면접평가 영역별 세부 평가 기준이 변경되었습니다.
+     - 학업역량: 문제해결능력에 대한 평가
+     - 전공적합성: 진로정보 탐색능력에 대한 평가
+5. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 면접평가 방법이 블라인드 면접으로 변경되었습니다.
+6. **다군 수능(일반학생전형)**:
+   - 전형요소 반영비율이 변경되었습니다.
+     - 수능: 100%
+7. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 면접평가 영역별 세부 평가 기준이 변경되었습니다.
+     - 학업역량: 문제해결능력에 대한 평가
+     - 전공적합성: 진로정보 탐색능력에 대한 평가
+8. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 면접평가 방법이 블라인드 면접으로 변경되었습니다.
+이러한 변화들은 각 전형의 평가 기준과 절차를 더 공정하고 체계적으로 만들기 위한 조치로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 평가: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 정확하게 반영하고 있습니다. 그러나 "기타 모집단위는 수능이 100%를 차지하며, 실기는 반영되지 않습니다."라는 부분은 원문에 명시된 내용이 아니므로, 이로 인해 일부 부정확성이 발생합니다.
+   - 점수: 4
+2. Consistency Score (1-5):
+   - 평가: 생성된 응답은 원문과 일관되게 실기 비중이 70%임을 언급하고 있지만, 추가된 정보(기타 모집단위에 대한 설명)는 원문과 일치하지 않으므로 일관성이 떨어집니다.
+   - 점수: 3
+3. Relevance Score (1-5):
+   - 평가: 생성된 응답은 원문에서 제시된 주제와 관련이 있으며, 실기 비중에 대한 정보를 제공하고 있습니다. 추가적인 세부사항도 관련성이 있으므로 높은 점수를 부여할 수 있습니다.
+   - 점수: 5
+4. Fluency Score (1-5):
+   - 평가: 생성된 응답은 문법적으로 올바르며, 자연스럽게 읽힙니다. 문장 구조도 잘 구성되어 있어 유창성이 높습니다.
+   - 점수: 5
+5. Coherence Score (1-5):
+   - 평가: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 따라서 일관된 흐름을 유지하고 있습니다.
+   - 점수: 5
+6. Accuracy Score (1-5):
+   - 평가: 응답의 주요 사실(실기 비중 70%)은 정확하지만, 추가된 정보가 원문에 포함되지 않아 정확성에 일부 문제가 있습니다.
+   - 점수: 4
+7. Multidimensional Quality Score (1-5):
+   - 평가: 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+   - 점수: 4
+8. Semantic Appropriateness Score (1-5):
+   - 평가: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지며, 주제에 적합한 내용을 담고 있습니다. 그러나 추가된 정보가 원문과 일치하지 않으므로 약간의 부적합성이 있습니다.
+   - 점수: 4
+9. Understandability Score (1-5):
+   - 평가: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 따라서 이해 가능성이 높습니다.
+   - 점수: 5
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.756587184134398</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 차지하는 비중은 다음과 같습니다:
+- 레저스포츠학과, 태권도학과는 실기가 70%를 차지합니다.
+- 기타 모집단위는 수능이 100%를 차지하며, 실기는 반영되지 않습니다.
+따라서, 일반적으로 가군 실기/실적 전형에서는 실기가 70%의 비중을 가지는 경우가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 라이프융합학부의 세부 전공에 대한 정확한 정보를 제공하지 않고, 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서 명시된 세부 전공(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)과는 전혀 다른 전공을 언급하고 있으며, 이는 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본에서 제공된 세부 전공 목록과 생성된 응답의 내용이 상충하며, 서로 다른 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 라이프융합학부에 대한 일반적인 정보는 포함하고 있지만, 원본 텍스트의 핵심 내용인 세부 전공 구성에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수가 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 저하된 응답입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 라이프융합학부에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않는 내용이 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.6374671173361023</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부에 대한 정보는 제공된 데이터에서 명확히 확인할 수 없습니다. 그러나 일반적으로 라이프융합학부는 건강, 사회복지, 교육 등 다양한 분야를 종합적으로 다루며, 세부 전공은 다음과 같은 형태로 구성될 수 있습니다:
+1. 건강관리전공
+2. 사회복지전공
+3. 교육상담전공
+하지만 이 정보는 동의대학교의 공식 입학 안내나 홈페이지 등을 통해 확인해야 정확한 내용을 파악할 수 있습니다. 제공된 데이터에서는 라이프융합학부에 대한 구체적인 세부 전공 구성은 언급되어 있지 않습니다. 따라서 최신 정보를 얻기 위해서는 동의대학교의 공식 입학 안내서나 홈페이지를 참조하시길 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답에는 '디자인조형학과'와 '태권도학과'가 포함되어 있지만, 원본 텍스트에는 이 두 학과가 언급되지 않았습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 추가된 학과들로 인해 일관성이 결여되어 있습니다. 원본 텍스트의 정보와 상충하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하지만, 원본 텍스트에 포함되지 않은 학과들에 대한 정보도 포함되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 불필요한 정보가 포함되어 있어 약간의 흐름이 방해받을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 일관된 흐름이 부족합니다. 여러 학과에 대한 정보가 혼합되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 그러나 유창성은 상대적으로 양호합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보가 포함되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 부분이 있지만, 불필요한 정보가 포함되어 있어 이해하기 어려운 부분도 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.6715818197680874</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 실기고사를 실시하는 학과는 다음과 같습니다:
+1. 디자인조형학과
+2. 체육학과 
+3. 레저스포츠학과
+4. 태권도학과
+이러한 학과들은 실기고사에 참여해야 합니다. 기타 일반학생전형 학과는 수능 및 서류평가만으로 입시를 진행합니다.
+추가적으로, 가군은 주로 수능 성적과 학생부 교과성적을 기반으로 하는 전형입니다. 하지만 위에서 언급한 4개의 학과는 실기고사 결과도 함께 고려됩니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 레저스포츠학과와 태권도학과를 언급하고 있지만, 원본 텍스트에 포함된 다른 학과들(디자인조형학과, 체육학과, 경기지도학과)에 대한 언급이 없으며, 모집 인원에 대한 정보도 원본에 포함되어 있지 않습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 다른 학과들에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, "가군 실기/실적(일반학생전형)"이라는 정보는 원본에 명시되어 있지 않으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기/실적 위주 전형에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 정보의 누락으로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 명시된 모든 학과를 포함하지 않으며, 추가된 정보가 원본과 일치하지 않기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 사실성과 일관성에서 약간의 부족함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보의 누락으로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용이지만, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.6367155387882063</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형으로 모집하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과는 "가군 실기/실적(일반학생전형)"으로 모집하며, 각각의 모집 인원은 11명입니다.
+참고로, 다른 전형 유형에서는 실기/실적 위주로 모집하는 학과는 없습니다. 따라서 실기/실적 위주 전형을 지원하려면 레저스포츠학과 또는 태권도학과 중 하나를 선택해야 합니다.
+더 자세한 정보나 추가 질문이 있으시다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.8109997942126171</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 라이프융합학부는 다음과 같은 전공을 제공하고 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학 
+3. 라이프생활문화학
+이는 2024학년도 주요 변경사항에서 언급된 내용에 따릅니다. 이 학부는 신설되었으며, 이 세 가지 전공으로 구성되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나, 예술고와 체육고의 지원 가능성에 대한 언급은 원문에 명시된 내용과는 다소 차이가 있으며, 이는 다소 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 예술고와 체육고에 대한 지원 가능성에 대한 추가 정보가 원문과 일치하지 않아 일관성이 떨어집니다. 원문에서는 농어촌학생전형에 대한 언급이 있지만, 생성된 응답에서는 이 부분이 누락되었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높으며, 일반학생전형에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나, 예술고와 체육고에 대한 언급이 원문과 다르게 표현되어 약간의 일관성 문제가 발생합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 예술고와 체육고에 대한 지원 가능성에 대한 정보가 원문과 다소 차이가 있어 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 세부 사항에서 약간의 차이가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하지만, 예술고와 체육고에 대한 지원 가능성에 대한 언급이 원문과 다르게 표현되어 의미의 일관성이 약간 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있어 이해하기 어려운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.6762739415155929</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형에 지원이 가능합니다. 
+특히 주요 내용을 요약하면:
+- 모집군 가군, 나군, 다군 모두 일반고, 자율고, 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고, 특성화고(특성), 영재학교, 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고 등 다양한 고등학교 유형에서 지원 가능합니다.
+- 특수목적고등학교 중 과학고, 국제고, 외국어고는 일반적으로 지원이 가능하지만, 예술고와 체육고는 일부 모집단위에서는 제외될 수 있습니다. 
+- 정확한 지원 가능 여부는 해당 학교의 모집요강을 확인하는 것이 가장 확실합니다.
+따라서 특수목적고등학교 학생이더라도 동의대학교 일반학생전형에 지원할 수 있으며, 특정 학교나 전공에서는 제한될 수 있으니 자세한 내용은 대학 홈페이지나 입학처와 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 한의예과 수학(미적분/기하)과 한의예과 수학(확률과통계)이 가장 많이 모집하는 학과로 잘못 언급되었습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않으며, 서로 다른 학과에 대한 모집 인원 정보를 제공하고 있습니다. 원문에서 언급된 학과와 모집 인원에 대한 정보가 일관되지 않습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 정보를 제공하고 있으나, 주제에서 벗어난 추가적인 학과 정보가 포함되어 있어 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 학과에 대한 정보를 나열하고 있으나, 주제와 관련된 정보가 명확하게 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있으나, 잘못된 정보로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 정보의 정확성과 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.7050341363494809</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원 내 모집 인원을 비교해야 합니다. 제공된 정보를 바탕으로, 다음과 같은 결론을 도출할 수 있습니다:
+1. **공과대학**의 여러 학과가 많은 인원을 모집하고 있습니다:
+   - 기계공학과 - 교직: 17명
+   - 로봇자동화공학과: 0명 (이 경우 정원 외)
+   - 자동차공학과: 7명
+   - 조선해양공학과: 26명
+   - 신소재공학과: 32명
+   - 고분자나노공학과: 26명
+2. **인문사회과학대학**의 학과들도 꽤 많은 인원을 모집하고 있습니다:
+   - 영어영문학과 - 교직: 28명
+3. **상경대학**에서도 몇몇 학과가 모집 인원이 많습니다:
+   - 경영정보학과: 7명
+   - e비즈니스학과: 10명
+4. **한의과대학**에서도 많은 인원을 모집하고 있습니다:
+   - 한의예과 수학(미적분/기하): 50명
+   - 한의예과 수학(확률과통계): 50명
+이 중에서 가장 많이 모집하는 학과는 **한의과대학**의 **한의예과 수학(미적분/기하)**와 **한의예과 수학(확률과통계)**으로 보입니다. 각각 50명씩 모집하고 있으며, 이는 다른 학과들보다 훨씬 많은 인원을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **한의예과 수학(미적분/기하)**과 **한의예과 수학(확률과통계)**으로 판단됩니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 대한 지원 자격을 잘못 설명하고 있습니다. 원문에서는 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다고 명시하고 있지만, 생성된 응답은 지원이 가능하다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 지원할 수 없다고 명시된 사항을 무시하고, 지원이 가능하다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서의 핵심 정보가 왜곡되어 전달되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원문과의 불일치로 인해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 지원 자격에 대한 잘못된 해석이 포함되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 완전히 왜곡하고 있습니다. 지원 자격에 대한 잘못된 해석이 포함되어 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.489326516274585</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>你是特殊教育高中学生，根据提供的信息，你符合东义大学农林地区学生选拔条件。具体来说：
+1. **支持资格**：
+   - 特殊教育高中（科学高中、国际高中、外语高中除外）的学生可以申请。
+   - 特殊教育高中（艺术高中、体育高中除外）的学生可以申请。
+   - 特殊教育高中（技术高中）的学生可以申请。
+   - 特殊教育高中（综合课程）的学生可以申请。
+2. **申请资格**：
+   - 你必须在农林地区（乡·面）的中等和高中学校完成整个教育过程，并且你在中学和高中的学习期间，你自己及你的父母双方（如果父母一方去世或离婚，则不包括该方）都居住在农林地区。
+3. **提交文件**：
+   - 你需要提交以下文件：
+     - 1. 申请者本人的亲属关系证明书 1 份
+     - 2. 申请者本人、父、母的户籍誊本各 1 份（总计 3 份）
+     - 3. 中学学籍卡 1 份（教育机构、公共机关、自助服务机、政府24网站可获取）
+     - 4. 高中学籍卡 1 份（对于非在线提交的学生和未同意的学校，需要提供）
+因此，你作为特殊教育高中学生，并且满足在农林地区居住的要求，是可以申请东义大学农林地区学生选拔项目的。建议仔细查看具体的文件要求并准备齐全。如果有任何疑问，可以访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取更多信息或直接咨询学校招生办公室。</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 해당 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 평균 성적을 제시하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 원문에서 제공되지 않는 정보를 포함하고 있습니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있으므로, 생성된 응답은 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 하였고, 생성된 응답은 그와 반대되는 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련하여 점수를 낮추었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비논리적입니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공되지 않는 정보를 포함하고 있으며, 이는 사실적으로 부정확합니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없습니다. 원문에서 요청한 정보와는 정반대의 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련하여 점수를 낮추었습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.613135081234358</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최종 등록자의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 434.70입니다.
+이 데이터는 다음과 같은 정보를 기반으로 합니다:
+- 단과대학: ICT융합공과대학
+- 모집단위: 소프트웨어공학부
+- 모집 인원: 30명
+- 지원 인원: 146명
+- 경쟁률: 4.87
+- 충원 합격 (후보순위): 63명
+- 수능 4개 영역 등급의 평균: 4.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 434.70
+따라서, 2024학년도 소프트웨어공학부의 합격자들의 평균 성적은 434.70입니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상충되는 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 완전히 모순되는 정보를 제공하고 있습니다. 원문에서는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 평균 성적을 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원문에서 요청한 정보와 관련이 없습니다. 원문은 평균 성적에 대한 정보가 없다고 명시하고 있으며, 생성된 응답은 그와는 전혀 다른 내용을 담고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 원문과의 연결성이 부족하여 일관성이 떨어집니다. 원문과의 논리적 흐름이 없기 때문에 낮은 점수를 부여합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있으며, 이는 사실과 다릅니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 모든 평가 기준에서 낮은 점수를 받은 생성된 응답은 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로는 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.4982342682769528</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 317.87입니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고 있으며, 실제 일정과는 전혀 다른 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트는 구체적인 날짜와 시간을 제공하는 반면, 생성된 응답은 그러한 정보를 전혀 언급하지 않고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 질문에 대한 답변으로는 적절하지 않으며, 일반적인 정보만을 제공하고 있습니다. 원본 텍스트의 핵심 주제와는 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 점수가 다소 낮아졌습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않으며, 원본 텍스트의 맥락과 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 적절성 때문에 점수가 다소 낮아졌습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.5480709640067267</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2023년 경북대학교의 합격자 발표 일정에 대한 명확한 정보가 제공되지 않았습니다. 일반적으로 대학별로 합격자 발표는 입시일정에 따라 이루어지며, 대부분은 정시모집의 경우 1월 중순부터 시작됩니다. 하지만 각 전형별로 다르게 진행될 수 있으므로, 경북대학교의 공식 홈페이지나 입학처 웹사이트를 통해 최신 정보를 확인하시기 바랍니다. 해당 사이트에서 가장 정확하고 최신의 합격자 발표 일정을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 날짜(2024. 01. 20.)를 완전히 무시하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 면접고사 일정에 대한 정보가 전혀 포함되어 있지 않습니다. 이로 인해 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 면접고사 일정에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성 점수는 1입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 유용성은 떨어집니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 없기 때문에 논리적인 흐름이 부족합니다. 그러나 내부적으로는 일관된 구조를 가지고 있어 점수는 2입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다르며, 정확한 정보를 제공하지 않습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전혀 적절하지 않습니다. 따라서 의미 적합성 점수는 1입니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 질문에 대한 답변으로서의 이해는 어렵습니다. 따라서 이해 가능성 점수는 3입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.3776169772938513</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有具体说明面试考试的具体日期或时间安排。为了获取准确的面试时间和地点，建议直接咨询学校招生办公室或者查看学校的官方公告和通知。通常这类信息会在报名结束后通过官网、邮件或其他联系方式告知考生。请保持关注并及时确认相关安排。</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 "동의대 한의예과의 최저학력 기준이 없습니다."라는 사실을 무시하고, 일반적인 한의예과의 입학 요건에 대한 정보를 제공하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 낮습니다.
+2. Consistency Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, "일반적으로 고등학교 졸업 자격이 필요하다"는 내용은 동의대 한의예과의 최저학력 기준이 없다는 원문과 모순됩니다.
+3. Relevance Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 한의예과의 최저학력 기준에 대한 정보를 제공하려고 하지만, 원문에서 명시된 "최저학력 기준이 없다"는 점을 간과하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5):
+   - 점수: 3
+   - 설명: 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관성이 떨어집니다. 원문과의 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 2
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 3
+   - 설명: 응답의 의미는 어느 정도 적절하지만, 원문과의 맥락이 맞지 않아 의미 전달이 부족합니다.
+9. Understandability Score (1-5):
+   - 점수: 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.577611065999344</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과의 최저학력 기준 정보가 제공되지 않았습니다. 일반적으로 한의예과의 경우, 대체로 고등학교 졸업 자격이 필요하며, 일부 대학에서는 특정 과목 성적 또는 수능 점수 기준을 요구할 수 있습니다.
+하지만, 정확한 최저학력기준은 각 대학 별로 다를 수 있으므로, 해당 대학의 공식 입학요강이나 홈페이지를 확인하시거나, 입학처에 직접 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 세부사항도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 여러 전형에 대해 일관되게 설명하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 정보를 상세히 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 사실적으로 정확하며, 동의대학교의 수능 최저학력 기준에 대한 정보를 올바르게 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 기록하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.5327501525829318</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 정시모집의 경우 다음과 같은 수능 최저학력 기준을 확인할 수 있습니다:
+1. 가군 수능(일반학생전형) 전 모집단위(레저스포츠학과, 태권도학과 제외):
+   - 수능최저기준 없음
+2. 나군 수능(일반학생전형) 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외):
+   - 수능최저기준 없음
+3. 다군 수능(일반학생전형) 전 모집단위:
+   - 수능최저기준 없음
+4. 가군 실기/실적(일반학생전형) 레저스포츠학과, 태권도학과:
+   - 수능최저기준 없음
+5. 나군 실기/실적(일반학생전형) 디자인조형학과, 체육학과:
+   - 수능최저기준 없음
+6. 다군 실기/실적(일반학생전형) 경기지도학과:
+   - 수능최저기준 없음
+7. 나군 학생부교과(농어촌학생전형) - 정원외:
+   - 수능최저기준 없음
+8. 나군 학생부교과(평생학습자전형):
+   - 수능최저기준 없음
+9. 나군 학생부교과(성인학습자(정원내)전형):
+   - 수능최저기준 없음
+10. 나군 학생부교과(성인학습자(정원외)전형 - 정원외):
+    - 수능최저기준 없음
+11. 나군 학생부종합(재직자전형) - 정원외:
+    - 수능최저기준 없음
+12. 나군 학생부종합(조기취업형계약학과전형) - 정원외:
+    - 수능최저기준 없음
+따라서, 2024학년도 정시모집에서 대부분의 전형에서는 수능 최저학력 기준이 없습니다. 특정 학과나 전형에 따라 다르게 적용될 수 있으므로, 각 모집단위별로 공식 입학처 웹사이트를 확인하시거나, 대학 측에 직접 문의하시는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원 합격자 발표 일정에 대한 정보를 포함하고 있지만, 1차 등록 시간에 대한 정보가 추가되어 있어 원본 텍스트와는 약간의 차이가 있습니다. 원본에는 등록 시간에 대한 언급이 없으므로, 이 부분이 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일치하지만, 등록 시간에 대한 추가 정보가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 충원 합격자 발표 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보를 명확하게 전달하고 있습니다. 그러나 등록 시간의 추가로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 발표 일정에 대한 정보는 정확하지만, 등록 시간에 대한 추가 정보는 원본 텍스트에 포함되어 있지 않아 정확성에 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있지만, 사실성과 일관성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 등록 시간의 추가로 인해 약간의 의미 변형이 발생했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.8540204798004186</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024학년도의 경우, 충원 합격자 발표 일정은 다음과 같습니다:
+- **충원 합격자 1차 발표**: 2024. 02. 14.(수) 09:00
+- **충원 합격자 1차 등록**: 2024. 02. 14.(수) 09:00~16:00
+- **충원 합격자 2차 발표**: 2024. 02. 15.(목) 09:00
+- **충원 합격자 2차 등록**: 2024. 02. 15.(목) 09:00~16:00
+- **충원 합격자 3차 이후 발표**: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+이 일정들은 각각의 충원 합격자 발표와 등록 시기를 알려주고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 절차에 대한 설명으로 대체되었습니다. 원본 텍스트의 사실적 내용을 반영하지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 충원합격자 발표 일정에 대한 정보가 전혀 포함되어 있지 않습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 구체적인 질문에 대한 답변이 아닌 일반적인 정보로 구성되어 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되었고, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 언어가 다릅니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 제공하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 적절하지 않은 정보로 대체되었습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있지만, 원본 텍스트의 질문에 대한 명확한 답변이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.3768203272320212</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>为您提供准确答案，我需要更多具体信息，比如您指的是哪所大学或学校的哪个招生项目。不过根据一般的流程，如果是指韩国某大学的入学考试，通常情况下：
+1. 初试成绩公布时间：一般在考试后的2-4周内。
+2. 补录（추가합격자）名单公布时间：通常会在初试成绩公布后的一两周内进行补录。具体日期会由学校官方通知。
+建议您直接查看目标学校的官方网站或联系招生办公室获取最准确的信息。每个大学的具体安排可能会有所不同，因此最好以官方发布的为准。</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 명확한 정보를 제공하지 않으며, 원문에서 언급된 내용과 상충하는 부분이 있습니다. 원문에서는 추가 모집이 이루어진다고 명시하고 있지만, 생성된 응답은 이를 부정하는 내용이 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 원문에서 제시된 정보와 상반되는 내용을 포함하고 있습니다. 원문은 추가 모집이 이루어진다고 명확히 언급하고 있으나, 생성된 응답은 이를 부정하는 듯한 인상을 줍니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 질문에 대한 답변을 시도하고 있으나, 원문에서 제공하는 구체적인 정보와는 거리가 있습니다. 원문에서의 핵심 내용이 잘 반영되지 않았습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어가 아닌 다른 언어로 작성되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원문과의 연결성이 부족하여 전체적으로 일관성이 떨어집니다. 원문과의 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 원문에서 명시된 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 원문과의 일치성, 정확성, 관련성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치성이 떨어지며, 원문에서 전달하고자 하는 메시지를 잘 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기에는 무리가 없으나, 원문과의 관련성이 부족하여 이해하는 데 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.4863580408444345</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到是否进行额外招生（추가모집）。为了给出准确答案，需要具体查看学校的官方招生简章或相关公告。通常，学校会在正式的招生计划中说明是否有额外招生安排以及相关的详细信息。
+如果要确认是否进行额外招生，建议直接咨询学校招生办公室或访问学校官网获取最新、最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 주요 정보를 잘 요약하고 있으나, 일부 세부사항(예: 전형요소 반영 비율, 제출기간 및 장소 등)이 누락되어 있어 완전한 정확성을 결여하고 있다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 전형요소 반영 비율과 같은 중요한 세부사항이 누락되어 있어 일관성이 떨어진다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 평생학습자전형에 대한 질문에 직접적으로 관련된 정보를 제공하고 있어 매우 관련성이 높다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요하다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 일관된 흐름을 유지하고 있다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확하지만, 일부 세부사항이 누락되어 있어 완전한 정확성을 보장하지는 않는다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일부 세부사항의 누락으로 인해 완전한 점수를 받지 못했다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 세부사항이 누락되어 있어 완전한 적절성을 보장하지는 않는다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.7250990229177141</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학입시에서 성인 학습자를 위한 특별한 전형입니다. 주요 내용을 요약하면 다음과 같습니다:
+1. 지원 자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+   - 검정고시 출신자
+   - 외국고교 졸업(예정)자
+2. 제출 서류:
+   - 고교 졸업(예정)자는 고교 학교생활기록부 1부
+   - 검정고시 출신자는 1. 검정고시 합격증서 사본 또는 합격증명서 1부, 2. 검정고시 성적증명서 1부
+   - 외국고교 졸업(예정)자는 1. 공증받은 외국고교 졸업(예정)증명서 1부, 2. 공증받은 외국고교 성적증명서 1부
+3. 평가 영역:
+   - 공동체역량
+   - 학업역량
+   - 전공적합성
+4. 서류평가 및 면접평가:
+   - 서류평가: 각 영역별로 평가 기준에 따라 점수를 부여합니다.
+   - 면접평가: 지원동기, 학업계획, 학업역량, 전공적합성 등을 평가합니다.
+5. 동점자 처리:
+   - 1순위: 면접고사 성적 상위자
+   - 2순위: 서류평가 공동체역량 영역 성적 상위자
+   - 3순위: 서류평가 전공적합성 영역 성적 상위자
+6. 주요 변경사항:
+   - 2024학년도에는 학생부종합 평가영역이 공동체역량, 학업역량, 전공적합성을 포함하게 되었습니다.
+   - 서류평가의 경우, 학생부 교과성적 반영방법이 변경되었습니다.
+이러한 내용을 참고하시어 필요한 서류를 준비하고 지원하시면 됩니다. 자세한 사항은 대학 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직 기간에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변이 아닙니다. 매우 낮은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.657425799536057</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. **산업체 적용 범위**:
+   - 국가·지방자치단체 및 공공단체 소속 직원
+   - 근로기준법 제11조에 따라 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입된 사업체 (창업·자영업자 포함)
+     - 단, 4대 보험 가입 대상이 아닌 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서를 통해 인정 가능
+2. **재직 기간**:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간을 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 포함하고 있으며, 2024년 1월 12일 이후에 입학안내 홈페이지에서 확인할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 각 모집단위별 실기고사 일정과 준비물에 대한 정보는 추가적인 세부사항으로, 원본 텍스트의 핵심 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 각 모집단위별 실기고사에 대한 세부사항이 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 주제와는 다소 다른 방향으로 나아가고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 실기고사에 대한 질문에 대해 매우 관련성이 높습니다. 각 모집단위별 실기고사 정보는 질문의 맥락에 잘 맞아떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 모집단위별 실기고사 정보가 체계적으로 나열되어 있습니다. 그러나 원본 텍스트와의 연결이 약해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 대한 정확한 정보를 제공하고 있으며, 원본 텍스트의 사실을 잘 반영하고 있습니다. 그러나 추가된 세부사항이 원본 텍스트의 핵심 정보와는 다소 다를 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 추가된 정보가 원본의 주제와 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 긴 문장으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.6130025918197971</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 각 모집단위에 따라 다르게 진행됩니다. 예를 들어:
+1. **디자인조형학과 (시각디자인, 산업디자인, 공예디자인)**:
+   - 일정: 2024년 1월 17일 (수)
+   - 준비물: 볼펜, 연필, 색연필, 수채물감 등
+   - 실기주제: 주제A와 주제B 중 각 1개를 선택하여 연결된 주제로 당일 추첨
+   - 화지크기: 켄트지3절
+   - 시간: 5시간
+2. **체육학과**:
+   - 제자리 멀리뛰기 (240점, 24%)
+   - 메디신볼 던지기 (243점, 23%)
+   - Z-런 (230점, 23%)
+3. **레저스포츠학과**:
+   - 제자리 멀리뛰기 (350점, 35%)
+   - Z-런 (350점, 35%)
+4. **태권도학과**:
+   - 품새: 앞차기(오른발, 왼발) × 2회, 돌려차기(오른발, 왼발) × 2회, 옆차기(오른발, 왼발) × 2회
+   - 응용실기 (500점): 지정 품새 (고려)
+5. **디자인조형학과 (레저스포츠학과 제외)**:
+   - 일정: 2024년 1월 17일 (수)
+   - 준비물: 볼펜, 연필, 색연필, 수채물감 등
+   - 실기주제: 주제A와 주제B 중 각 1개를 선택하여 연결된 주제로 당일 추첨
+실기고사는 해당 모집단위의 대기실에서 진행되며, 입실 시간은 2024년 1월 12일 (금) 14:00 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+따라서 실기고사 장소는 각 모집단위별로 다르므로 해당 모집단위의 대기실로 가야 합니다.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 체육학과의 실기 종목에 대한 내용을 담고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 사실과도 맞지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트는 대기실 및 입실시간에 대한 정보인데, 생성된 응답은 실기 종목에 대한 내용으로 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 실기고사 대기실 및 입실시간에 대한 정보인데, 생성된 응답은 체육학과의 실기 종목에 대한 설명으로 전혀 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해도에는 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.253759481558348</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같은 항목들로 구성되어 있습니다:
+1. 제자리 멀리뛰기 (240점, 24%)
+2. 메디신볼 던지기 (243점, 23%) 
+3. Z-런 (230점, 23%)
+따라서 체육학과의 학생들은 이 세 가지 실기 종목 중 하나를 선택하여 준비해야 합니다. 각 항목은 비율대로 점수가 부여되며 총점에서 차지하는 비중이 다릅니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수시 충원합격자 발표 후 개별 전화 통보를 받을 수 있다고 언급하고 있지만, 원문에서는 전화로 개별 연락을 하지 않는다고 명확히 설명하고 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시되어 있는데, 생성된 응답은 전화 통보를 받을 수 있다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 원문에서 명시된 내용과는 다소 차이가 있습니다. 그러나 주제와 관련된 정보가 포함되어 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 일관성이 부족하여 논리적인 흐름이 다소 어색합니다. 정보가 잘 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다. 원문에서 전화 통보가 이루어지지 않는다고 명시된 반면, 생성된 응답은 전화 통보를 받을 수 있다고 주장합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원문과 일치하지 않거나 상충되는 부분이 많아 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 내용이 원문과 상충하여 의미적으로 적절하지 않은 부분이 있습니다. 그러나 주제와 관련된 정보가 포함되어 있어 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.6610048969931217</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2024년 동일한 입학사정 과정에 따르면, 수시 충원 합격자 발표 후에는 개별 전화 통보를 받을 수도 있습니다. 하지만 모든 경우에 대해 전화 통보를 받는 것은 아닙니다. 대체로 다음과 같은 절차가 적용됩니다:
+1. **발표**: 2024년 2월 15일 오후 7시 이후 충원 합격자 발표.
+2. **등록**: 2024년 2월 15일부터 2월 20일까지 등록.
+충원 합격자는 2024년 2월 15일 오후 7시 이후 홈페이지에서 개별 조회가 가능하며, 고지서도 출력이 가능합니다. 이 후에는 학교 측에서 일부 합격자에게는 전화 통보를 할 수 있습니다.
+하지만 가장 확실한 방법은 합격 발표 후 입학관리팀에 연락하여 확인하는 것입니다. 직접 학교로 문의하거나, 입학사정관과 상담을 통해 최신 정보와 안내를 받으시는 것이 좋습니다.
+[입학사정관과의 연락처 및 입학관리팀 정보 확인하기](https://ipsi.deu.ac.kr/main.do)
+이러한 절차에 대해 궁금하신 점이 있으면 언제든지 문의해 주세요.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 없다는 사실을 언급하고 있지만, 2024학년도 모집 정보를 바탕으로 2023학년도 결과를 추정하는 내용은 사실과 다릅니다. 원문에서는 2023학년도에 대한 정보가 전혀 없다고 명시하고 있으므로, 이러한 추정은 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 2023학년도에 대한 정보가 없다고 명확히 하고 있지만, 생성된 응답은 2024학년도 정보를 바탕으로 2023학년도 결과를 추정하고 있습니다. 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문에서 요청한 정보에 대한 대답을 시도하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원문에서 명시된 대로 2023학년도에 대한 정보가 없다는 점을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 정보가 나열되어 있지만, 2023학년도에 대한 정보가 없다는 원문의 주제를 명확히 반영하지 못하고 있습니다. 따라서 논리적 흐름이 다소 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 2023학년도에 대한 정확한 정보를 제공하지 않으며, 2024학년도 정보를 바탕으로 한 추정은 사실과 다릅니다. 원문에서 명시된 대로 2023학년도에 대한 정보가 없다는 점을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이러한 점들이 종합적으로 반영되어 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문의 맥락을 일부 반영하고 있지만, 2023학년도에 대한 정보가 없다는 점을 간과하고 있어 의미적으로 완전히 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 정보의 정확성과 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.7345441806486712</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 직접적으로 확인할 수 없습니다. 하지만, 2024학년도의 모집 상황을 통해 2023학년도의 대략적인 추세를 예측할 수 있습니다.
+2024학년도 경찰행정학과의 모집 정보는 다음과 같습니다:
+- 단과대학: 인문사회과학대학
+- 모집단위: 경찰행정학과
+- 모집인원: 7명
+- 지원인원: 29명
+- 경쟁률: 4.14
+- 충원 합격 (후보순위): 7명
+이 정보를 바탕으로, 2023학년도 경찰행정학과의 수시모집 결과는 다음과 같을 것으로 추정할 수 있습니다:
+- 모집인원: 약 7명
+- 지원인원: 약 29명 (대략적인 비슷한 수준)
+- 경쟁률: 대략 4.14 정도
+하지만, 정확한 2023학년도의 지원자 수와 합격자 수는 제공된 데이터에서 확인할 수 없습니다. 더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 공식 안내서를 참조하거나 직접 문의하는 것이 가장 정확합니다.
+더 궁금하신 점이 있으시다면 추가 질문 부탁드립니다.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않아도 지원할 수 있는 전형이 있다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 수능 응시가 필수라고 명시하고 있는데, 생성된 응답은 특정 전형에서 수능 응시 여부와 관계없이 지원이 가능하다고 주장합니다. 이는 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와의 관련성이 떨어집니다. 원문에서의 핵심 주제는 수능 응시 여부에 대한 명확한 규정입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 제공하지만, 원문과의 논리적 흐름이 부족합니다. 원문에서의 명확한 규정과는 다르게 여러 조건을 제시하고 있어 일관된 구조를 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서의 사실과 완전히 반대되는 정보를 포함하고 있습니다. 수능에 응시하지 않으면 지원할 수 없다는 원문의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와는 다르게 해석되고 있으며, 잘못된 정보로 인해 의미적으로 부적절합니다. 원문의 맥락을 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.5095460539904142</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로, 일부 전형에서는 수능을 응시하지 않은 경우에도 지원이 가능합니다. 특히 농어촌학생전형과 평생학습자전형 등에서 수능 응시 여부에 관계없이 지원할 수 있는 경우가 있습니다.
+예를 들어:
+- **나군 학생부교과(농어촌학생전형)**: 농어촌 지역 거주 조건만 충족하면 수능을 응시하지 않아도 지원 가능합니다.
+- **나군 학생부종합(성인학습자(정원내·외)전형)**, **나군 학생부종합(재직자전형)** 등에서도 특정 조건만 충족하면 수능 응시 여부에 관계없이 지원 가능합니다.
+하지만 대부분의 전형에서는 수능 점수를 반영하므로, 수능을 응시하는 것이 유리할 수 있습니다. 자세한 내용은 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트에서 확인하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 부정하고, 나이 제한이 있다고 언급하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있으며, 정시 지원 가능성에 대한 정보가 일관되지 않습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 일부 관련 정보를 제공하지만, 주제와 관련된 핵심 사항을 다루지 않고 있습니다. 원문에서 언급된 정시 지원 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어, 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 제공하지만, 원문과의 연결성이 부족하여 일관된 흐름이 떨어집니다. 여러 가지 전형에 대한 설명이 있지만, 주제와의 연관성이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 고등학교 졸업 후 정시 지원이 가능하다는 사실을 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원문과의 일치성이 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 적절하지 않으며, 원문의 맥락과는 다릅니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기에는 무리가 없지만, 원문과의 관련성이 떨어져 이해하기 어려운 부분이 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.4500369257104113</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>一般来说，韩国的大学入学考试（如高考）有严格的年龄限制。对于已经高中毕业超过一定年限的学生来说，直接通过普通高考（一般指“정시”或常规录取途径）进入大学是比较困难的。
+不过，有一些特殊类型的招生计划可能适用于您：
+1. **평생학습자전형 (成人学习者类型)**：这类计划专门针对那些在高中毕业后有多年工作经验的人。您可以查看是否有适合您的专业和学校。
+2. **성인학습자 전형 (成人学习者类型)**：同样，这是为成年人设计的特殊招生方式，可能不需要参加普通高考，而是通过其他评估方式进行选拔。
+3. **재직자전형 (在职人员类型)**：这类计划面向在职员工，他们希望进一步深造或转换职业。您需要提供工作证明和相关经验材料。
+4. **조기취업형 계약학과 전형 (提前就业型合同学类招生)**：这种类型的招生计划允许学生在大学期间就开始实习并获得工作经验，适合有明确职业规划的学生。
+建议您详细查看目标学校的招生简章或直接联系学校咨询办公室，了解具体的申请条件和流程。同时，也可以考虑参加一些成人教育课程来提升自己的竞争力。</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 정시 모집 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 자연스럽게 이어집니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.8049489870963851</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시 모집일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 06.(토) (마감일 18시까지)
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출**:
+   - 기간: 2024. 01. 03.(수) ~ 2024. 01. 12.(금) (마감일 17시까지 도착)
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조), 제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 (2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회)
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 (2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회)
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+   - 충원 합격자 발표 및 등록:
+     - 1차 (인터넷): 2024. 02. 14.(수) 09:00
+     - 1차 (인터넷): 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 2차 (인터넷): 2024. 02. 15.(목) 09:00
+     - 2차 (인터넷): 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 3차 이후 (개별 전화 통보): 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+이 일정은 일반적으로 정시 모집의 주요 단계를 포함하며, 각 단계별로 필요한 준비와 제출 사항을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.8997824936159561</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 
+          제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과, 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: 동일
+   - 충원 합격자 1차 발표 및 등록: 
+     - 날짜: 2024. 02. 14.(수) 09:00
+       - 비고: 동일
+   - 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: 동일
+   - 충원 합격자 2차 발표 및 등록:
+     - 날짜: 2024. 02. 15.(목) 09:00
+       - 비고: 동일
+   - 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: 동일
+   - 충원 합격자 3차 이후 발표 및 등록:
+     - 날짜: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+       - 비고: 동일
+이 일정은 일반적으로 정시모집의 주요 단계를 포함하고 있으며, 각 단계별로 중요한 정보와 마감일을 명시하였습니다. 자세한 내용은 입학안내 홈페이지에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 수능 미응시자가 지원할 수 있는 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서는 수능 미응시자는 지원이 불가능하다고 명시되어 있습니다. 따라서 생성된 응답은 원본 텍스트와 상충하는 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 수능 미응시자가 지원할 수 있는 전형을 나열하고 있습니다. 이는 원본 텍스트의 내용과 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 수능 미응시자에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 내용과는 상반된 정보를 제공하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 전형을 나열하고 있지만, 원본 텍스트의 주제와는 일치하지 않기 때문에 일관성이 떨어집니다. 그러나 각 전형에 대한 설명은 논리적으로 연결되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 상반되는 정보를 제공하고 있습니다. 수능 미응시자는 지원이 불가능하다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 수능 미응시자가 지원할 수 있는 전형을 나열하는 것은 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.643069112503581</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 다음과 같습니다:
+1. **다군 수능(일반학생전형)**:
+   - 이 전형은 일반적으로 수능 점수를 반영하지만, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 다양한 단과대학과 계열에서 모집됩니다.
+2. **다군 실기/실적(일반학생전형)**:
+   - 이 전형은 실기고사와 학생부 교과 성적을 반영하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 레저스포츠학과, 태권도학과 등에서 모집됩니다.
+3. **다군 실기/실적(경기실적우수자전형)**:
+   - 이 전형은 경기 실적을 반영하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 전 모집단위에서 모집됩니다.
+4. **나군 학생부교과(농어촌학생전형)**:
+   - 이 전형은 학생부 교과 성적을 주요 평가 기준으로 하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 전 모집단위에서 모집됩니다.
+5. **나군 학생부교과(평생학습자전형)**:
+   - 이 전형은 학생부 교과 성적을 주요 평가 기준으로 하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 전 모집단위에서 모집됩니다.
+6. **나군 학생부종합(성인학습자(정원내)전형)**:
+   - 이 전형은 서류 평가와 면접을 통해 성인 학습자를 평가하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 전 모집단위에서 모집됩니다.
+7. **나군 학생부종합(성인학습자(정원외)전형)**:
+   - 이 전형은 서류 평가와 면접을 통해 성인 학습자를 평가하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 전 모집단위에서 모집됩니다.
+8. **나군 학생부종합(재직자전형)**:
+   - 이 전형은 서류 평가와 면접을 통해 재직자를 평가하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 전 모집단위에서 모집됩니다.
+9. **나군 학생부종합(조기취업형계약학과전형)**:
+   - 이 전형은 서류 평가와 면접을 통해 조기 취업자를 평가하며, 수능 미응시자도 지원이 가능합니다.
+   - 모집단위 및 모집인원: 전 모집단위에서 모집됩니다.
+따라서, 수능 미응시자도 다양한 전형을 통해 동의대학교에 지원할 수 있는 기회가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전자공학과의 충원 합격자가 165명이라고 주장하지만, 원본 텍스트에서는 전년도 충원 합격자가 36명이라고 명시하고 있습니다. 따라서 생성된 응답은 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 최소 2차까지 이루어졌다고 주장합니다. 이는 명백한 불일치입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 없는 정보(165명, 2차 등)를 포함하고 있습니다. 원본 텍스트의 핵심 내용과는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 전자공학과의 충원 합격자 수에 대한 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 저하된 응답입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있습니다. 원본의 주제와는 다른 방향으로 나아가고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성과 관련성 부족으로 인해 혼란을 초래할 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.6786618855164787</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 기준으로, 전자공학과의 충원 합격자는 165명이었으며, 이는 105명의 모집인원을 초과하여 60명이 추가로 충원 합격하였습니다. 따라서 전년도(2023학년도)에 전자공학과의 충원 합격은 최소 2차까지 이루어졌습니다.
+만약 정확한 1차와 2차의 구체적인 수치가 필요하다면, 해당 정보는 제공된 데이터에서 찾을 수 없습니다. 따라서 2차 이상으로 확정할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 입학처 전화번호를 명확히 제공하지 않고 있으며, 제공된 정보에서 전화번호를 확인할 수 없다고 주장하고 있습니다. 이는 사실과 다르며, 원본 텍스트에 명시된 전화번호를 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 명확한 전화번호를 제공하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 전화번호에 대한 질문에 대한 답변으로는 적절하지 않으며, 관련 정보가 부족합니다. 전화번호를 제공하는 대신 다른 방법을 제안하고 있지만, 질문의 핵심에 대한 직접적인 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 약간 저해됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해져 있습니다. 전화번호를 제공하지 않고 다른 방법을 제안하는 부분에서 논리적 흐름이 다소 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호를 제공하지 않음으로써 정확성이 결여되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원본 텍스트의 정보를 제대로 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 전달하지 못하고 있으며, 전화번호를 제공하지 않는 점에서 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 내용이 질문에 대한 직접적인 답변이 아니기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.5471494991951318</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교의 정확한 입학처 전화번호를 확인할 수 없습니다. 대학 홈페이지나 공식 문서를 통해 최신 연락처를 확인하시기 바랍니다. 일반적으로 대학 홈페이지의 '연락처' 또는 '입학 안내' 섹션을 찾아보시면 전화번호가 표시되어 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우의 절차를 설명하고 있지만, 원본 텍스트에서 언급된 "등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다"라는 중요한 사실을 누락하고 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 전화 통화가 되지 않을 경우의 결과에 대한 설명이 부족하여 일관성이 떨어집니다. 원본 텍스트의 핵심 내용을 반영하지 못하고 있어 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 전화 통화가 되지 않을 경우의 절차를 설명하고 있습니다. 그러나 원본 텍스트의 중요한 요소인 등록 포기 처리에 대한 언급이 없으므로 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있습니다. 따라서 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 절차가 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 원본 텍스트의 중요한 사실을 누락하고 있어 정확성 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으며, 특히 사실성과 일관성에서 부족함이 있습니다. 따라서 점수를 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 중요한 세부사항이 누락되어 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 점수를 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.6733741364815397</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 19시부터 20일(화) 18시까지는 3차 충원합격자에 대한 개별 전화 통보가 이루어집니다. 만약 이 기간 동안 전화 통화가 되지 않는 경우, 다음과 같은 절차를 따르게 됩니다:
+1. 홈페이지에서 개별 조회: 합격 여부 확인을 위해 입학 안내 홈페이지에서 개별적으로 조회해야 합니다.
+2. 고지서 교부: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+3. 등록장소: 학교 지정은행으로 등록해야 하며, 등록금 고지서에 기재된 정보를 참고해야 합니다.
+따라서 전화 통화가 되지 않더라도, 위의 절차를 통해 합격 여부와 등록 방법을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 농어촌학생전형에 필요한 서류를 일부 언급하고 있지만, 원본 텍스트에 포함된 중요한 서류들(예: 가족관계증명서, 주민등록초본 등)을 누락하고 있습니다. 또한, 농어촌학생증명서와 같은 서류는 원본 텍스트에 명시되어 있지 않으며, 이로 인해 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보(예: 농어촌학생증명서, 학생부교과성적표 등)를 포함하고 있어 일관성이 부족합니다. 원본 텍스트에서 요구하는 서류와 생성된 응답의 서류가 서로 다릅니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 농어촌학생전형에 대한 정보를 제공하고 있으나, 원본 텍스트에서 요구하는 서류와는 다소 차이가 있어 완전한 관련성을 갖추지 못하고 있습니다. 그러나 주제는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 서류에 대한 설명이 명확하게 이어집니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 요구 사항을 정확하게 반영하지 않으며, 잘못된 정보가 포함되어 있습니다. 특히, 필요한 서류의 목록이 원본과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 부족함이 있으며, 이로 인해 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 차이가 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.6427922363023542</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 농어촌학생전형에서 제출해야 하는 주요 서류는 다음과 같습니다:
+1. 고교 학교생활기록부 1부 
+   - 학생부 온라인 제공 동의자가 있는 경우 제출 필요 없음
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+2. 농어촌학생증명서 1부 
+   - 농어촌학생으로 인정받은 증명서를 제출해야 함
+3. 학생부교과성적표 1부
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능
+4. 농어촌학생전형 지원동의서 1부 
+   - 본인이 농어촌학생으로 인정받기를 원하는지 동의하는 서류
+5. 기타 추가 서류(선택적)
+   - 지역특성화 프로그램 참여 경력 증빙자료 등 (필요시 제출)
+이러한 서류들을 정확하게 준비하여 제출해야 합니다. 특히 농어촌학생증명서는 반드시 포함되어야 하며, 학교생활기록부와 교과성적표는 온라인 제공 동의가 있는 경우 제출하지 않아도 됩니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 제출해야 할 서류 목록에서 중요한 세부사항을 누락하고 있으며, 특히 주민등록초본과 초등학교 및 중학교 학교생활기록부에 대한 언급이 없습니다. 또한, "이외 추가적인 서류는 필요하지 않습니다"라는 문장은 사실과 다릅니다. 최종등록자의 경우 추가 서류가 필요하다는 점이 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 많습니다. 특히, 제출해야 할 서류 목록에서 중요한 항목들이 빠져 있으며, 온라인 제공 동의자에 대한 설명이 원본과 다르게 해석되고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트에서 요구하는 모든 정보를 포함하지 않기 때문에 완전한 관련성을 갖추지 못하고 있습니다. 그러나 주제에 대한 기본적인 정보는 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 일관성이 부족하여 전체적인 일관성이 떨어집니다. 서류 목록이 불완전하게 제시되어 있어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 제출해야 할 서류의 목록이 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 부족한 점이 많습니다. 사실성, 일관성, 정확성 모두 낮은 점수를 받고 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원본 텍스트의 맥락과 일치하지 않는 부분이 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 누락으로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.7695629290444934</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정인 농어촌학생전형의 제출서류는 다음과 같습니다:
+- 고교 학교생활기록부 1부 (온라인 제공 동의자는 제출할 필요 없음)
+- 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받음
+이외 추가적인 서류는 필요하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 정시 모집 전형에 기회균등 전형이 존재하지 않는다는 사실을 정확하게 반영하고 있습니다. 또한, 2024학년도에 대한 정보도 적절하게 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 기회균등 전형이 없다는 점을 명확히 하고 있습니다. 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 기회균등 전형에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.561067080675661</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 해당 대학에서는 정시모집의 경우 저소득 기회균등 전형을 실시하지 않는 것으로 보입니다. 이전 년도와 달리 2024학년도에는 저소득 기회균등 전형이 없어졌음을 알 수 있습니다.
+따라서, 현재 정보에 따르면 정시모집에서 저소득 기회균등 전형이 선발되지 않는 것으로 판단됩니다. 하지만 매년 변화가 있을 수 있으므로, 최종 결정을 내리기 전에는 대학 입학처 웹사이트나 공식 안내문을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 구체적인 정보를 제공하지 않으며, 일반적인 평균 처리 방식에 대한 설명을 포함하고 있습니다. 그러나 원본 텍스트에서 명시된 정보와는 다르게, 절사 여부에 대한 명확한 답변을 제공하지 않기 때문에 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 언급된 절사 여부에 대한 정보가 없다는 점을 무시하고 일반적인 평균 처리 방식에 대한 설명을 추가하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 최저등급의 평균 산출에 대한 질문에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 핵심 질문인 절사 여부에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어 일관성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일반적인 평균 처리 방식에 대한 설명을 포함하고 있지만, 원본 텍스트의 질문과는 관련이 적어 논리적인 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 절사 여부에 대한 구체적인 정보를 제공하지 않기 때문에 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 관련성, 정확성 모두에서 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 질문에 대한 적절한 답변을 제공하지 않기 때문에 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 질문의 의도를 완전히 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.4053716283731284</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>一般来说，如果需要计算两个科目成绩的平均值，并且结果是小数（如2.5），通常会进行四舍五入处理。具体做法可能会因学校或大学的不同而有所差异。
+但是根据您提供的信息：
+- 如果“사탐(2개 과목 평균산출)”是指将两个社会科目成绩相加后取平均值，那么2.5等会保留为2.5。
+- 但如果需要进行整数化处理（如四舍五入），则2.5会被四舍五入到3。
+建议您查看具体的招生简章或咨询学校招生办公室以确认他们的具体处理方式。通常情况下，大多数大学会采用四舍五入的方式处理小数成绩。</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 정시 충원 합격자 발표의 차수와 일정을 정확하게 반영하고 있습니다. 그러나 2차 발표의 시간에 대한 정보가 "09:00~16:00"으로 잘못 기재되어 있으며, 원문에서는 단순히 "09:00"으로만 언급되어 있습니다. 이로 인해 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 대체로 일치하지만, 2차 발표의 시간에 대한 정보가 다르게 제시되어 있어 일관성이 떨어집니다. 나머지 정보는 일관되지만, 이 부분에서의 불일치로 인해 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 정시 충원 합격자 발표에 대한 정보를 명확하게 전달하고 있습니다. 모든 주요 포인트를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있으나 전반적인 유창성은 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 차수에 대한 정보가 명확하게 나열되어 있습니다. 그러나 2차 발표의 시간에 대한 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보가 정확하지만, 2차 발표의 시간에 대한 잘못된 정보로 인해 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 세부 사항에서의 오류로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 주제에 적합한 내용을 전달하고 있습니다. 다만, 일부 표현에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 세부 사항에서의 혼란이 있을 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.6914944222992642</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>2024년 입학의 경우, 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: 합격자 발표 및 등록금 납부
+2. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 09:00~16:00
+   - 내용: 합격자 발표 및 등록금 납부
+3. **3차 이후 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지
+   - 내용: 합격자 발표 및 등록금 납부
+따라서 정시 충원 합격자는 총 3차로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e-비즈니스학과의 평균 점수와 관련된 정보를 잘못 전달하고 있습니다. 예를 들어, "국어+수학+탐구(가산점 포함) 표준 변환 점수 합: 286.80"이라는 점수는 원본 텍스트에 명시된 평균 점수와 일치하지 않습니다. 또한, 영어 등급 평균과 수능 4개 영역 등급 평균도 잘못된 수치를 제시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성이 없습니다. 특히, 평균 점수와 관련된 수치가 서로 다르며, 이는 원본 텍스트의 내용과 상충합니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 분석을 제공하고 있으며, e-비즈니스학과의 경쟁 상황과 관련된 정보를 포함하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와는 관련이 적어 다소 떨어지는 점이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 서로 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 특히, 평균 점수와 관련된 수치가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 양호한 성과를 보이지만, 사실성과 정확성에서 큰 결함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 질문의 맥락에 맞는 의미를 전달하려고 하지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 분석을 제공합니다. 그러나 일부 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.6036335956566261</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **e비즈니스학과의 모집인원 및 지원 인원**：根据您提供的信息，该专业的招生人数为10人，而最终注册的申请者有36人。因此竞争非常激烈。
+2. **성적 평균 및 분산**：
+   - 国语+数学+探究（含加分）标准转换总分平均值: 286.80
+   - 国语+数学+探究（含加分）标准转换总分标准差: 15.04
+   - 英语等级平均值: 4.30
+   - 英语等级标准差: 1.14
+   - 高考四科等级平均值: 5.18
+   - 高考四科等级标准差: 0.50
+3. **你的成绩**：你提到的e비즈니스学专业的成绩为4.6。
+根据这些信息，我们可以进行以下分析：
+- 你的英语等级是4.6，在平均值之上。
+- 但是，其他科目（国语+数学+探究）的标准转换总分相对较低，低于平均值286.80。
+综合来看，虽然你的英语成绩较好，但整体成绩略低于该专业的平均水平。因此，尽管有可能通过，但竞争非常激烈，录取几率较小。
+建议：
+1. 仔细检查所有提交的材料是否完整且准确。
+2. 如果可能的话，可以尝试提高其他科目的成绩或参加其他类型的入学考试（如特长生、艺术类等）以增加录取机会。
+3. 关注学校发布的最新招生信息和补充通知。</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 등급과 정시 등급 5.3의 관계를 잘 설명하고 있으며, 합격 가능성에 대한 분석도 포함되어 있습니다. 그러나 일부 세부사항(예: 모집 인원, 지원 인원 등)은 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 추가된 정보가 원본과 일치하지 않거나 다소 상충하는 부분이 있습니다. 예를 들어, 경쟁률과 충원 합격자 수에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, e비즈니스학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 길고 복잡하여 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 서로 잘 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 전체적인 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있으며, 합격 가능성에 대한 분석도 적절합니다. 그러나 추가된 세부사항이 원본 텍스트와 일치하지 않으므로 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 추가 정보가 원본의 의도와 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.688802433586526</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능 최초합격자들의 성적 분석을 보면, 다음과 같은 정보가 있습니다:
+- 모집단위: e비즈니스학과
+- 모집 인원: 10명
+- 지원 인원: 89명
+- 경쟁률: 8.90
+- 충원 합격 (후보순위): 31명
+성적 분석:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.20
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 7.56
+정시 등급 5.3은 영어영역 등급에 해당합니다. 2024년 동의대학교 수능 등급별 점수 변환표를 보면, 등급 5.3은 약 123점으로 추정됩니다.
+이 점수는 e비즈니스학과 최초합격자들의 평균 점수(317.20)보다 상당히 낮습니다. 따라서 정시 등급 5.3을 가진 학생은 e비즈니스학과에 최초 합격하기는 어렵다고 볼 수 있습니다.
+하지만, 경쟁률이 높지 않은 경우나 일부 특별한 사정이 있는 경우에는 가능성이 있을 수 있으므로, 정확한 확률을 예측하기 위해서는 더 많은 정보가 필요합니다. 또한, 동의대학교의 최종 합격자 결정은 단순히 점수만으로 판단되는 것이 아니라 다양한 요소를 고려하므로, 개인적인 상황과 특성도 중요한 역할을 합니다.
+따라서 정시 등급 5.3이면 e비즈니스학과에 최초 합격 가능성은 낮다고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용과 관련이 없으며, 사실과 일치하지 않는 정보가 포함되어 있습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다는 내용을 담고 있지만, 생성된 응답은 전혀 다른 주제에 대해 설명하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트의 주제와 관련된 정보가 없으며, 서로 다른 내용을 다루고 있습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 관련이 없으며, 주제와 전혀 상관없는 내용을 포함하고 있습니다. 원본 텍스트의 질문에 대한 직접적인 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 모든 품질 차원에서 매우 낮은 점수를 받습니다. 사실성, 일관성, 관련성, 정확성 모두에서 부족합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로는 명확하고 이해하기 쉬운 부분이 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.4195841094009699</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **你的成绩**：你提供的信息中没有具体的成绩数据。通常，学校会根据学生的综合成绩来决定是否预录取。
+2. **竞争情况**：不同年份和专业的录取分数线可能会有所不同。你需要了解该专业在2024年的录取标准和往年的情况。
+3. **其他因素**：除了学术成绩外，一些大学还会考虑面试表现、推荐信等因素。
+假设你提供的信息是基于2024年的情况，并且你的成绩大致如下：
+- 国语 + 数学 + 探究 (含加分) 标准转换总分平均值为 308.58
+- 英语等级的平均分为 3.66
+根据你提供的数据，你的成绩在中等偏上水平。但是，是否能够预录取还需要考虑以下几个方面：
+1. **专业竞争情况**：e비즈니스학과 (电子商务学) 在2024年的报名人数为89人，最终录取了31人。这意味着竞争相对激烈。
+2. **平均分和标准差**：
+   - 国语 + 数学 + 探究 (含加分) 标准转换总分的平均值是 308.58
+   - 英语等级的平均值是 3.66
+这些数据表明你的成绩在该专业的中等偏上水平，但是否能够预录取还需要看具体的分数线。
+建议你：
+1. **查看最新的招生简章**：了解2024年的具体录取标准和流程。
+2. **参考往年数据**：如果可能的话，查阅近几年的录取分数线和平均分，以便更好地评估自己的竞争力。
+3. **准备面试**：即使成绩不错，面试的表现也很重要。确保做好充分的准备。
+综上所述，虽然你的成绩在中等偏上的水平，但是否能够预录取还需要结合具体的专业情况和其他因素来判断。建议你密切关注学校发布的最新信息，并做好全面的准备。</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.44라는 성적이 동의대학교 간호학과에 합격할 가능성이 있다고 언급하고 있지만, 원문에서는 3.44가 평균 등급보다 낮아 합격하기 어려울 수 있다고 명시하고 있습니다. 따라서, 사실관계에서 일부 불일치가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하는 부분이 있지만, 3.44 성적에 대한 해석이 상반되어 일관성이 부족합니다. 원문은 합격이 어려울 수 있다고 명시했으나, 생성된 응답은 가능성이 있다고 하여 모순이 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시한 주제와 관련된 여러 요인들을 다루고 있으며, 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인에 대한 설명이 명확하게 이어집니다. 그러나 일부 문장 간의 연결이 다소 약할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일부 일치하지만, 3.44 성적에 대한 해석이 원문과 다르기 때문에 정확성에서 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실관계와 일관성에서 일부 문제가 있어 점수가 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 3.44 성적에 대한 해석에서 다소 차이가 있어 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있으나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.5856879748886823</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충분히 합격할 수 있는 점수일 가능성이 있습니다만, 정확한 합격 여부는 여러 요인에 따라 달라질 수 있습니다.
+1. **모집단위와 모집인원**: 동의대학교 간호학과의 정원 내 모집 인원과 지원 인원을 확인해야 합니다. 예를 들어, 30명을 모집하고 65명이 지원한다면 경쟁률은 높아지겠지만, 120명을 모집하고 145명이 지원한다면 경쟁률은 낮아질 수 있습니다.
+2. **경쟁률**: 동의대학교 간호학과의 최종 등록자들의 성적 분포를 확인해야 합니다. 평균 점수가 3.44보다 높다면, 경쟁률이 높을 가능성이 있으며, 낮다면 합격 가능성은 높아집니다.
+3. **가산점**: 일부 전형에서는 가산점을 받을 수 있으므로, 이 부분도 고려해야 합니다. 예를 들어, 경기 실적 우수자나 농어촌 학생 등에 대한 특별 지원이 있다면 점수가 더 낮아질 수도 있습니다.
+4. **전형 별 모집인원**: 전형별로 모집 인원과 지원 인원이 다르므로, 해당 전형의 상세 정보를 확인해야 합니다. 예를 들어, 일반 학생이나 농어촌 학생 전형 등에 따라 경쟁률이 달라질 수 있습니다.
+5. **전형 별 평균 성적**: 동의대학교 간호학과에서 각 전형별로 지원한 학생들의 평균 성적을 확인하면, 자신의 성적이 어느 정도인지 판단할 수 있습니다.
+6. **수능 점수와 영어 등급**: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합과 영어 등급도 중요한 요인입니다. 이 부분에서 좋은 성적을 받았다면, 합격 가능성은 높아집니다.
+따라서, 정확한 합격 여부를 판단하기 위해서는 동의대학교 간호학과의 모집 인원, 지원 인원, 전형별 평균 성적 등을 종합적으로 분석해야 합니다. 또한, 대입 컨설팅 서비스나 입시 전문가와 상담하는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 2.52라는 점수가 동의대학교 간호학과에서 낮은 수준이라고 언급하고 있지만, 원본 텍스트에서는 2.52가 평균 등급보다 높은 성적이라고 명시하고 있습니다. 이로 인해 사실관계에 큰 오류가 발생했습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본에서는 2.52가 합격 가능성이 높다고 했으나, 생성된 응답에서는 낮은 점수라고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 모집 인원에 대한 정보를 제공하여 관련성을 유지하고 있지만, 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서는 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있으나, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 정보를 포함하고 있어 정확성이 낮습니다. 특히, 합격 가능성에 대한 잘못된 해석이 문제입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 낮은 점수를 기록하고 있으며, 사실관계와 일관성에서 큰 문제가 발생했습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보가 혼란을 줄 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.5032106083079396</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 동의대학교 간호학과의 경우 상당히 낮은 수준입니다. 동의대학교 간호학과의 정원 내 모집인원에 대한 지원자들의 경쟁률과 평균 합격 점수가 고려되어야 합니다.
+다음은 간호학과 관련 정보를 바탕으로 추론할 수 있는 내용들입니다:
+1. 2024학년도 동의대학교 간호학과 모집인원: 22명
+2. 지원자 수: 145명 (경쟁률 6.59)
+3. 최종 합격者的：
+Assistant: 根据您提供的信息，您的成绩为2.52，在东义大学护理学专业的情况来看，这确实是一个相对较低的分数。以下是根据相关信息进行的一些推断：
+1. **2024年东义大学护理学专业的招生人数**：22人
+2. **报名人数**：145人（竞争比为6.59）
+3. **最终录取平均分**：489.72
+从这些数据可以看出，护理学专业的竞争非常激烈。虽然您的成绩低于最终录取的平均分，但并不完全排除被录取的可能性。以下是一些建议：
+1. **了解具体要求**：仔细查看东义大学护理学专业对学生的具体分数要求和其他条件。
+2. **参考往年数据**：研究过去几年的录取情况，看看是否有例外情况或特殊情况导致某些低分学生被录取。
+3. **准备充分**：即使成绩较低，也要确保在面试和提交其他材料时表现出色。例如，在个人陈述中突出自己的优势、特长以及为什么选择护理学专业等。
+虽然您的分数相对较低，但仍然有可能通过展示自己独特的优点和其他方面的优秀表现来增加录取机会。建议您详细咨询学校招生办公室以获取更具体的信息和支持。</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.7이라는 성적이 상대적으로 좋은 점수라고 언급하고 있지만, 원문에서는 3.7이 간호학과의 평균 등급보다 낮다고 명시하고 있습니다. 따라서 이 부분에서 사실과 다소 상충하는 내용이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 입학사정관 제도 등 여러 요인을 고려해야 한다고 언급하고 있지만, 원문에서 제시된 평균 등급과의 관계가 명확하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 간호학과의 입학 가능성에 대한 질문에 대해 여러 요인을 고려하여 잘 설명하고 있으며, 원문과 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다. 그러나 원문과의 연결이 다소 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 고려해야 한다고 언급하지만, 3.7이라는 성적이 간호학과의 평균 등급보다 낮다는 원문의 사실을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유용한 정보를 제공하고 있으나, 사실성과 일관성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 내용을 잘 전달하고 있으나, 원문과의 사실적 차이로 인해 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.5229181640353351</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7이라는 성적은 상대적으로 좋은 점수입니다. 하지만 간호학과의 경쟁률과 입학사정관 제도 등 여러 요인을 고려해야 합니다.
+1. **경쟁률**: 간호학과는 매우 높은 경쟁률을 보이는 학과 중 하나입니다. 특히 인문사회과학대학, 상경대학 등의 모집단위에서는 더욱 치열합니다.
+2. **입학사정관 제도**: 동의대학교는 입학사정관제를 통해 다양한 요소를 고려합니다. 따라서 성적이 조금 낮더라도 다른 평가 항목에서 좋은 점수를 받으면 합격 가능성은 있습니다.
+3. **학생부 및 면접 성적**:
+   - **학생부**: 70%의 비중을 차지하므로, 출결, 서류, 면접 등에서 높은 점수를 받는 것이 중요합니다.
+   - **면접**: 40%의 비중으로, 학업역량과 전공적합성 등을 평가받습니다. 준비와 자기소개 능력이 중요합니다.
+4. **추천서 및 특기사항**:
+   - 추천서나 특기사항 등에서 긍정적인 점을 강조할 수 있습니다.
+5. **동영상 제출**: 일부 전형에서는 동영상을 제출하도록 요구하기도 합니다. 이는 학생의 진실성과 열정을 보여줄 수 있는 좋은 기회입니다.
+6. **추천사 및 면접 준비**:
+   - 교사나 선배들의 추천서를 받고, 면접에서 자신감 있게 자기소개와 계획을 전달할 수 있어야 합니다.
+결론적으로 3.7이라는 성적만으로는 확실한 합격을 보장하기 어렵지만, 다른 평가 항목에서 높은 점수를 받으면 합격 가능성은 있습니다. 꼼꼼히 준비하고, 다양한 평가 항목에서 최선을 다하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 평균 성적과 관련된 정보를 제공하지만, 제공된 정보는 사실과 일치하지 않습니다. 예를 들어, 간호학과의 평균 성적이 3.17이라고 언급했으나, 원본 텍스트에서는 간호학과의 영어 등급 평균이 2.34이고, 수능 4개 영역 등급 평균이 3.37이라고 명시되어 있습니다. 이로 인해 생성된 응답의 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 2.58의 성적이 평균보다 높다고 언급했으나, 생성된 응답에서는 이 성적이 낮다고 평가하고 있습니다. 이러한 상반된 정보는 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 지원자의 성적과 합격 가능성에 대한 여러 요인을 다루고 있어 원본 텍스트와 관련성이 높습니다. 그러나 일부 정보는 원본 텍스트의 핵심 포인트와는 다소 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요인을 나열하고 있지만, 각 요인 간의 연결이 다소 약해 보입니다. 따라서 논리적 흐름이 완벽하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히, 평균 성적에 대한 정보가 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 일부 정보가 부정확하여 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 부분에서 혼란을 줄 수 있는 정보가 포함되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.5397572221550893</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 지원자의 성적 평균은 3.17이고, 표준 편차는 0.58입니다. 이 정보만으로 볼 때, 지원하신 분의 성적이 2.58이므로 약간 낮은 수치로 보입니다.
+하지만 합격 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. 경쟁률: 현재 경쟁률은 3.74이며, 이는 상대적으로 높습니다. 따라서 성적이 조금 낮더라도 다른 평가 항목에서 우수한 점수를 받으면 합격 가능성은 높아집니다.
+2. 서류평가: 동의대학교는 서류평가 비중이 높으므로, 지원서와 면접 등에서 좋은 평가를 받을 수 있다면 이점이 크게 작용할 수 있습니다.
+3. 면접 성적: 면접에서도 우수한 점수를 받으면 합격 가능성은 높아집니다.
+4. 전형 요소 반영 비율: 동의대학교는 서류 60%, 면접 40%로 구성되어 있으므로, 이 부분에서 좋은 평가를 받을 수 있다면 도움이 될 것입니다.
+5. 학생부 교과 성적: 현재 제공된 정보에서는 학생부 교과 성적이 반영되는지 확인되지 않았습니다. 만약 반영된다면, 지원자의 성적이 2.58이라면 약간 낮은 수치로 보입니다.
+결론적으로, 성적이 약간 낮더라도 다른 평가 항목에서 우수한 점수를 받으면 합격 가능성은 높아질 수 있습니다. 하지만 경쟁률이 높고 서류평가 비중이 높기 때문에, 지원자의 전반적인 평가 결과에 따라 결정될 것입니다.
+추천 사항:
+- 면접 준비에 만전을 기하고
+- 서류를 철저히 준비하여 최선의 결과를 얻도록 노력하세요.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 전혀 반영하지 않고 있으며, 게임공학과의 충원합격 정보와 예비 7번의 가능성에 대한 언급이 없습니다. 대신, 전혀 다른 주제인 개인의 성적과 경쟁률에 대한 내용을 다루고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 그와는 상반된 내용을 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문자가 궁금해하는 내용에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 정보와는 전혀 다른 방향으로 나아가고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 부족합니다. 주제가 전환되면서 논리적 흐름이 끊깁니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 예비 7번의 합격 가능성에 대한 정보가 전혀 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제가 완전히 다릅니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 없기 때문에 질문자가 원하는 정보를 제공하지 못합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.4648909536842323</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>为了回答您是否能被游戏学专业(游戏工学部)录取,我们需要考虑以下几个因素:
+1. 您的高考成绩和排名情况。根据提供的数据,该专业的平均分和其他相关统计数据可以帮助我们了解您的分数是否接近或超过平均水平。
+2. 竞争激烈程度。从给出的数据来看,该专业的竞争比率为5.33,属于中等偏上水平,说明录取难度较大。
+3. 您的个人情况和申请材料质量。虽然没有具体数据,但良好的个人陈述、推荐信等也可能对录取有帮助。
+4. 学校的具体录取标准可能会有所变化,建议直接咨询学校招生办公室获取最新信息。
+根据现有信息,您的预估分数(7号)处于中等偏上水平,有一定的竞争力。但是能否最终被录取还需要看具体的分数排名和竞争情况。建议您:
+1. 保持良好的心态,认真准备后续的面试环节。
+2. 关注学校的官方通知,及时了解最新招生动态。
+3. 准备充分的个人陈述材料,突出自己的优势。
+总之,虽然存在一定的不确定性,但通过努力还是有机会被录取的。祝您好运!</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 4.16이라는 점수가 높은 수준이라는 점과 추가 합격 가능성을 높게 평가하는 내용을 포함하고 있습니다. 그러나 추가 합격 횟수에 대한 예측이 어렵다는 점은 원문과 일치합니다. 다만, 원문에서 제공된 구체적인 평균 등급 정보는 포함되지 않았습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 언급된 내용과 일관되며, 4.16이라는 점수가 높은 수준이라는 점을 강조하고 있습니다. 그러나 추가 합격에 대한 예측이 어렵다는 점에서 원문과의 일관성이 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높습니다. 추가 합격 가능성에 대한 여러 요소를 고려하는 내용이 포함되어 있어 원문과 잘 연결됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 몇 가지 항목이 나열된 형식으로 되어 있어 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하며, 4.16이라는 점수에 대한 해석이 정확합니다. 그러나 원문에서 제공된 구체적인 평균 등급 정보는 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 긍정적인 평가를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 질문의 맥락에 적절하게 반응하고 있습니다. 다만, 일부 내용은 원문에서 직접적으로 언급되지 않은 부분이 있어 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.5806392286993054</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 상당히 높은 수준입니다. 하지만 정확한 추가합격 확률을 예측하기 위해서는 여러 요소를 고려해야 합니다:
+1. 모집인원과 지원자 수: 게임공학과의 모집인원과 실제 지원자의 수에 따라 달라질 것입니다.
+2. 경쟁률: 동의대학교 전체와 게임공학과의 경쟁률을 파악해야 합니다.
+3. 전형별 합격기준: 일반학생전형, 특성화고 교육과정 등 다양한 전형이 있을 수 있습니다.
+4. 다른 지원자의 성적 분포: 4.16이라는 점수 자체가 높지만, 전체 지원자들의 성적이 어떻게 분포하고 있는지 중요합니다.
+5. 추가합격 기회: 일반적으로 정시에서는 여러 합격 가능성이 주어집니다. 예를 들어, 수능, 실기/실적, 학생부종합 등 다양한 전형이 있을 수 있습니다.
+6. 입학사정관전형 성과: 이전 년도의 입학사정관전형 결과와 비교해볼 필요가 있습니다.
+7. 모집단위 별 차이: 인문사회과학대학, 공과대학 등 각 학부별로 지원자의 수와 경쟁률이 다를 수 있습니다.
+따라서 정확한 예측은 어렵지만, 4.16이라는 높은 점수는 추가합격 가능성이 상당히 높을 것으로 보입니다. 하지만 최종적인 확률을 알기 위해서는 동의대학교 입학처나 해당 학과에 직접 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 학생부종합 평가 영역에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급과 합격 가능성에 대한 구체적인 내용은 포함되어 있지 않습니다. 따라서 일부 사실은 정확하지만, 원본 텍스트의 핵심 정보를 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 학생부종합 평가와 관련된 새로운 정보를 추가하여 원본 텍스트와의 일관성이 떨어집니다. 원본 텍스트의 합격 가능성에 대한 언급이 없으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 입학 전형에 대한 정보를 제공하여 관련성이 높지만, 원본 텍스트의 주요 질문에 대한 직접적인 답변은 부족합니다. 따라서 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 새로운 정보를 포함하고 있지만, 원본 텍스트의 구체적인 사실을 반영하지 않기 때문에 정확성 점수가 낮습니다. 원본 텍스트의 평균 등급과 합격 가능성에 대한 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있습니다. 따라서 전반적인 품질이 다소 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 경영정보학과의 입학 전형에 대한 정보를 제공합니다. 그러나 원본 텍스트의 맥락과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.5867161271265412</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2024학년도 입학전형에서 경영정보학과의 학생부종합 평가 영역은 다음과 같습니다:
+1. **공동체역량**: 협업능력
+2. **학업역량**: 학업태도 / 학업성취
+3. **전공적합성**: 열정
+성적 3.75는 좋은 성적이지만, 최종 결정은 여러 요소에 따라 달라집니다. 특히 학교생활기록부를 통해 보여지는 공동체역량과 학업역량, 그리고 전공적합성을 고려해야 합니다.
+**주의사항:**
+- **성적 반영**: 2024학년도부터 성적 반영 방식이 변경되었습니다. 최대 12과목을 반영하며, 이 중 진로선택과목은 최대 2과목까지 포함 가능합니다.
+- **동점자 처리**: 동점자가 발생할 경우 면접고사 성적이 우수한 학생이 우선 선발됩니다.
+따라서, 성적 외에도 학교생활기록부에서 보여지는 활동과 경험, 그리고 면접 성적이 중요합니다. 
+**추천 조치:**
+1. **학교생활기록부 작성**: 공동체역량과 학업역량을 잘 반영하도록 작성하십시오.
+2. **면접 준비**: 전공적합성에 대한 질문에 대해 잘 준비해 두세요.
+만약 자세한 정보가 필요하다면, 동의대학교 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다. [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 평균 성적에 대한 정보와 지원 가능성에 대한 언급이 있지만, 원본 텍스트에서 제시된 평균 성적(영어 2.88, 수능 3.88)과 비교했을 때, 4.2의 성적이 낮다고 언급한 부분이 잘못되었습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 4.2의 성적이 평균보다 낮다고 언급한 부분에서 일관성이 부족합니다. 원본 텍스트는 4.2가 평균보다 낮다고 명시하고 있으나, 생성된 응답은 4.2가 경쟁력 있는 성적이라고 주장합니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 경영정보학과에 지원하는 것과 관련된 정보와 조언을 제공하고 있으며, 원본 텍스트의 주제와 잘 연결되어 있습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 중복되거나 불필요하게 길어질 수 있습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 4.2의 성적이 경쟁력 있다고 언급했지만, 원본 텍스트의 정보와 상충하는 부분이 있습니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 관련성, 유창성, 일관성에서 좋은 점수를 받았지만, 사실성과 정확성에서 일부 문제를 보였습니다. 따라서 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 내용에서 원본과의 차이가 있어 의미 전달이 완벽하지는 않습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.6871733808423495</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>4.2의 성적을 가지고 경영정보학과에 지원하려는 경우, 최초 등록자는 가능한지 확인해야 합니다.
+일반적으로 대학별로 최저 학력 기준이 있으며, 이 기준은 정시 모집단위 별로 다를 수 있습니다. 경영정보학과의 경우, 4.2의 성적을 가지고 지원하는 것은 괜찮지만, 최종 결정을 내리기 위해서는 다음과 같은 점들을 확인해야 합니다:
+1. **정시 모집 단과대학 및 학과**: 경영정보학과가 해당 모집단위에 포함되어 있는지 확인하세요.
+2. **최저 성적 기준**: 동의대학교에서 경영정보학과에 대한 최저 성적 기준을 확인해야 합니다. 이 정보는 대학 홈페이지나 입학처 공고를 통해 확인할 수 있습니다.
+3. **정시 모집 학년**: 4.2의 성적이 2024학년도 정시 모집에 충분한지 확인하세요. 일부 대학은 특정 학년별로 다른 기준을 적용하기도 합니다.
+4. **최초 등록자와 충원 등록자의 차이**: 최초 등록자는 일반적으로 더 높은 성적을 요구받을 수 있으므로, 정확한 기준을 확인하는 것이 중요합니다.
+5. **기타 지원 자격**: 재직자 전형이나 다른 특별전형에 대한 지원 자격도 함께 확인해야 합니다.
+대부분의 경우, 4.2의 성적은 경영정보학과에 충분히 경쟁력 있는 성적이지만, 최종 결정을 내리기 위해서는 동의대학교 입학처 공고나 홈페이지를 통해 정확한 정보를 확인하는 것이 좋습니다.
+만약 해당 정보가 불충분하다면, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 참고하여 최신 정보를 얻으시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보와 동의대학교 경영정보학과의 입학 기준에 대한 설명을 포함하고 있습니다. 그러나 "수능 최저기준이 없다"는 부분은 정확하지 않을 수 있으며, 이는 추가적인 정보가 필요합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 일부 일관성을 유지하지만, 수능 점수와 관련된 정보가 원본 텍스트의 평균 등급과 다소 상충할 수 있습니다. 특히, "5.33이라는 점수만으로는 합격 가능성을 판단하기 어렵다"는 주장은 원본 텍스트의 결론과 다소 상반됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 합격 가능성에 대한 다양한 요소를 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 잘 작성되었으며, 문법적으로도 큰 문제가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 정보가 정확하지만, "수능 최저기준이 없다"는 부분은 확인이 필요합니다. 따라서 완전한 정확성을 보장할 수는 없습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 품질 차원에서 잘 수행되었지만, 일부 정보의 정확성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.5949232865734341</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>5.33이라는 점수는 수능 국어, 수학(미적분 또는 기하), 영어 등급을 반영한 표준점수입니다. 동의대학교 경영정보학과의 경우 일반학생전형에서 수능 최저기준이 없습니다 (수능최저기준 없음).
+따라서 5.33이라는 점수만으로는 합격 가능성을 판단하기 어렵습니다. 다른 요소들도 고려해야 합니다:
+1. **학교생활기록부와 서류평가**:
+   - 경영정보학과는 서류평가가 중요한 역할을 합니다.
+   - 공동체역량, 학업역량, 전공적합성 등 평가 영역에서 좋은 점수를 받는 것이 중요합니다.
+2. **면접평가**:
+   - 면접에서도 경영 관련 지식과 열정을 잘 보여줘야 합니다.
+   - 지원동기와 학업계획, 학업역량 등을 잘 설명해야 합니다.
+3. **전형요소 반영비율**:
+   - 수능 100%로 구성되어 있으므로 수능 점수는 중요하지만, 다른 요소들도 고려됩니다.
+   - 서류와 면접에서 좋은 평가를 받으면 합격 가능성은 높아집니다.
+4. **모집인원과 경쟁률**:
+   - 모집인원과 지원자 수에 따라 경쟁률이 결정되므로, 경쟁률을 고려해야 합니다.
+   - 현재 정보만으로는 정확한 합격 가능성을 예측하기 어렵습니다.
+따라서 5.33이라는 점수로는 단순히 수능 성적이 높다고 합격할 수 있다고 말하기는 어렵습니다. 서류와 면접에서 좋은 평가를 받는 것이 중요합니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋겠습니다.
+추가적으로, 만약 다른 지원자들과 경쟁률을 고려해야 한다면, 동의대학교 입학 홈페이지나 코스모스 등에서 최신 정보를 확인하시거나, 입학처에 직접 문의하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 성적과 경쟁률에 대한 정보를 포함하고 있지만, 최초등록자로서의 합격 가능성에 대한 판단이 원본 텍스트와 다르게 제시되고 있습니다. 원본에서는 3.33의 성적이 평균보다 높다고 언급되었으나, 생성된 응답에서는 낮다고 표현하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 합격 가능성에 대한 결론이 상충합니다. 원본에서는 합격 가능성이 높다고 했으나, 생성된 응답에서는 가능성이 낮다고 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 정보와 성적에 대한 분석을 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 포인트인 합격 가능성에 대한 명확한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요인을 나열하고 있지만, 전체적인 논리적 흐름이 다소 부족합니다. 특히, 마지막 부분에서 갑작스럽게 다른 언어로 번역된 문장이 포함되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 사실과 다르게 해석된 부분이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 합격 가능성에 대한 해석이 다르게 나타나 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 길고 복잡하여 이해하는 데 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.591941382627882</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 대해 성적 평균 3.33 정도로 최초등록자로 합격 가능성은 낮지만, 여전히 가능성을 배제할 수는 없습니다. 아래와 같은 요인들을 고려해야 합니다:
+1. 경쟁률: 
+   - 의생명공학과: 경쟁률 2.40
+   - 바이오의약공학과: 경쟁률 2.80
+   - 식품공학과: 경쟁률 2.17
+2. 지원 인원:
+   - 의생명공학과: 99명 지원
+   - 바이오의약공학과: 5명 지원
+   - 식품공학과: 6명 지원
+3. 성적 평균 및 분산:
+   - 의생명공학과: 국어+수학+탐구(가산점 포함) 표준변환점수합 평균 427.50, 표준편차 15.81
+   - 바이오의약공학과: 국어+수학+탐구(가산점 포함) 표준변환점수합 평균 464.38, 표준편차 4.05
+   - 식품공학과: 국어+수학+탐구(가산점 포함) 표준변환점수합 평균 410.95, 표준편차 10.08
+4. 영어 등급:
+   - 의생명공학과: 평균 3.82
+   - 바이오의약공학과: 평균 2.80
+   - 식품공학과: 평균 4.16
+5. 수능 4개 영역 등급:
+   - 의생명공학과: 평균 4.74, 표준편차 0.38
+   - 바이오의약공학과: 평균 3.97, 표준편차 0.20
+   - 식품공학과: 평균 5.1, 표준편차 0.16
+성적 3.33은 평균보다 약간 낮지만, 경쟁률이 낮고 지원 인원도 적어理论上，这句话翻译成中文是：“原则上，根据给定的条件，这个任务是可以完成的。”
+现在我们来具体分析一下：
+1. "It is theoretically possible to complete the task" 理论上来说，完成这项任务是可能的。
+2. "given the provided conditions" 在提供的条件下。
+所以，完整的翻译就是：“原则上，根据给定的条件，这个任务是可以完成的。”</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과의 평균 영어 등급과 수능 4개 영역 등급 평균을 정확하게 반영하고 있으며, 현재 성적(4.4)이 평균보다 낮다는 점을 언급하고 있습니다. 그러나 "현재 성적(등급 4.4)은 평균 점수(평균 3.82)보다 약간 높습니다."라는 부분은 사실과 다릅니다. 따라서 일부 사실 오류가 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 성적 비교 부분에서 모순이 발생합니다. 원본 텍스트는 4.4가 평균보다 낮다고 명시했으나, 생성된 응답에서는 4.4가 평균보다 약간 높다고 언급하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 지원 가능성에 대한 질문에 직접적으로 관련된 내용을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 성적 비교 부분에서의 모순으로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 성적에 대한 정보를 포함하고 있지만, 성적 비교에서 잘못된 정보를 제공하고 있습니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 정확성에서의 오류로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 성적 비교에서의 오류로 인해 완전한 적절성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.5708257070170105</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024학년도 DEU(디에스유)의 방사선학과에 대한 정보를 바탕으로 분석해보겠습니다.
+1. **모집인원 및 지원자 수**:
+   - 모집 인원: 5명
+   - 지원 인원: 36명
+   - 경쟁률: 7.20
+2. **성적 분포**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 338.76
+   - 영어 등급의 평균: 2.80
+   - 수능 4개 영역 등급의 평균: 3.82
+3. **성적 비교**:
+   - 현재 성적(등급 4.4)은 평균 점수(평균 3.82)보다 약간 높습니다.
+   - 그러나 경쟁률이 높아, 단순히 등급만으로는 충분한 보장은 아닙니다.
+**결론**: 
+현재의 성적(등급 4.4)으로 방사선학과에 지원한다면 가능성이 있지만, 경쟁률이 매우 높기 때문에 낮은 확률로 합격할 수 있습니다. 다른 지원자들과의 점수 차이와 개인적인 특성 등을 고려해야 합니다.
+추천 사항:
+1. **추가 지원**: 다른 모집단위(예: 의료보건생활대학 내 다른 학과)에서도 지원해 보는 것이 좋습니다.
+2. **면접 준비**: 방사선학과의 경우 면접이 포함될 수 있으므로, 면접 준비를 철저히 해두세요.
+3. **추천서 및 자기소개서**: 강력한 추천서나 독특한 자기소개서가 있다면 이를 활용해보세요.
+최종 결정은 자신의 성적과 경쟁률을 고려하면서, 다양한 전략을 적용하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 방사선학과의 평균 점수와 관련된 정보가 잘못된 것으로 보입니다. 원본 텍스트에서는 방사선학과의 영어 등급 평균이 2.8이고, 수능 4개 영역 등급 평균이 3.82라고 명시되어 있습니다. 그러나 생성된 응답에서는 341.62점이라는 수치가 언급되었고, 이는 원본 텍스트와 일치하지 않습니다. 
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 2.66이라는 점수가 평균보다 높다고 언급하고 있지만, 생성된 응답에서는 이 점수가 상대적으로 낮다고 주장하고 있습니다. 이는 서로 상충하는 정보입니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 방사선학과에 합격하기 위한 여러 요소를 고려하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 전체적인 흐름이 다소 어색하게 느껴질 수 있습니다. 각 요소 간의 연결이 부족하여 일관된 논리적 흐름이 약합니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답에서 제시된 수치와 정보는 원본 텍스트와 일치하지 않으며, 이는 정확성에 큰 영향을 미칩니다. 특히, 평균 점수와 관련된 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 방사선학과에 대한 정보를 제공하고 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.6784583382925201</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2024학년도 방사선학과의 최종 등록자들의 수능 평균 점수가 341.62점으로 보이므로, 2.66이라는 점수는 상대적으로 낮은 편입니다. 이 점수로는 경쟁률이 높고 평균 점수가 높은 방사선학과에 합격하기는 어렵다고 볼 수 있습니다.
+하지만, 다음과 같은 요소들을 고려하면 좀 더 정확한 판단을 할 수 있을 것입니다:
+1. **전형방법**: 방사선학과의 전형 방법이 무엇인지 확인해야 합니다. 만약 서류와 면접 평가 비율이 높다면, 좋은 서류와 면접 성적이 중요할 수 있습니다.
+2. **서류평가 점수**: 학생부 종합 평가에서 얻을 수 있는 최대 점수가 얼마인지 확인해야 합니다. 예를 들어, 1등급은 180점이고 5등급은 126점인 경우, 126점을 넘는 서류평가 점수를 받으면 가능성이 있습니다.
+3. **면접평가 점수**: 면접 평가에서도 좋은 성적을 받는 것이 중요합니다. 예를 들어, 1등급은 180점이고 5등급은 126점인 경우, 126점을 넘는 면접 점수를 받으면 가능성이 있습니다.
+4. **전형요소 반영비율**: 방사선학과의 전형요소 반영 비율을 확인해야 합니다. 예를 들어, 서류(학생부)가 70%이고 면접이 30%인 경우, 좋은 서류평가 점수와 적절한 면접 성적이 필요합니다.
+5. **경쟁률**: 방사선학과의 경쟁률을 고려해야 합니다. 경쟁률이 높다면, 평균 이상의 수능 점수와 전형요소를 잘 활용하는 것이 중요합니다.
+따라서, 2.66이라는 수능 점수로는 위험이 있지만, 서류평가와 면접 성적을 잘 준비한다면 가능성을 열어두는 것이 좋습니다. 자세한 정보는 입학처나 대학 홈페이지를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 GPA에 대한 긍정적인 평가를 포함하고 있으며, 농어촌 전형에 대한 다양한 요소들을 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 정보와는 다소 다른 방향으로 설명하고 있어, 일부 사실이 누락되거나 변형된 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 농어촌 전형에 대한 추가적인 요소들을 강조하면서 원본의 주된 메시지와는 다소 상충하는 부분이 있습니다. 특히, 원본 텍스트는 성적과 경쟁률에 대한 긍정적인 전망을 제시하고 있지만, 생성된 응답은 다양한 요소를 고려해야 한다고 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 경찰행정학과의 입학 전형에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확한 정보를 제공하고 있으나, 원본 텍스트의 특정 세부사항을 완전히 반영하지 못하고 있습니다. 특히, 농어촌 전형에 대한 정보가 추가되면서 원본의 핵심 사실이 일부 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 원본 텍스트와의 일관성 및 사실성에서 약간의 부족함이 있습니다. 전반적으로는 높은 품질을 유지하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 농어촌 전형에 대한 추가적인 정보가 원본의 주제와 다소 어긋나는 부분이 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 독자가 혼란스러울 수 있는 여지가 있습니다. 명확한 표현이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.5367077491802479</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 좋은 점수입니다만, 경찰행정학과의 경우 일반적으로 낮은 학생부 평균보다 더 다양한 요소를 고려합니다. 농어촌 전형의 경우 주로 다음과 같은 요소들이 중요하게 작용할 수 있습니다:
+1. 농어촌 거주 경력: 지원자가 농어촌 지역에서 3년 이상 거주한 증빙서류가 필요하며, 이는 합격에 큰 영향을 줄 수 있습니다.
+2. 농어촌 특성화 프로그램 참여 여부: 농어촌 특성화 프로그램이나 활동 경험이 있다면 이는 긍정적으로 작용할 수 있습니다.
+3. 지역사회 기여 활동: 농어촌 지역에서의 자원봉사나 사회공헌 활동이 있다면 이를 강조하는 것이 도움이 될 수 있습니다.
+4. 면접 성적: 면접에서도 농어촌 특성을 잘 반영할 수 있는 답변을 준비해야 합니다.
+5. 학생부 내용: 다양한 과목에서의 꾸준한 성적이 중요합니다. 특히 사회과학 관련 과목에서의 성적이 좋다면 이점이 있습니다.
+6. 추천서: 지역 교사나 지방자치단체로부터의 추천서가 있다면 이를 활용할 수 있습니다.
+3.66이라는 GPA는 좋은 점수지만, 농어촌 특성을 잘 반영하고 활동 경험이 풍부하다면 합격 가능성은 높아질 것입니다. 하지만 최종 결정은 입학심사위원회의 판단에 따라 달라질 수 있으므로, 지원서 작성 시 농어촌 특성을 강조하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 25번의 순위가 높은 위치임을 언급하고 있지만, 합격 가능성을 판단하는 여러 요소를 고려해야 한다고 설명하고 있습니다. 그러나 원문에서 제공된 특정 학과 목록에 대한 언급이 없고, 예비 25번 이상이 합격한 학과에 대한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 언급된 합격 가능성에 대한 정보를 다루고 있지만, 원문에서 제공된 특정 학과 목록과는 일치하지 않습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 합격 가능성에 대한 여러 요소를 설명하고 있어 관련성이 높지만, 원문에서 제공된 특정 학과 목록에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원문과의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 합격 가능성을 판단하는 여러 요소를 설명하고 있지만, 원문에서 제공된 구체적인 정보(예비 25번 이상 합격한 학과 목록)에 대한 정확한 언급이 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 원문과의 연결이 약해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 맥락에 맞는 의미를 전달하고 있지만, 특정 학과에 대한 정보가 부족하여 완전한 적절성을 갖추지 못했습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 다만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.5341945207921076</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 동점자 처리 기준 중 상당히 높은 위치입니다. 그러나 결정적인 것은 합격 가능성을 판단할 때 여러 요소를 고려해야 합니다.
+1. **전형 유형과 모집단위**: 정시 일반학생 전형에서 어떤 모집단위에 지원했는지 중요합니다. 각 모집단위의 경쟁률이 다르기 때문입니다.
+2. **성적 평균**: 수능 성적이 높을수록 합격 가능성은 높아집니다. 특히 국어, 수학, 영어 등 주요 과목의 성적이 좋다면 유리합니다.
+3. **면접 및 서류 평가 결과**: 면접이나 서류 평가에서 좋은 점수를 받았다면 합격 가능성은 높아집니다.
+4. **동점자 처리 기준**: 동점자 처리 기준이 25번이라면, 이는 해당 모집단위의 경쟁률이 높다는 것을 의미합니다. 그러나 동점자 처리 기준만으로 합격 확률을 판단하기는 어렵습니다.
+5. **전형 요소 반영 비율**: 각 전형 요소(수능, 면접, 서류 등)에 대한 평가 비율이 다르므로, 이들 요소의 점수가 어떻게 반영되는지 확인해야 합니다.
+6. **최종 합격자 발표 시점**: 최종 합격자 발표 시점까지 기다려보는 것이 좋습니다. 많은 지원자가 동점자 처리를 받을 수 있으므로, 마지막 순간까지 가능성은 열려 있습니다.
+결론적으로 25번의 순위만으로 확실한 답변을 드리기는 어렵지만, 경쟁률이 높다는 것은 분명합니다. 그러나 최종 결과는 여러 요소가综上所述，对于25名的排名是否能被录取，虽然竞争激烈，但并非完全没有希望。建议继续关注学校官网发布的最新信息，并保持积极的心态准备后续可能的变化。
+如果您需要更具体的分析或帮助，请告诉我您具体是哪个专业的申请情况以及您的详细成绩等信息，我可以为您提供更加个性化的建议。</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 법경찰행정학부에 대한 정보가 포함되어 있지만, 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명시되어 있습니다. 따라서 이 부분에서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보(법경찰행정학부의 존재)에 기반하고 있으며, 이는 일관성을 저해합니다. 
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 정시모집에 대한 정보를 제공하지만, 법경찰행정학부에 대한 잘못된 정보로 인해 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 3  
+   - 응답은 여러 정보를 포함하고 있지만, 법경찰행정학부의 존재 여부에 대한 모순으로 인해 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 응답의 내용 중 법경찰행정학부에 대한 정보는 사실과 다르며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 낮은 점수를 기록하고 있으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 응답의 의미는 전반적으로 적절하지만, 잘못된 정보로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4  
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7378757104717324</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시모집 경쟁률과 합격 기준을 정확히 파악하기 위해서는 최신 입학정보를 참고해야 합니다. 하지만, 일반적으로 법경찰행정학부의 경우 다음과 같은 특징이 있습니다:
+1. 경쟁률: 이전년도에 비해 상대적으로 낮은 경쟁률을 보일 가능성이 높습니다.
+2. 합격 기준:
+   - 국어 + 수학 + 탐구(2과목)의 표준점수 평균이 300-350 사이입니다.
+   - 영어 등급이 4.0 이상인 경우가 많습니다.
+   - 수능 4개 영역 등급 평균이 4.5-5.0 정도입니다.
+3. 안정적인 합격을 위해서는:
+   - 국어 + 수학 + 탐구(2과목)의 표준점수를 330-350 이상 받는 것이 좋습니다.
+   - 영어 등급이 4.5 이상인 것을 추천합니다.
+   - 수능 4개 영역 등급 평균을 4.7-5.0 정도 유지하는 것이 안정적입니다.
+4. 문 닫고 들어갈 수 있는 기준:
+   - 국어 + 수학 + 탐구(2과목)의 표준점수를 310-320 이상 받는 것을 목표로 할 수 있습니다.
+   - 영어 등급이 4.0 이상인 경우가 많습니다.
+   - 수능 4개 영역 등급 평균을 4.5-4.7 정도 유지하는 것이 좋습니다.
+최종적인 합격 가능성을 확인하기 위해서는 동의대학교 입학처 홈페이지나 정시모집 안내서를 참조하시고, 최신 정보를 확인하시는 것이 가장 정확합니다. 또한, 개인의 성적과 경쟁률 변동을 고려하여 목표 점수를 설정하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 경쟁률과 지원 인원에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 아동학과의 평균 등급에 대한 정보는 포함되어 있지 않다. 또한, 2024년이라는 연도는 원본 텍스트와 일치하지 않으며, 원본 텍스트의 주요 내용과는 다소 다른 방향으로 전개되고 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 아동학과의 평균 등급에 대한 정보가 누락되어 있어 일관성이 떨어진다. 또한, 경쟁률에 대한 정보는 원본 텍스트와 관련이 없으며, 이는 일관성을 저해한다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보를 제공하고 있으며, 지원자의 성적에 대한 평가도 포함되어 있어 관련성이 높다. 그러나 원본 텍스트의 핵심 내용인 아동학과의 평균 등급에 대한 정보가 부족하여 완전한 관련성을 갖추지 못하고 있다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽고 유창하다. 따라서 유창성 점수는 높게 평가할 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있다. 그러나 원본 텍스트와의 연결성이 부족하여 완전한 일관성을 갖추지 못하고 있다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실인 아동학과의 평균 등급에 대한 정보가 누락되어 있어 정확성 점수가 낮아진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보인다. 유창성과 관련성은 높지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질 점수는 중간으로 평가된다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있다. 그러나 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 적절성은 부족하다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성이 높다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.5973683240041578</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 경우, 최종등록자 중 가장 낮은 경쟁률을 보이는 학과로, 지원 인원이 23명이고 모집인원이 6명으로 상대적으로 낮은 경쟁률을 기록하고 있습니다. 
+최종 등록자의 통계를 보면:
+- 지원 인원: 23명
+- 모집 인원: 6명
+- 경쟁률: 4.60
+경쟁률이 4.60이라는 것은 평균적으로 한 명의 합격자를 얻기 위해 약 4.6명이 경쟁하고 있다는 것을 의미합니다.
+성적 측면에서, 수능 등급이 5.33인 경우는 상당히 좋은 성적입니다. 동의대학교의 정시 모집에서는 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합과 영어 등급을 종합적으로 평가합니다.
+5.33 등급은 매우 높은 등급이며, 이는 대략 400점대 중반에서 상위권의 수능 점수를 의미할 것입니다. 따라서, 이와 같은 고등급을 가진 지원자는 보육가정상담학과에 합격하기 위한 경쟁률이 낮아서 좋은 확률로 합격할 가능성이 높습니다.
+그러나 최종 합격 여부는 단순히 등급만으로 결정되는 것이 아니라, 학교에서 평가하는 다양한 요소들(학생부 성적, 면접 결과 등)을 종합적으로 고려하기 때문에, 정확한 확률은 알 수 없습니다. 하지만 5.33이라는 높은 등급을 가진 지원자는 상대적으로 유리할 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격 가능성에 대한 여러 요소를 고려하고 있으며, 예비 12번의 상황에 대한 정보도 정확하게 반영하고 있습니다. 그러나 원본 텍스트에서 제공된 구체적인 날짜와 시간에 대한 언급이 누락되어 있어 완전한 정확성은 다소 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 추가적인 요소를 고려하는 방식으로 접근하고 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 구체적인 정보와는 다소 다른 방향으로 설명하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 예비 12번의 합격 가능성에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 합격 가능성을 평가하는 데 필요한 요소들을 적절히 설명하고 있습니다. 그러나 원본 텍스트의 구체적인 날짜와 시간 정보가 누락되어 있어 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 예비 12번의 합격 가능성에 대한 적절한 정보를 제공합니다. 다만, 일부 추가적인 정보가 원본 텍스트와의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.6680141895557398</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>3차에서 예비 12번을 받은 경우, 충분히 합격 가능성이 있습니다. 하지만 정확한 확률을 판단하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **최종 등록자와의 경쟁**: 현재까지 최종 등록된 지원자의 수와 그들의 평균 점수를 확인해야 합니다.
+2. **평균 점수 비교**: 예비 12번을 받은 점수와 최종 등록자들의 평균 점수를 비교합니다. 예비 순위가 높을수록, 최종 등록자의 평균 점수가 낮을수록 합격 가능성은 높아집니다.
+3. **동점자 처리 기준**: 동점자 처리 기준이 무엇인지 확인해야 합니다. 이 기준에 따라 예비 12번이 최종 등록자들 중 어느 위치에서 처리될지가 결정됩니다.
+4. **전형 방식**: 학생부 종합, 수능 점수, 면접 등의 평가 요소와 그 비율을 고려해야 합니다.
+5. **최종 등록자들의 지원 경향**: 예비 12번이 최종 등록자들 중에서 어느 위치에 있는지 확인하고, 해당 위치의 지원 경향을 분석합니다.
+6. **대학의 선발 정원**: 충원 합격 가능한 인원 수와 현재까지 최종 등록된 지원자의 수를 비교하여 판단합니다.
+이러한 요소들을 종합적으로 고려하면 더 정확한 합격 가능성 평가를 할 수 있습니다. 대학 입학처나 관련 정보를 확인하는 것이 가장 확실한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 4.75라는 성적이 높은 점수라는 점을 언급하고 있으며, 유아교육학과에 지원할 때 고려해야 할 여러 요소들을 제시하고 있습니다. 그러나 유아교육학과의 평균 성적이 4.18이라는 구체적인 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 시 고려해야 할 요소들을 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 평균 성적 정보와는 일치하지 않는 부분이 있습니다. 특히, 유아교육학과의 평균 성적이 4.18이라는 점을 명확히 언급하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문의 주제와 관련이 깊으며, 유아교육학과에 지원하기 위한 성적과 관련된 여러 요소들을 잘 설명하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 유아교육학과의 평균 성적에 대한 언급이 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 전반적으로 정확한 정보를 제공하고 있으나, 유아교육학과의 평균 성적에 대한 구체적인 수치를 명시하지 않아 약간의 정확성 결여가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으며, 적절한 정보를 제공합니다. 다만, 유아교육학과의 평균 성적에 대한 구체적인 언급이 부족하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.6963372315939733</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75라는 등급은 매우 높은 점수입니다. 수능 4개 영역의 평균 등급이 4.75라면, 각 영역별로도 상당히 높은 점수를 받았을 것으로 추정됩니다.
+유아교육학과에 지원할 때 성적만으로는 다음과 같은 점들을 고려해야 합니다:
+1. 유아교육학과의 경쟁률: 이 학과는 일반적으로 많은 수험생들이 선호하므로 높은 경쟁률을 가지고 있을 가능성이 큽니다.
+2. 모집인원: 지원 가능한 인원이 얼마나 되는지 확인해야 합니다. 
+3. 전형방법: 유아교육학과는 종종 학생부와 면접 등 다른 평가 요소도 고려하므로, 단순 성적만으로 결정되는 것은 아닐 수 있습니다.
+4. 추가요건: 일부 학과에서는 교직실습 경력이나 관련 활동 경험 등을 요구할 수도 있습니다.
+5. 대체성적: 일부 학교는 수능 외에 다른 평가 방법을 사용하기도 하므로, 이 점도 고려해야 합니다.
+4.75라는 높은 성적이 있다면 유리한 위치에 있지만, 여전히 경쟁이 치열할 수 있습니다. 최선의 결과를 얻기 위해서는:
+- 해당 학과의 모집요강을 꼼꼼히 확인하고
+- 추가적인 평가 요소들을 준비하며 
+- 다른 지원 전략도 함께 고려하는 것이 좋습니다.
+결론적으로 성적이 높은 만큼 좋은 기회를 얻을 수 있지만, 여전히 경쟁이 치열할 수 있으므로 다양한 방법으로 지원 전략을 세우는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 평균 등급과 관련된 정보를 제공하지만, 영어 등급 평균이 2.34로 제시된 것은 원본 텍스트의 6.33과 상충합니다. 또한, 수능 4개 영역의 평균 등급이 7.08이라는 정보는 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 영어 등급 평균과 수능 4개 영역 평균에 대한 불일치가 있어 일관성이 떨어집니다. 
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 분석을 제공하고 있으며, 주제와 관련된 정보를 포함하고 있습니다. 그러나 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있습니다. 문장 흐름이 자연스럽고 명확합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 일부 정보의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 주요 사실과 상충하는 부분이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 일부 세부사항의 불일치로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 독자가 내용을 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.5465391266685674</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과 일반학생전형에 대한 정보를 바탕으로 분석해보겠습니다.
+1. **모집인원 및 지원자 수**:
+   - 모집 인원: 37명
+   - 지원 인원: 88명
+   - 경쟁률: 약 2.4:1 (88/37)
+2. **성적 분석**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 353.48
+   - 영어 등급의 평균: 2.34
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 481.70
+3. **성적 비교**:
+   - 현재 환산등급이 4.16인 경우, 이는 대략 2024년 수능 등급의 평균보다 약간 낮습니다.
+   - 하지만, 실제 합격 가능성은 여러 요소에 따라 달라질 수 있습니다.
+4. **추합 가능성**:
+   - 추합 점수를 고려하면, 현재 성적만으로는 경쟁률이 높아서 단순히 환산등급 4.16로 합격하기는 어렵습니다.
+   - 그러나 추합을 통해 추가적인 등급이나 점수가 더해지면 가능성이 있습니다.
+5. **추합 요소**:
+   - 실기/실적 성적
+   - 특별한 경력 또는 활동
+   - 자기소개서 및 면접 성과
+6. **결론**:
+   - 현재 환산등급 4.16로는 단순히 일반학생전형으로 합격하기 어렵습니다.
+   - 추합을 통해 추가적인 점수가 더해지면 가능성이 있지만, 확실한 것은 아닙니다.
+추합 가능성에 대한 정확한 판단은 실기/실적 성적, 자기소개서 및 면접 성과 등을 고려해야 합니다. 추합을 준비하면서 이러한 요소들을 강화하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문 내용을 완전히 무시하고, 정시모집군에 대한 잘못된 정보와 예측을 제공하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 전혀 일치하지 않으며, 정시모집군에 대한 정보가 원문과 상충합니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문 질문에 대한 직접적인 답변이 아니며, 관련 없는 정보로 가득 차 있습니다. 소프트웨어융합학과의 정시 지원 가능성에 대한 질문에 대한 적절한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 없습니다. 그러나 각 항목은 논리적으로 연결되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 다릅니다. 소프트웨어융합학과의 정시 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 질문의 맥락과도 맞지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 비교적 이해하기 쉬우나, 내용이 원문과 관련이 없기 때문에 전체적인 이해도는 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.4181035024321658</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 소프트웨어융합학과의 경우 다음과 같은 특징이 있습니다:
+1. 정시모집군 변경:
+   - 2023년도에는 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)로 모집되었습니다.
+   - 2024년도에는 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)로 변경되어 모집되고 있습니다.
+2. 정시모집군: 다
+   - 이는 일반학생전형의 정시모집군으로 분류됩니다.
+3. 평균 등급:
+   - 2024학년도 수능(일반학생전형) 최종등록자에서 소프트웨어공학부 관련 학과들의 평균 등급을 보면, 
+     국어+수학+탐구 (가산점 포함) 표준 변환 점수 합의 평균은 대략 317.87~403.85 사이입니다.
+   - 이 중에서 소프트웨어공학부와 가장 유사한 수치는 317.87 (소프트웨어공학부) 또는 403.85 (인공지능학과) 정도로 추정할 수 있습니다.
+따라서, 소프트웨어융합학과를 정시로 들어가기 위해서는 대략 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균 317.87 이상을 받아야 할 것으로 예상됩니다.
+하지만 이는 단순 추정이며, 최종 등급은 모집인원, 지원자 수, 경쟁률 등의 요인에 따라 달라질 수 있습니다. 따라서 정확한 등급 기준은 입학처 공지나 모집요강을 확인하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 제공하고 있으며, 면접 점수와 서류 평가 점수의 중요성을 강조하고 있습니다. 그러나 원본 텍스트에서 언급된 "학생부 교과성적"이 서류 평가에 포함된다는 점이 명확히 반영되지 않았습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 대체로 일치하지만, 서류 평가의 구체적인 요소에 대한 설명이 추가되어 있어 약간의 차이가 있습니다. 그러나 전반적으로 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 소프트웨어융합학과의 입학사정관제에 대한 구체적인 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적인 흐름이 잘 유지되고 있으며, 각 항목이 명확하게 구분되어 있어 일관된 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확하지만, 원본 텍스트에서 명시된 "학생부 교과성적"의 중요성이 다소 간과된 점이 있어 완벽한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일부 세부 사항에서 정확성이 떨어지는 점이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.5520437928026595</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관제의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히 소프트웨어융합과 같은 전공에서는 실무 경험과 관련된 세특 내용이 많이 참고될 수 있습니다.
+1. **면접 점수**: 면접에서는 지원자의 문제 해결 능력, 학업역량, 전공적합성 등을 평가합니다. 지원동기와 학업계획, 학업역량에 대한 공통문항 발표 및 질의응답 등이 주요 질문입니다.
+2. **서류 평가**: 서류 평가는 학교생활기록부를 중심으로 합니다. 세특 내용은 학생부 교과성적 외에도 창의적 체험활동, 동아리 활동, 진로활동 등 다양한 경험을 반영할 수 있습니다.
+**세특 내용 준비 방법:**
+- **창의적 체험활동**: 관련 프로젝트나 활동에 참여한 경험이 있다면 자세히 기재하세요. 실제 결과와 그 과정을 설명하는 것이 중요합니다.
+- **동아리 활동**: 동아리에서의 역할과 성과를 기록하세요. 특히 소프트웨어 관련 동아리 활동은 유리하게 작용할 수 있습니다.
+- **진로활동**: 진로 탐색 과정, 직업적성 검사 결과 등이 있다면 이를 포함시켜 전공 적합성을 보여주세요.
+**추가 서류 준비:**
+- **소프트웨어 관련 활동 증빙서류**: 프로젝트나 대회 참여 경력, 소프트웨어 개발 경험 등과 관련된 증빙자료를 첨부하세요.
+- **참고 자료**: 관련 교과 성적, 과제 수행 기록 등이 있다면 함께 제출하면 좋습니다.
+**주의사항:**
+- **허위 기재 피하기**: 학교생활기록부와 실제 활동 내용이 일치해야 합니다. 허위 기재는 감점 또는 불합격 처리될 수 있습니다.
+- **상세한 설명**: 경험을 간단히만 기재하지 말고, 상세하게 설명하여 자신의 능력을 잘 보여주세요.
+입학사정관들은 지원자의 전반적인 역량과 적합성을 종합적으로 평가하므로, 세특 내용도 중요합니다. 꼼꼼한 준비와 진실된 경험을 기록하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격자 평균 성적과 관련된 정보를 포함하고 있으며, 4.08의 성적이 평균보다 약간 낮다는 점을 언급하고 있습니다. 그러나 일부 세부사항(예: 모집인원, 지원 인원 등)은 원본 텍스트에 포함되어 있지 않으므로, 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 정보가 원본 텍스트와 일관되지 않을 수 있습니다. 예를 들어, 경쟁률과 모집인원 등의 정보는 원본 텍스트에 명시되어 있지 않으므로, 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 질문에 대한 답변으로서 매우 관련성이 높습니다. 성적과 관련된 조건들을 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 정보가 추가되어 있어 전체적인 흐름이 약간 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본 텍스트와 일치하지 않을 수 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주지만, 일부 정보의 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의미를 약간 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 세부사항이 추가되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.7108303500219809</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프리웨어공학부의 최초합격자의 경우, 다음과 같은 정보가 있습니다:
+- 모집단위: 소프트웨어공학부 (컴퓨터소프트웨어공학, 응용소프트웨어공학)
+- 모집인원: 45명
+- 지원 인원: 28명
+- 경쟁률: 1.64
+- 충원 합격 (후보순위): 10명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 321.40
+- 영어 등급의 평균: 3.60
+- 수능 4개 영역 등급의 평균: 4.22
+이 정보를 바탕으로, 성적이 4.08인 경우 다음과 같은 점을 고려해야 합니다:
+1. **영어 등급**: 평균은 3.60이며, 4.08은 약간 높습니다.
+2. **수능 4개 영역 등급 평균**: 4.22로, 이보다 낮지 않아야 합니다.
+성적이 4.08이라면, 경쟁률이 1.64인 상황에서 충분히 가능성이 있습니다. 그러나 최초합격자들의 성적 평균은 321.40이라는 점을 고려하면, 국어 + 수학 + 탐구(2개)의 점수가 중요할 것입니다.
+따라서, 다음과 같은 조건들을 충족한다면 가능성이 있습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 321.40 이상
+- 영어 등급이 3.60 정도
+즉, 성적이 4.08이라면 충분히 최초합격 가능성이 있으나, 정확한 확률을 알기 위해서는 해당 대학의 전체 지원자들의 성적 분포와 경쟁률 등을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 제공된 정보와는 다른 수치(434.15, 7.46)를 제시하고 있습니다. 이는 원본 텍스트의 내용과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 특히 평균 점수와 표준 편차에 대한 언급이 원본 텍스트의 내용과 상충합니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 소프트웨어융합학과에 대한 정보를 제공하고 있으나, 원본 텍스트에서 요구하는 구체적인 합격 등급 정보와는 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있으며, 특히 수치와 관련된 부분에서 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 표현이 사용되었습니다. 그러나 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.5678824536539255</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위인 소프트웨어융합학과의 경우, 평균 등급이 다음과 같습니다:
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 434.15
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차는 7.46
+이 정보만으로는 정확한 등급을 판단하기 어렵지만, 평균 표준 변환 점수가 430점 이상이고 표준 편차가 7.46이라는 것은 전체 지원자들의 성적이 상대적으로 높은 편임을 의미합니다.
+5등급의 수능 점수는 대략 280-290점 정도로 추정되므로, 이 수치만으로는 소프트웨어융합학과에 충분히 경쟁력이 있는 수준이라고 판단하기 어렵습니다. 
+하지만 등급뿐만 아니라 학업역량, 전공적합성 등의 평가도 이루어지므로, 단순 등급만 보고 판단하는 것은 위험할 수 있습니다. 전체적인 지원 자질을 고려하여 종합적으로 평가받는 것이 중요합니다.
+결론적으로 5등급으로는 경쟁력이 떨어지는 편이며, 더 높은 점수를 받거나 다른 강점을 보여주는 것이 유리할 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학과의 평균 성적과 귀하의 성적을 비교하고 있지만, "귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다"라는 부분은 사실과 다릅니다. 귀하의 성적(4.28)은 평균 성적(5.32 및 5.78)보다 낮기 때문에 이 부분에서 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 응답의 일부는 일관성을 유지하고 있지만, 귀하의 성적이 평균보다 높다는 주장은 일관성이 없습니다. 이로 인해 전체적인 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문의 주제와 관련이 있으며, 신소재공학과에 대한 정보와 귀하의 성적을 분석하는 내용이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현이 사용되었습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 귀하의 성적에 대한 잘못된 해석이 전체적인 일관성을 약간 해칠 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 응답의 일부 정보는 정확하지만, 귀하의 성적이 평균보다 높다는 주장은 사실과 다릅니다. 이로 인해 정확성 점수가 낮아집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 응답은 일부 강점을 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답의 의미는 대체로 적절하며, 질문의 맥락에 맞는 내용을 담고 있습니다. 그러나 잘못된 정보가 포함되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 명확하고 이해하기 쉬운 구조로 되어 있습니다. 그러나 일부 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.63028810071759</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 입학할 가능성을 평가해보겠습니다.
+1. **모집단위 및 전형**: 신소재공학과는 주로 정시 모집이 이루어지며, 일반학생전형으로 지원하는 경우 수능 성적이 중요합니다.
+2. **수능 성적 분석**:
+   - 4.28이라는 점수가 4등급에 해당합니다.
+   - 신소재공학과의 경쟁률은 보통 높습니다 (예: 15개 모집인원에 95명이 지원하여 6.33:1).
+   - 평균 수능 성적을 보면, 대부분의 경우 4등급 이상이 필요합니다.
+3. **수능 반영 영역**:
+   - 국어(25%), 수학(25%), 영어(25%), 탐구(25%)
+   - 이 중 상위 3개 영역을 선택하여 점수를 합산합니다.
+4. **예상 평균 성적**:
+   - 예를 들어, 국어 4등급 (100점), 수학 4등급 (108점), 탐구 4등급 (123점)을 가정하면,
+     - 합산 점수 = (100 + 108 + 123) / 3 ≈ 111.7
+   - 이는 상대적으로 낮은 수준입니다.
+5. **추천**:
+   - 4.28이라는 성적을 가지고 신소재공학과에 입학하기는 어렵습니다.
+   - 다른 전형 (예: 학생부종합, 실기/실적 등)이나 다른 공과대학의 모집단위를 고려해보시는 것이 좋을 것 같습니다.
+결론적으로, 4.28이라는 성적만으로 신소재공학과에 입학하기는 어렵습니다. 다른 전형이나 대안을 찾아보시는 것을 추천드립니다. 더 자세한 정보나 조언이 필요하시면 학교 관계자에게 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 자기소개서가 필요 없다는 사실을 명확히 전달하고 있습니다. 추가적인 정보도 제공되지만, 이는 원본의 사실과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 자기소개서가 필요 없다는 주장을 지속적으로 지지하고 있습니다. 추가적인 정보도 원본의 주제와 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 자기소개서의 필요성에 대한 질문에 대한 명확한 답변을 제공합니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.6554512474390572</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024년 동아대학교의 수능 일반학생전형에서는 자기소개서가 요구되지 않습니다. 
+주요 점은 다음과 같습니다:
+1. **제출 서류**: 
+   - 고교 학생부 교과성적 (온라인 제공 동의자에 한해 온라인으로 제공 받음)
+   - 검정고시 출신자나 외국고교 졸업자라면 해당 증명서
+2. **제출 방법**: 
+   - 전형일정에 따라 원서 접수 및 서류 제출을 진행합니다.
+3. **평가 요소**:
+   - 수능 성적 (국어, 수학, 영어 등급)
+   - 탐구 과목 성적
+   - 가산점 (필요한 경우)
+따라서 자기소개서는 필요하지 않습니다. 주로 수능 점수와 학교생활기록부를 통해 평가됩니다. 자세한 내용은 동아대학교 입학처 웹사이트나 공고문을 확인하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 4.5 등급에 대한 해석을 제공하지만, 원본 텍스트에서 언급된 특정 학과의 평균 등급과 관련된 정보는 포함되어 있지 않습니다. 또한, 수능 영어 등급으로 해석하는 것은 원본 텍스트의 맥락과 다소 다릅니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 수능 4.5 등급을 영어 등급으로 해석하는 부분에서 일관성이 떨어집니다. 원본 텍스트는 수능 4개 영역 등급에 대한 정보를 제공하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 4.5 등급과 추가 모집 가능성에 대한 정보를 제공하므로 관련성이 높습니다. 그러나 원본 텍스트의 특정 학과에 대한 정보와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인에 대한 설명이 명확합니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 등급에 대한 정보를 제공하지만, 원본 텍스트의 특정 세부사항을 반영하지 않으므로 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 원본 텍스트와의 관계에서 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 다르게 해석되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 연결이 약해질 수 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.7255212462852654</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 수능 영어 등급으로 보아야 합니다. 한국 대학의 경우, 일반적으로 수능 영어 등급은 다음과 같이 변환됩니다:
+- 1등급 : 91점 이상
+- 2등급 : 83점 이상
+- 3등급 : 75점 이상
+- 4등급 : 67점 이상
+- 5등급 : 59점 이상
+- 6등급 : 51점 이상
+- 7등급 : 43점 이상
+- 8등급 : 35점 이상
+- 9등급 : 27점 이상
+따라서 4.5 등급은 대략 67점 정도를 의미합니다.
+추가모집 가능성 여부는 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **모집단위와 경쟁률**: 각 모집단위의 경쟁률과 남아있는 모집정원을 확인해야 합니다.
+2. **성적 평균 및 분포**: 해당 단과대학 또는 학과의 전체 지원자의 성적 평균과 분포를 살펴보세요.
+3. **전형방법**: 각 전형방법(학생부종합, 실기/실적 등)에서의 점수 반영 비율을 확인해야 합니다.
+4. **추가모집 규칙**: 대학별로 추가모집 시에 어떤 기준으로 학생들을 선발하는지 확인해야 합니다.
+예를 들어, 공과대학이나 ICT융합공과대학에서는 수능 성적이 중요할 수 있으며, 경쟁률이 높을수록 4.5 등급은 낮은 점수일 수 있습니다. 반면 인문사회과학대학에서는 학생부 종합 평가가 더 큰 비중을 차지할 수 있으므로, 영어 성적이 낮더라도 다른 평가 요소들이 좋다면 가능성이 있을 수 있습니다.
+따라서, 정확한 답변을 위해서는 해당 대학의 추가모집 규칙과 경쟁률 등을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 모집 요강과 관련된 정보를 제공하고 있으며, 수능 반영 비율과 예상 합격 기준에 대한 구체적인 내용을 포함하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급 정보(영어 5.06, 수능 5.78)에 대한 직접적인 언급이 없으므로, 완전한 사실성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 신소재공학과의 합격 가능성에 대한 정보를 제공합니다. 그러나 원본 텍스트의 평균 등급 정보와는 다소 다른 방향으로 설명하고 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 신소재공학과의 합격 가능성에 대한 정보를 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 잘 구성되어 있어 읽기 쉽고 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 모집 요강에 대한 정확한 정보를 제공하지만, 원본 텍스트의 평균 등급 정보와는 다소 차이가 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있지만, 일부 사실성 및 일관성에서 약간의 부족함이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.6220855421757081</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과(신소재공학과, 고분자나노공학과)의 모집요강을 보면, 정시모집은 수능 기반으로 이루어지며, 전형성적 산출방법은 다음과 같습니다:
+- **전형명**: 가군(일반학생전형)
+- **모집단위**: 공과대학, ICT융합공과대학 모집단위
+- **수능 반영영역 및 잔영비율**: 국어 25% + 수학 25% + 영어 25% + 탐구 25%
+- **가산점**: 수학(미적분 또는 기하) 응시자에 한해 수학 표준점수 x 0.1 가산
+이러한 방식으로 성적이 반영되므로, 정확한 등급만으로 합격 가능성을 판단하기는 어렵습니다. 하지만 일반적으로 신소재공학과와 관련된 전공적합성과 과목별 성적이 높은 수험생들이 선호되는 경향이 있습니다.
+**예상적인 합격 기준:**
+- **국어**: 90점 이상
+- **수학(미적분 또는 기하)**: 85점 이상 (가산점 포함)
+- **영어**: 4등급 이상
+- **탐구 영역**: 과학이나 사회 탐구에서 높은 점수를 받는 것이 좋습니다.
+이러한 예상치는 일반적인 경향을 반영한 것입니다. 실제 합격 가능성을 판단하기 위해서는 동의대학교의 정시모집 성적 분포와 최근 몇 년간의 입학성적을 참고해야 합니다. 따라서, 가장 정확한 정보를 얻기 위해서는 동의대학교의 공식 홈페이지나 입학처에 직접 문의하는 것이 좋습니다.
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)
+이 웹사이트에서 최신 모집요강과 성적 분포를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 작년 신소재공학과의 평균 점수인 378.15점과 비교하여 447점이 높다는 점을 언급하고 있지만, "447점은 작년 평균보다 약간 낮다"는 부분은 사실과 다릅니다. 447점은 작년 평균보다 훨씬 높은 점수입니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 응답은 신소재공학과의 평균 점수와 관련된 정보를 제공하지만, 447점이 작년 평균보다 낮다는 잘못된 주장을 포함하고 있어 일관성이 떨어집니다. 
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학과와 관련된 정보와 지원자 수, 경쟁률 등을 제공하여 관련성이 높지만, 질문의 핵심인 합격 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 질문과 직접적으로 연결되지 않아 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 응답의 일부 정보는 정확하지만, 447점이 작년 평균보다 낮다는 잘못된 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 사실성과 정확성에서 문제가 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 일부 잘못된 정보로 인해 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.6395156782992272</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 신소재공학과와 분자나노공학과는 다음과 같은 특징을 가지고 있습니다:
+- 모집인원: 56명
+- 지원인원: 81명 
+- 경쟁률: 약 1.45 : 1 (약간 낮음)
+- 충원 합격자 수: 25명
+표준점수 평균은 작년보다 약간 낮을 가능성이 있습니다만, 정확한 예측은 어렵습니다. 작년과 유사하거나 약간 높아질 수도 있습니다.
+주요 변수로는:
+1. 지원자들의 수능 성적 분포
+2. 모집단위별 지원 경향
+3. 학교 측의 입학 정원 조정 여부 등이 영향을 미칠 수 있음
+447점은 작년 평균보다 약간 낮지만, 충분히 가능성이 있습니다. 하지만 확실한 예측은 어렵습니다. 최종적인 결과는 동의대학교에서 공식 발표하는 것이 가장 정확할 것입니다.
+추가적으로, 동의대학교의 경우 일반학생전형과 조기취업형 계약학과 전형을 별도로 운영하고 있으므로, 해당 전형별로 평균 점수가 다를 수 있습니다. 따라서 특정 전형에서의 성적 기준을 확인하는 것이 좋습니다.
+결론적으로, 447점은 작년보다 약간 낮지만 충분히 가능성이 있는 범위에 속합니다. 하지만 정확한 예측은 동의대학교에서 공식 발표를 기다리는 것이 가장 안전할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 평균 성적에 대한 정보와 지원 가능성에 대한 분석을 제공하지만, 원본 텍스트에서 제시된 성적 범위와 다소 상충하는 내용을 포함하고 있습니다. 특히, 4.3 등급대의 성적에 대한 언급이 원본 텍스트와 일치하지 않으며, 신소재공학부에 대한 정보가 다소 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 4.3 등급대의 성적에 대한 결론이 원본 텍스트의 내용과 일관되지 않습니다. 원본 텍스트는 4.1~4.2 등급대의 성적이 신소재공학부의 평균 성적과 비교했을 때 다소 높은 편이라고 언급하고 있으나, 생성된 응답은 4.3 등급대의 성적이 지원하기 어렵다고 주장합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학부에 대한 성적 분석과 지원 가능성에 대한 정보를 제공합니다. 그러나 일부 내용이 원본 텍스트와 다르게 해석되어 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 성적에 대한 해석이 다소 부정확합니다. 특히, 4.3 등급대의 성적에 대한 결론이 원본 텍스트의 내용과 상충합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 다소 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 내용이 왜곡되어 있어 완전한 적합성을 보장하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.5805573969776121</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이면 신소재공학과(신소재공학과, 고분자나노공학과)에 지원하기는 어렵다고 볼 수 있습니다. 현재 제공된 데이터를 바탕으로 분석해보겠습니다:
+1. **성적 산출방법**: 
+   - 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - 또는 국어 + 수학 + 영어 등급점수 + 탐구 표준점수 + 가산점(수학 응시자)
+2. **신소재공학과의 성적 분포**:
+   - 4개 영역 (국어, 수학, 영어, 탐구) 중 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2
+   - 평균적인 경쟁률이 높고 지원 인원도 많아서 고득점을 요구하는 경향이 있습니다.
+3. **성적 예상**:
+   - 4.1~4.2 등급대는 상위권의 점수일 것입니다.
+   - 신소재공학과의 경우, 평균적인 지원자의 성적이 높기 때문에 이 정도 점수로는 경쟁이 치열할 것으로 예상됩니다.
+4. **추천**:
+   - **성적을 향상시키는 노력**: 수능 공부를 더 집중하고, 실력 향상을 위한 노력을 해보세요.
+   - **다른 학과 지원**: 신소재공학과보다 경쟁이 덜한 다른 학과(예: 기계공학과)를 고려해보세요.
+   - **전형별 특성**: 신소재공학과는 성적이 높아야 하는 경향이 있으므로, 이 정도 점수로는 지원하기 어렵다고 볼 수 있습니다.
+결론적으로 4.1~4.2 등급대의 성적로 신소재공학과에 지원하는 것은 어렵다고 추천드립니다. 다른 학과를 고려해보시거나, 추가적인 공부와 노력을 해보세요.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동국대학교에 대한 정보를 제공하고 있으며, 동의대학교의 정보를 잘못 전달하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 정보를 동국대학교로 잘못 변경하여 일관성이 없습니다. 이로 인해 응답의 일관성 점수도 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 정보를 제공하고 있지만, 잘못된 학교 이름으로 인해 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 문법적으로도 적절합니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 학교 이름의 오류로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답은 동의대학교의 정보를 동국대학교로 잘못 전달하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 저하되어 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 적절한 정보를 제공하고 있으나, 잘못된 학교 이름으로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.8254711689431985</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동국대학교 ICT융합공과대학 인공지능학과의 수능(일반학생전형) 최초 합격자의 성적을 요약하면 다음과 같습니다:
+- 모집단위: 인공지능학과
+- 모집인원: 15명
+- 지원인원: 24명
+- 경쟁률: 1.60
+- 충원 합격 (후보순위): 5명
+성적 관련 통계:
+- 국어 + 수학 + 탐구(가산점 포함) 표준 변환 점수 합의 평균: 301.87
+- 국어 + 수학 + 탐구(가산점 포함) 표준 변환 점수 합의 표준 편차: 12.38
+- 영어 등급의 평균: 4.13
+- 영어 등급의 표준 편차: 0.71
+- 수능 4개 영역 등급의 평균: 4.98
+- 수능 4개 영역 등급의 표준 편차: 0.25
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 415.80
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차: 10.49
+이 통계를 참고하시면 해당 전형에 대한 성적 기준을 파악하실 수 있을 것입니다. 하지만 이는 단일 데이터이며, 최종적인 경쟁률과 입학 가능성을 판단하기 위해서는 전체 지원자의 성적 분포와 모집인원 등을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 5.27이라는 점수가 수능 영어 등급으로 보인다고 언급하고 있지만, 원본 텍스트에서는 5.27이 충원 합격 가능성을 평가하기 위한 성적임을 명확히 하고 있습니다. 또한, 특정 학과의 평균 성적과 경쟁률에 대한 정보가 잘못 해석되었거나 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 예를 들어, 법학과와 영어영문학과의 경쟁률과 평균 성적을 언급하고 있지만, 원본 텍스트에서는 이러한 세부 정보가 제공되지 않았습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 정보를 제공하려고 하지만, 원본 텍스트에서 제공하는 충원 합격 가능성에 대한 정보와는 다소 관련성이 떨어집니다. 응답이 주제와 관련이 있지만, 핵심적인 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 각 요소 간의 논리적 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 특정 학과의 성적 기준과 경쟁률에 대한 정보가 잘못 해석되거나 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 드러나며, 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 주제와 관련된 핵심 정보를 충분히 전달하지 못하고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 정보의 흐름이 다소 분산되어 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.5780229241540638</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 수능 영어 등급으로 보이는데, 이 점수로 동의대학교에 지원하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. 모집단위와 전형별로 성적 기준이 다릅니다. 예를 들어:
+   - 법학과: 경쟁률 5.71, 평균 4.27 등급
+   - 영어영문학과 (다군): 경쟁률 2.43, 평균 3.16 등급
+2. 모집인원과 지원자 수도 중요합니다. 예를 들어:
+   - 법학과: 정원 7명, 지원자 40명
+   - 영어영문학과 (다군): 정원 28명, 지원자 56명
+3. 전형별로 성적 기준이 다릅니다. 일반전형, 경기실적우수자전형 등에 따라 다르게 평가됩니다.
+4. 다른 영역(국어, 수학, 탐구)의 성적도 고려해야 합니다. 5.27은 단순히 영어 점수만을 보고 판단하기에는 부족합니다.
+따라서 정확한 답변을 위해서는:
+- 지원하고자 하는 모집단위와 전형
+- 해당 모집단위의 정원과 지원자 수 
+- 다른 과목(국어, 수학 등)의 성적
+이런 정보들을 함께 고려해야 합니다. 이 정보를 바탕으로 더 구체적인 판단을 내릴 수 있을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어공학부의 평균 수능 등급이 4.12라고 언급하고 있지만, 원본 텍스트에서는 평균 등급이 4.49로 명시되어 있습니다. 또한, 경쟁률이 4.87이라고 언급되었으나, 원본 텍스트에는 그러한 정보가 없습니다. 이러한 부정확한 정보로 인해 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다. 예를 들어, 평균 수능 등급이 4.12라고 언급한 부분은 원본 텍스트의 4.49와 일치하지 않으며, 경쟁률에 대한 정보도 원본에 없기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변으로서 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 합격 가능성에 대한 정보가 왜곡되어 있습니다. 그러나 지원 가능성을 높이기 위한 방법을 제시하는 등 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히 평균 수능 등급과 경쟁률에 대한 정보가 부정확하여 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 일부 차원에서 긍정적인 요소를 가지고 있지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 중간 정도로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문에 대한 의미를 전달하고 있으나, 원본 텍스트의 맥락과 다르게 해석될 수 있는 부분이 있어 의미 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.6436679399877284</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>4.2라는 수능 등급으로 동의대학교 소프트웨어공학부에 지원하는 것은 상당히 어려울 것으로 예상됩니다.
+소프트웨어공학부의 경우, 정시 모집에서는 다음과 같은 특징이 있습니다:
+1. 경쟁률이 매우 높습니다 (4.87).
+2. 평균 수능 등급이 4.12입니다.
+3. 평균 국어+수학+탐구(2개) 표준 변환 점수 합은 450.71입니다.
+당신의 수능 성적 (4.2)는 이들 평균보다 약간 낮습니다. 그러나 다음과 같은 방법들을 통해 지원 가능성을 높일 수 있습니다:
+1. 교과 성적: 좋은 교과 성적이 있다면 이를 강조할 수 있습니다.
+2. 추가 활동: 관련 프로젝트나 경력을 보여줄 수 있는 자료가 있다면 제출해보세요.
+3. 자기소개서: 열정과 적합성을 잘 표현한 자기소개서를 준비합니다.
+하지만 여전히 매우 높은 경쟁률을 고려하면, 이 방법들만으로도 확실하게 합격할 수 있는 보장은 없습니다. 
+결론적으로, 가능성이 있지만 매우 낮다고 볼 수 있습니다. 다른 대학이나 전문대학을 함께 준비하는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 화학환경공학부의 평균 성적과 관련된 정보를 제공하지만, 원본 텍스트의 구체적인 수치(영어 등급 평균 4.82, 수능 4개 영역 등급 평균 5.73)를 반영하지 않고 있습니다. 또한, 경쟁률과 관련된 정보는 원본 텍스트에 포함되어 있지 않으며, 잘못된 수치를 제시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(예: 경쟁률, 평균 성적 등)를 포함하고 있어 일관성이 부족합니다. 원본 텍스트의 내용과 상충하는 부분이 존재합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 정보와는 다소 거리가 있습니다. 경쟁률과 개인 성적에 대한 정보는 관련이 있지만, 원본 텍스트의 주요 포인트를 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 각 요소 간의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(예: 평균 성적, 경쟁률 등)를 포함하고 있어 정확성이 낮습니다. 잘못된 수치와 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 일부 정보는 적절하지만, 전체적으로는 부적절한 부분이 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 일부 문장은 복잡하게 구성되어 있어 명확하게 이해하기 어려울 수 있습니다. 정보의 배열이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.5754046065351448</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **2024학년도 모집인원 및 지원자 수**：根据提供的信息，2024学年，화학환경공학과（化学环境工程系）的一般学生招生人数为35人，而最终注册的申请者有68人。
+2. **竞争率**：竞争率为1.94，即每3.92名申请人中就有1个名额。这表明录取难度相对较高。
+3. **成绩分布情况**：
+   - 国语 + 数学 + 探究（2科）（含加分）标准转换总分的平均值为251.82。
+   - 英语等级的平均分为4.67。
+   - 4个科目等级的平均分为5.30。
+4. **个人成绩**：您提到的成绩是3.92，这在英语等级中相当于B+（通常B+对应4.5-4.8分）。
+综合以上信息：
+1. **竞争激烈**：虽然您的成绩在英语方面表现不错，但整体来看，您的总成绩略低于平均值。
+2. **录取难度**：由于该专业的招生人数较少而申请者较多（35个名额，68名申请人），因此竞争非常激烈。
+3. **建议**：
+   - 考虑其他可能的学科组合或专业选择，因为有些专业可能会有较低的竞争率。
+   - 如果您对化学环境工程系特别感兴趣，可以尝试提高自己的成绩，特别是数学和探究科目（如物理、化学等）的成绩。
+   - 也可以关注是否有调剂的机会或其他补录信息。
+综上所述，在当前情况下，虽然有一定机会但竞争非常激烈。建议您综合考虑其他选择并努力提升个人成绩以增加录取几率。</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 포함하고 있지만, 일부 세부사항이 원본 텍스트와 일치하지 않거나 추가적인 정보가 포함되어 있습니다. 예를 들어, 모집단위와 인원, 성적 예시 등은 원본 텍스트에 명시되어 있지 않은 내용입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 추가된 정보로 인해 일관성이 떨어질 수 있습니다. 특히, 성적 평균 및 경쟁률에 대한 정보가 원본과 다르게 제시되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부에 대한 질문에 적절하게 관련된 정보를 제공합니다. 그러나 원본 텍스트의 핵심 내용에 비해 다소 벗어난 정보가 포함되어 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어져 있어 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 특정 세부사항과 일치하지 않는 부분이 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.6887084087706525</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학과는 수능(일반학생전형)을 통해 지원이 가능합니다. 아래 내용을 참고하시면 도움이 될 것입니다:
+1. **모집단위 및 모집인원**:
+   - 단과대학: 공과대학
+   - 계열: 공학
+   - 모집단위: 화학공학과, 환경공학과, 응용화학과
+   - 모집인원: 각각 20명
+2. **수능 성적 및 가산점**:
+   - 수능 반영 영역: 국어(25%), 수학(25%), 영어(25%), 탐구(25%)
+   - 수능 가산점: 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여
+3. **성적 산출방법**:
+   - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + (수학(미적분 또는 기하) 응시자에게는 수학 표준점수 x 0.1)
+4. **성적 예시**:
+   - 국어: 104
+   - 수학(미적분): 108
+   - 영어: 4등급 (115)
+   - 탐구: 2개 과목의 표준점수 합
+5. **성적 평균 및 경쟁률**:
+   - 2023학년도 최종 등록자 중 화학환경공학과 지원자의 성적이 다음과 같았습니다.
+     - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 417.30
+     - 영어 등급의 평균: 5.68
+6. **지원 자격**:
+   - 일반고, 자율고, 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고, 특성화고, 영재학교, 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고 지원 가능
+7. **전형요소 반영비율**:
+   - 수능: 100%
+8. **제출서류**:
+   - 고교 졸업(예정)자: 제출서류 없음 (단, 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받음)
+   - 검정고시 출신자 / 외국고 졸업(예정)자: 제출서류 없음
+9. **동점자 처리기준**:
+   - 수능 국어, 수학, 영어영역의 합계점수 상위자
+   - 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+   - 의료‧보건‧생활대학, 공과대학 ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+당신의 성적이 4.25로 보아, 경쟁률이 높은 화학환경공학과에 지원하기 위해서는 최선을 다해야 합니다. 특히 수능 성적을 잘 활용하고, 학교생활기록부와 면접에서 좋은 평가를 받도록 노력하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 점수에 대한 일반적인 평가를 제공하지만, 영화학과의 실기고사 비중에 대한 정보가 잘못된 부분이 있습니다. 디자인조형학과의 실기고사에 대한 언급은 영화학과와 관련이 없으며, 이는 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 응답은 영화학과의 합격 가능성에 대한 정보를 제공하지만, 실기고사와 관련된 정보가 다른 학과에 대한 내용으로 혼동을 일으킵니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 응답은 영화학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하지만, 디자인조형학과의 실기고사에 대한 언급은 주제와 다소 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 명확하지만, 디자인조형학과에 대한 언급이 포함되어 있어 논리적인 흐름이 약간 깨집니다. 영화학과에 대한 정보와 관련이 없는 내용이 포함되어 있습니다.
+6. Accuracy Score (1-5): 3
+   - 응답의 일부 정보는 정확하지만, 실기고사 비중에 대한 잘못된 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 사실성과 일관성에서 문제가 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 응답의 의미는 대체로 적절하지만, 디자인조형학과에 대한 언급이 포함되어 있어 맥락에 맞지 않는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 내용이 혼동을 줄 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.6418476672320144</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 좋은 성적입니다만, 영화학과의 경우 실기고사가 큰 비중을 차지하기 때문에 단순히 수능 점수로 합격 여부를 판단하기는 어렵습니다. 아래 몇 가지 요소들을 고려해보세요:
+1. **실기고사 결과**: 디자인조형학과의 실기고사는 700점 중 240점을 차지하며, 이 부분에서 좋은 성적을 받으셨다면 큰 도움이 될 것입니다.
+2. **전형별 비중**:
+   - 나군 수능(일반학생전형): 수능 100%, 실기/실적은 - (없음)
+   - 나군 실기/실적(일반학생전형): 수능 30%, 실기 70%
+3. **경쟁률**: 영화학과의 경쟁률이 2.20으로 상대적으로 낮습니다.
+4. **전형별 평균 점수**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 286.77
+   - 영어 등급의 평균: 3.66
+5. **전형별 최종등록자 수**: 지원 인원이 11명으로 적습니다.
+따라서, 4.2라는 점수는 좋은 성적입니다만, 실기고사 결과와 함께 고려해야 합니다. 만약 실기고사에서도 좋은 성적을 받으셨다면 합격 가능성은 높아질 것입니다. 하지만 정확한 예측은 입학처의 최종 평가를 기다리는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접 절차의 일부를 포함하고 있지만, 원본 텍스트의 주요 내용과 일치하지 않는 부분이 많습니다. 예를 들어, 면접의 유형, 시간, 방법 등 추가적인 정보가 포함되어 있지만, 원본 텍스트에서 제공된 면접 절차의 세부 사항이 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 면접 절차에 대한 구체적인 단계만을 나열하고 있지만, 생성된 응답은 추가적인 정보와 절차를 포함하여 원본의 흐름과 일치하지 않습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접 절차에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용과는 다소 관련성이 떨어집니다. 원본 텍스트의 절차를 충실히 반영하지 않고 추가적인 정보가 포함되어 있어 주제에서 벗어난 느낌을 줍니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 일관성이 떨어지기 때문에 전체적인 흐름이 매끄럽지 않을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 구조와 흐름을 따르지 않기 때문에 일관된 논리적 흐름이 부족합니다. 각 단계가 명확하게 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 추가된 정보가 원본의 내용과 상충하는 부분이 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 관련성, 정확성 모두에서 부족한 점이 많습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 면접 절차에 대한 정보를 제공하지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 일부 내용은 적절하지만, 전체적으로는 맥락에서 벗어난 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 원본 텍스트와의 일관성이 부족하여 혼란을 줄 수 있습니다. 전반적으로는 명확하게 전달되지만, 내용의 일관성이 떨어집니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.3552613384934067</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>以下是关于面试流程的信息：
+- 面试类型：个别面试。
+- 时间：每人10分钟以内。
+- 方法：由2到3名面试评委对一名考生进行单独评估，基于考生的回答内容进行定性、综合评价。对于录取企业进行深入面试（每名评委2至3人）。
+具体步骤如下：
+①候考室入座 → ②身份确认 → ③前往考场前移动 → ④进入考场 → ⑤介绍申请动机及学业计划 → ⑥关于学业能力、专业适应性相关公共问题陈述和问答 → ⑦其他问题回答（检查提交文件的真实性等） → ⑧退场。
+- 面试中避免的情况：提交的文件中的虚假事实，如在创造性体验活动中记录的俱乐部活动或职业活动的具体内容，在面试时无法回忆起相关内容，或者不能解释超出学校生活记录表的内容。
+- 当分数相同时处理标准：第1名按面试成绩最高者；第2名为书面评估共同领域（社区能力）成绩最高者；第3名为书面评估专业适应性领域成绩最高者；第4名为学业成绩最高者。
+希望这些信息对你有帮助！如果需要更详细的信息，请告诉我。</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/deuChatbot/research_result/version_2(3500_100).xlsx
+++ b/deuChatbot/research_result/version_2(3500_100).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21092,6 +21092,6839 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기시험의 모집단위, 실기종목, 배점, 준비물, 실기주제, 화지크기 및 시험시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 각 실기종목에 대한 설명이 명확하게 구분되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있으며, 실기시험에 대한 정보가 잘 전달되고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 연결되어 있습니다. 정보의 흐름이 자연스럽고 일관성이 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 직관적이며, 이해하기 쉽습니다. 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.8734091288018588</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인이 모집단위로 나뉘어 진행되며, 각 모집단위에서 선택할 수 있는 실기종목이 두 가지 있습니다. 첫 번째 종목은 기초디자인입니다.
+- **기본 정보:**
+  - **모집단위:** 시각디자인 / 산업디자인 / 공예디자인
+  - **실기종목:** 기초디자인
+  - **배점 비율:** 700점 (70%)
+- **준비물:**
+  - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제:**
+  - 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 잠자리와 저울, 콜라병과 계절 등이 있습니다.
+- **화지크기 및 시간:**
+  - 화지 크기는 켄트지3절이며, 시험 시간은 5시간입니다.
+두 번째 종목은 사고의 전환입니다. 
+- **기본 정보:**
+  - **모집단위:** 시각디자인 / 산업디자인 / 공예디자인
+  - **실기종목:** 사고의 전환
+  - **배점 비율:** 700점 (70%)
+- **준비물:**
+  - 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제:**
+  - 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 콜라병과 계절, 바이러스와 자유 등이 있습니다.
+- **화지크기 및 시간:**
+  - 화지 크기는 켄트지2절이며, 시험 시간은 5시간입니다.
+디자인조형학과의 실기시험에서는 창의성과 표현력이 중요하게 평가되므로, 다양한 주제를 통해 자신의 아이디어와 기술을 잘 보여주는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기종목에 대한 정보에서 '시각디자인, 산업디자인, 공예디자인'이라는 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 '기초디자인'과 '사고의 전환'이 실기종목으로 명시되어 있습니다. 또한, 배점 비율에 대한 정보는 원본 텍스트에 포함되어 있지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(예: 실기종목의 종류 및 배점 비율)를 포함하고 있어 일관성이 떨어집니다. 원본 텍스트의 내용과 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 포함하고 있어 관련성이 높습니다. 그러나 잘못된 정보가 포함되어 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며 읽기 쉽습니다. 그러나 일부 정보가 잘못되어 있어 내용의 신뢰성에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 잘못된 정보가 포함되어 있어 전체적인 일관성에 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(실기종목 및 배점 비율)를 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보가 포함되어 있어 의미적으로 완전한 적합성을 보장하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 잘못된 정보가 포함되어 있어 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.7870593862431638</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 시각디자인, 산업디자인, 공예디자인이며, 선택할 수 있는 종목별 배점 비율은 기초디자인이 70%입니다.
+준비물은 볼펜, 연필, 색연필, 수채물감 등이 필요합니다. 
+실기주제는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로 잠자리와 저울이라는 주제가 있을 수 있습니다.
+화지크기는 켄트지3절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회 목록과 설명이 서로 충돌하지 않고 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.9060424662422045</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에는 다음과 같은 대회가 있습니다.
+1. 배드민턴(남)의 경우:
+   - 한국중·고연맹회장기전국학생선수권대회
+   - 대한배드민턴협회장기전국종별배드민턴선수권대회
+   - 전국학교대항배드민턴선수권대회
+   - 전국종별배드민턴선수권대회
+   - 전국연맹종별배드민턴선수권대회
+   - 전국체육대회
+   - 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+   - 광역시·도 협회장기 종별대회
+2. 축구(남)의 경우:
+   - 춘계한국고등학교축구연맹전
+   - 추계한국고등학교축구연맹전
+   - 대한축구협회장배전국고등학교축구대회
+   - 문화체육관광부장관기전국고등학교축구대회
+   - 백운기전국고등학교축구대회
+   - 전국고등축구리그(권역별고교축구리그)
+   - 전국고등축구리그왕중왕전
+   - 무학기전국고등학교축구대회
+   - 청룡기전국고등학교축구대회
+   - 백록기전국고등학교축구대회
+   - 금강대기전국고등학교축구대회
+   - 대통령금배전국고등학교축구대회
+   - K리그 U18 챔피언십
+   - K리그 U18 챔피언십왕중왕전
+위와 같은 대회에서 입상한 경력이 있다면 해당 모집종목에 대한 인정을 받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제와 관련된 세부사항이 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 핵심 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7909412796150144</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩 선정하여 연결된 주제를 제시합니다. 주제들은 다음과 같습니다.
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+각 주제는 당일 추첨을 통해 선정되며, 선정된 주제들을 연결하여 디자인하는 것이 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있지만, 추가적으로 언급된 "출결, 서류, 면접, 실기 등 관련 요소의 반영 비율은 모두 0%이며, 수능만이 100%로 반영됩니다." 부분은 출처에 명시되어 있지 않은 정보이므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출결 점수가 반영되지 않는다는 점에서 일관성을 유지하고 있지만, 추가적인 정보가 출처와 일치하지 않기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 출처의 주제와 관련이 있으며, 출결 점수에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 점수가 반영되지 않는다는 주장은 정확하지만, 추가적인 정보는 출처에 명시되어 있지 않으므로 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있지만, 일부 정보의 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 추가된 정보가 출처와 일치하지 않기 때문에 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.7315727691126944</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 학생부교과 전형에서 출결 점수는 반영되지 않습니다. 출결, 서류, 면접, 실기 등 관련 요소의 반영 비율은 모두 0%이며, 수능만이 100%로 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 국어국문학과에서 모집하는 인원 수에 대한 잘못된 정보를 제공합니다. 원문에서는 17명을 모집한다고 명시되어 있지만, 생성된 응답에서는 0명을 모집한다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문과의 일관성이 전혀 없으며, 서로 모순되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없는 내용을 포함하고 있습니다. 원문에서 요구하는 정보와는 전혀 다른 주제를 다루고 있어 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 문법적으로 올바르지만, 중국어와 한국어가 혼합되어 있어 읽기 어려운 부분이 있습니다. 전반적으로 유창성은 보통 수준입니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하고, 원문과의 연결이 약합니다. 정보가 일관되게 연결되지 않아 이해하기 어렵습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 일부 문장은 이해할 수 있지만, 전체적으로 혼란스러운 내용이 많아 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.5181830587443739</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 해당 정보로是从给定的上下文中，人文社会科学院的国文系在一般学生分类下没有进行招生。具体来说，在“多军高考（普通学生类型）”部分中提到，“단과대학은 인문사회과학대학이며, 계열은 인문사회이며, 모집단위은 국어국문학과이며, 모집인원은 0이다。”这表明国文系没有进行招生。所以，答案是0名。</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원과 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.8743733543100081</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로는 28명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.8305149073519609</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반학생 전형의 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모든 점수와 등급이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, "등급 1 :"과 같은 표현에서 공백이 불필요하게 포함되어 있어 약간의 어색함이 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 작성되었습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.9478527570388584</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서의 주장을 완전히 반박하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성이 떨어지므로 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 완전히 일치하지 않으며, 예술고 학생의 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하며, 문맥에 맞지 않는 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 이해하기 쉬운 구조로 되어 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7378177781752949</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생도 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 그러나 지원 자격은 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주한 자여야 합니다. 또한 지원 자격 증빙서류와 제출 서류를 정확하게 준비해야 합니다.
+제출 서류는 다음과 같습니다:
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부 
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+특히, 예술고 학생이라면 창작 활동이나 작품 등이 포함된 서류를 제출하는 것이 유리할 수 있습니다. 하지만 주요 조건은 농어촌 지역 거주와 교육과정 이수입니다.
+더 자세한 내용은 "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 확인해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 "남은 268～271cm"라는 부분은 사실과 다릅니다. 원본 텍스트에서는 4등급 기록이 218~221 cm로 명시되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. "남은 268～271cm"라는 기록은 원본과 상충하므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 제공하고 있습니다. 따라서 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 "여은"이라는 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 정보가 잘 전달되고 있습니다. 그러나 일부 표현이 명확하지 않아 약간의 일관성 문제가 있습니다.
+6. Accuracy Score (1-5): 2
+   - "남은 268～271cm"라는 잘못된 정보로 인해 정확성이 낮아졌습니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 정확성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 대체로 적절하지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 일부 표현이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8931953709569624</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 남은 268～271cm, 여은 218~221cm입니다. 이 기록에 대한 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 경기지도학과의 출결 반영 비율에 대한 명확한 정보를 제공하지 않고 있으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서 명시된 12%라는 비율을 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 담고 있어 일관성이 없습니다. 원본에서 제공된 정보와는 전혀 다른 주장을 하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 심각한 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 맞지 않는 정보가 포함되어 있어 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.6056678854369968</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과의 출결 반영 비율은 제공된 정보에서 확인할 수 없습니다. 다른 전형 유형이나 학과에서는 출결이 반영되지 않는 것으로 보입니다. 자세한 내용은 공식 홈페이지나 입학처에 문의하시는 것이 좋겠습니다. "https://ipsi.deu.ac.kr/main.do" 링크를 참고해보세요.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 물리치료학과의 모집 인원에 대한 명확한 정보를 제공하지 않고 있으며, 원문에서 명시된 "4명을 모집합니다"라는 사실을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 모집 인원이 명확히 언급되었으나, 생성된 응답은 그 정보를 부정하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하지 않으며, 오히려 불필요한 정보(공식 홈페이지 링크 등)를 포함하고 있습니다. 원문에서 요구하는 핵심 정보와는 거리가 멉니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원문과의 불일치로 인해 논리적인 흐름이 약간 손상되었습니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정확한 정보를 왜곡하고 있으며, 물리치료학과의 모집 인원에 대한 사실을 잘못 전달하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 의미를 전달하지 못하고 있으며, 문맥에 맞지 않는 정보가 포함되어 있습니다. 그러나 일부 문장은 의미가 통할 수 있어 점수를 부여했습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있으나, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.7035015120538908</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 물리치료학과에 대한 모집 정보가 제공된 문서 내에서는 언급되지 않았습니다. 따라서 물리치료학과의 정원은 알 수 없습니다. 제공된 정보와는 별개로 가군에서 물리치료학과를 모집하는지 확인하려면 공식 입학 홈페이지인 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 대학 입학처에 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정에 대한 정확한 정보를 제공하고 있으며, 날짜와 관련된 세부사항이 올바르게 반영되어 있습니다. 그러나 모집단위와 종목별 배점에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 과장이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 추가된 정보(모집단위 및 종목별 배점)가 원본 텍스트와 일치하지 않기 때문에 일관성이 떨어집니다. 원본 텍스트에 없는 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다. 추가된 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 문장 구조가 복잡할 수 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본 텍스트와의 연결이 약해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 날짜와 관련된 정보는 정확하지만, 추가된 정보(모집단위 및 종목별 배점)는 원본 텍스트에 명시되어 있지 않으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본 텍스트와의 일관성을 떨어뜨려 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 정보가 추가되어 혼란을 줄 수 있는 점이 있어 완벽한 이해 가능성에는 미치지 못합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.4434199270752367</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+위 정보를 바탕으로, 디자인조형학과의 실기고사 일정은 다음과 같습니다:
+- 날짜: 2024. 01. 17.(수)
+- 모집단위: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+- 종목별 배점(비율): 각 종목이 350점(35%)을 차지합니다.
+추가로, 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저 학력 기준이 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 점을 반복적으로 강조하고 있습니다. 따라서 일관성이 높습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 수능 최저 기준에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.5283213237763029</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준은 없습니다. 위에서 제공된 정보에 따르면, 해당 학과는 수능 위주로 모집하며, 수능 최저 기준이 설정되어 있지 않습니다. 더 자세한 정보를 원하시면 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트에 있는 모든 학과를 정확하게 나열하고 있으며, 추가적인 정보도 포함되어 있지 않으므로 사실성이 매우 높습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일치하며, 모든 정보가 일관되게 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창성이 뛰어납니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 사실적인 정확성이 매우 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7720249934206639</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 심리학과와 스마트항만물류학과, 창업투자경영학과, 라이프융합학부(스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학), 경기지도학과 등이 있습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 전형요소 반영비율에 대한 잘못된 정보를 포함하고 있습니다. '학생부 교과'와 '출결' 항목이 언급되었으나, 원본 텍스트에서는 서류와 면접만 언급되고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 전형요소를 제시하고 있습니다. 원본 텍스트의 정보와 상충하는 내용이 포함되어 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 정보를 제대로 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 어느 정도 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원본 텍스트와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 내용을 포함하고 있어 의미적으로 적절하지 않습니다. 그러나 일부 관련된 내용이 포함되어 있어 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.7238888458214953</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에서는 다음과 같은 비율로 전형요소가 반영됩니다.
+- 학생부 교과: 0%
+- 출결: 70%
+- 서류: 30%
+이러한 비율은 성적 외의 요소 중에서 주요하게 고려되는 부분을 보여주며, 특히 출결의 중요성이 강조되고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시되어 있지만, 생성된 응답에서는 한의예과만 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원본 텍스트의 내용과 생성된 응답의 내용이 상충하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 질문에 답하고 있지만, 원본 텍스트의 주요 내용을 잘못 해석하여 관련성이 떨어집니다. 한의예과에 대한 언급은 있지만, 다른 학과들에 대한 정보는 부정확합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 일관된 흐름이 부족합니다. 가산점이 적용되는 학과에 대한 설명이 혼란스럽습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 한의예과만 언급하는 것은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 품질 차원에서 모두 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 전달하고 있습니다. 한의예과에 대한 언급은 있지만, 다른 학과들에 대한 정보는 부정확하여 의미 전달이 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장 구조를 가지고 있지만, 내용의 정확성 문제로 인해 이해하기 어려운 부분이 있습니다. 원본 텍스트와의 불일치로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.7055265889187734</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 한의예과입니다. 한의예과에서는 수학(미적분 또는 기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+다른 학과들에서는 일반적으로 수능 성적만을 반영하며, 가산점을 적용하지 않습니다. 예를 들어, 인문사회과학대학, 상경대학 모집단위 및 패션디자인학과는 가산점을 적용하지 않으며, 수능 성적만을 반영합니다.
+따라서, 수능 가산점이 적용되는 학과는 한의예과 뿐입니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 성적이 100% 반영된다고 명시된 원문과 상충합니다. 원문에서는 수능 성적이 100% 반영된다고 했지만, 생성된 응답에서는 각 영역이 25%씩 반영된다고 설명하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능 성적이 100% 반영된다고 명시하고 있지만, 생성된 응답은 각 영역의 비율을 다르게 설명하고 있어 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 강조한 100% 반영이라는 핵심 정보를 잘못 전달하고 있습니다. 그럼에도 불구하고 수능 성적 반영에 대한 정보를 제공하고 있어 관련성은 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 나열되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제시한 사실과 다르게 수능 성적의 반영 비율을 잘못 설명하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 원문에서 전달하고자 하는 바와는 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.7375236142807163</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다.
+- **모집단위**: 전 모집단위가 해당됩니다.
+- **수능 반영영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)입니다.
+- **반영영역별 반영비율**: 각 영역이 25%를 차지합니다.
+따라서, 국어, 수학, 영어, 탐구의 각 영역에서 성적을 평가하며, 이들 영역의 점수는 각각 25%씩 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 가군 실기고사 날짜에 대한 정보를 제공하지만, 원본 텍스트에 명시된 날짜(2024년 1월 16일) 외에 추가적인 날짜(2024년 1월 17일)를 포함하고 있어 사실과 다릅니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 가군 실기고사가 1월 16일에 진행된다고 명시하고 있지만, 생성된 응답은 1월 17일에 대한 정보를 추가하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있지만, 추가적인 날짜 정보가 포함되어 있어 약간의 관련성 저하가 있습니다. 그러나 여전히 주제와 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있지만 전반적으로 유창합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 날짜를 나열하고 있어 다소 복잡하게 느껴질 수 있습니다. 원본 텍스트의 단순한 정보에 비해 구조가 복잡해져 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 사실(가군 실기고사 날짜)을 정확히 반영하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 낮은 점수를 받아 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보로 인해 의미가 혼란스러워질 수 있습니다. 따라서 의미 적합성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 여러 날짜가 나열되어 있어 약간의 혼란을 줄 수 있습니다. 그러나 여전히 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.6913508124341782</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같은 날짜에 진행됩니다:
+- 레저스포츠학과와 태권도학과의 실기고사는 2024. 01. 16.(화)입니다.
+- 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과의 실기고사는 2024. 01. 17.(수)입니다.
+이 정보가 도움이 되길 바랍니다. 추가로 궁금한 점이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해 주세요.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과와 경기지도학과를 제외한 다른 학과들을 언급하고 있으며, 이들 학과가 전형료 대상에서 제외된다고 잘못된 정보를 제공합니다. 따라서 사실성과 관련하여 여러 가지 부정확한 내용이 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 전형료 대상에서 제외된 학과 목록이 다릅니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 일부 관련성이 떨어집니다. 그러나 전형료 대상에서 제외된 학과에 대한 언급은 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 따라서 응답의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르며, 잘못된 학과를 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미가 왜곡되었습니다. 따라서 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 구조는 명확합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.7942921316386676</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 전형료 대상에서 제외됩니다. 하지만 이들 학과는 일반적으로 수능(일반학생전형)을 통해 지원이 가능합니다. 
+즉, 2024학년도 동의대학교 나군 수능(일반학생전형)에서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과가 전형료 대상에서 제외되지만, 해당 학과는 여전히 수능(일반학생전형)을 통해 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 일치하며, 수능 최저기준이 적용되지 않는다는 사실을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 추가적인 설명이 원문과 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 수능 최저기준에 대한 정보를 명확하게 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 각 문장이 자연스럽게 이어져 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8272956958756691</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 이는 전형요소 반영비율에서 확인할 수 있습니다. 다군 학생부종합(재직자전형) - 정원외라는 전형명에서도 수능 최저기준이 없음을 알 수 있습니다.
+따라서, 2024학년도 동의대학교의 다군 전형에서는 수능 점수에 대한 최저 기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 대부분의 학과 분리 정보를 정확하게 반영하고 있지만, "디자인공학부"가 "디자인조형학과"로 잘못 표기되었고, "모집중지"라는 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 대체로 일치하지만, 일부 학과의 명칭이 다르게 표현되어 있어 일관성이 떨어집니다. 예를 들어, "부동산금융자산경영학과"가 "부동산금융·자산경영학부"로 변경되었습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 학과 분리 정보에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 표현에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과의 분리 정보를 명확하게 전달하고 있습니다. 그러나 일부 문장 구조가 다소 복잡할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 정보를 정확하게 전달하고 있지만, 몇 가지 세부 사항에서 오류가 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 차이가 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 복잡한 표현이 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.8353519210224325</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과들이 학부에서 학과로 분리되었습니다.
+1. 보육·가정상담학부 → 아동학과
+2. 경제금융보험학부 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학부 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인조형학과(서양화·한국화·환경조형) → 모집중지
+위와 같이 여러 학과들이 분리되었습니다. 더 자세한 정보가 필요하시다면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 원서접수 마감일에 대한 정보는 정확하게 전달되었으나, 추가 정보로 서류 제출 마감일이 포함되어 있어 원래의 질문과는 약간의 차이가 있다. 그러나 주된 사실은 정확하다.
+2. Consistency Score (1-5): 3
+   - 설명: 원서접수 마감일은 일치하지만, 추가된 서류 제출 마감일 정보는 원래의 질문과는 일관성이 떨어진다. 따라서 일관성 점수는 중간 정도로 평가된다.
+3. Relevance Score (1-5): 5
+   - 설명: 원서접수 마감일에 대한 정보는 질문의 핵심 주제와 직접적으로 관련이 있다. 추가 정보도 유용하지만, 질문에 대한 직접적인 답변이므로 높은 점수를 부여한다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없다. 다만, 약간의 어색함이 느껴질 수 있어 완벽한 점수는 주지 않았다.
+5. Coherence Score (1-5): 4
+   - 설명: 전체적으로 논리적인 흐름이 있으며, 정보가 잘 연결되어 있다. 그러나 추가 정보가 포함되어 있어 약간의 일관성 저하가 있다.
+6. Accuracy Score (1-5): 4
+   - 설명: 원서접수 마감일에 대한 정보는 정확하지만, 추가된 서류 제출 마감일 정보는 원래 질문과는 관련이 없으므로 완벽한 정확성은 아니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 여러 차원에서 잘 수행되었으나, 일관성과 정확성에서 약간의 부족함이 있어 중간 이상의 점수를 부여한다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 의미적으로 적절하나, 질문의 맥락에 비해 추가 정보가 포함되어 있어 약간의 부적절함이 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장이나, 추가 정보로 인해 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.6971589625612307</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수(인터넷)의 마감일은 2024. 01. 06.(토) 18시까지입니다.
+추가 정보로, 서류 제출(제출서류가 있는 경우)의 마감일은 2024. 01. 12.(금) 17시까지 도착이어야 합니다.
+원서접수와 서류 제출에 대한 자세한 내용은 입학안내 홈페이지를 참조하시거나, http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com을 방문해보세요.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 학생부종합(성인학습자전형)의 전형 요소 변화에 대한 일부 정보를 제공하지만, 다른 전형들에 대한 정보는 누락되어 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 학생부종합(성인학습자전형)의 전형 요소 변화에 대한 정보를 제공하지만, 전체 전형 변화에 대한 맥락이 부족하여 일관성이 떨어집니다. 점수는 3입니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련이 있지만, 전체 전형 변화에 대한 정보를 다루지 않기 때문에 완전한 관련성은 아닙니다. 점수는 4입니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있습니다. 점수는 5입니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있지만, 전체적인 맥락이 부족하여 완전한 일관성을 제공하지는 않습니다. 점수는 4입니다.
+6. Accuracy Score (1-5): 3
+   - 전형 요소 변화에 대한 정보는 정확하지만, 다른 전형에 대한 정보가 누락되어 있어 정확성 점수는 3입니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 여러 차원에서의 품질이 좋지만, 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다. 점수는 4입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하지만, 전체 맥락을 고려할 때 일부 정보가 부족합니다. 점수는 4입니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 점수는 5입니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.7210891301761965</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형은 학생부종합(성인학습자전형)입니다. 이 전형의 경우, 전형요소 반영비율이 변경되었습니다.
+2023학년도에는 서류 70% + 면접 30%였으나,
+2024학년도에는 서류 60% + 면접 40%로 변경되었습니다.
+이와 같이, 학생부종합(성인학습자전형)에서 서류와 면접의 비율이 조정되었습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보(수능 비중 30%)도 원본의 내용을 보완하는 형태로 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 실기 비중에 대한 추가적인 설명도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.8328517423332159</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다. 이는 전형요소 반영비율에서 실기가 차지하는 비율로, 수능이 30%, 실기가 70%인 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부의 세부 전공에 대한 정보를 제공하지 않고, 오히려 해당 정보가 없다고 주장하고 있습니다. 이는 사실과 완전히 일치하지 않으며, 원본 텍스트의 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 담고 있습니다. 원본 텍스트는 세부 전공의 구성을 명확히 제시하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 세부 전공에 대한 정보를 제공하고 있지만, 생성된 응답은 그 정보를 무시하고 다른 방향으로 이야기하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 제공된 정보에 대한 정확성이 전혀 없습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 적절하지 않은 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절함으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.5721633543063837</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 동의대학교 2024학년도에 신설된 학과 중 라이프융합학부의 세부 전공 구성에 대한 내용이 없습니다. 이와 관련된 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시거나, 동의대학교 입학처에 직접 문의하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 포함하고 있지만, 원본 텍스트에는 '체육학과'가 포함되어 있습니다. 따라서 사실관계에서 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. '체육학과'가 아닌 '태권도학과'가 언급되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으나, 잘못된 학과명이 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, '태권도학과'라는 잘못된 정보가 포함되어 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 실기고사에 대한 요구 사항을 명확히 설명하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '태권도학과'라는 잘못된 정보가 포함되어 있어 정확성이 떨어집니다. 원본 텍스트의 사실과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 중간 정도의 품질을 보이지만, 사실관계와 정확성에서 큰 문제가 있어 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 적절하지만, 잘못된 학과명이 포함되어 있어 의미 전달에 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.7368159990722649</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과에서는 실기고사가 요구되며, 해당 학과에 지원하는 경우 실기고사를 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 정확한 학과 목록을 제공하지 않고, 기계공학과, 로봇자동화공학과, 자동차공학과와 같은 잘못된 정보를 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특정 학과 목록을 제시하고 있지만, 생성된 응답은 전혀 다른 학과를 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 질문에 대한 답변으로서 일부 관련성이 있지만, 제공된 정보가 원본 텍스트와 관련이 없고, 주제에서 벗어난 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 포함하고 있지만, 원본 텍스트의 의미와 맥락에 맞지 않는 정보가 포함되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있지만, 내용의 정확성과 관련성 부족으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.5249058837552597</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 주로 특정 학과에 적용됩니다. 예를 들어, 기계공학과, 로봇자동화공학과, 자동차공학과 등이 해당될 수 있습니다.
+하지만 정확한 학과 목록을 확인하려면 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"를 참조하시거나 대학 관계자에게 문의하시는 것이 좋습니다. 이 웹사이트에서는 최신 정보와 자세한 전형 안내를 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 라이프융합학부에서 제공하는 전공에 대한 정보를 정확하게 반영하고 있으며, 전공의 수와 이름이 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 내용과 학부의 신설에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 일관됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.6661910163167263</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 라이프융합학부에서는 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학 등 세 가지 전공을 제공합니다. 이는 학과 신설로 인해 2024년부터 시작되는 새로운 전공들입니다.
+추가 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 명확히 전달하고 있습니다. 추가적으로 고교 유형에 대한 정보도 포함되어 있어 사실성을 높이고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 원본의 내용과 일치하는 정보를 제공하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 질문에 대한 직접적인 답변을 제공합니다. 모든 정보가 질문과 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.6504893709989531</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교 일반학생전형으로 지원이 가능합니다. 고교유형별 지원 자격에서 볼 수 있듯이, 특수목적고등학교인 과학고, 국제고, 외국어고 등은 모두 지원 자격에 포함되어 있습니다.
+특히, 모집군과 전형명을 확인해보면 다음과 같습니다:
+- 모집군: 가군
+- 전형명: 수능 (일반학생전형)
+이 전형에서는 특수목적고등학교 학생들도 지원할 수 있으며, 해당 고교 유형들은 모두 지원 자격에 포함되어 있습니다.
+따라서, 특수목적고등학교 학생으로서 동의대학교 일반학생전형으로 지원하는 것은 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과라고 명시되어 있지만, 생성된 응답에서는 경기지도학과가 가장 많이 모집된다고 잘못 언급하고 있습니다. 이로 인해 사실과 크게 다르며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원문에서 언급된 학과와 모집 인원에 대한 정보가 생성된 응답에서 전혀 반영되지 않고, 다른 학과에 대한 정보로 대체되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주제와 관련된 핵심 정보를 잘못 전달하고 있습니다. 원문에서 가장 많이 모집하는 학과에 대한 질문에 대해 다른 학과에 대한 정보를 제공함으로써 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원문과의 연결이 부족하여 일관된 논리적 흐름이 부족합니다. 여러 학과에 대한 언급이 있지만, 주제와의 연관성이 떨어져 coherence가 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 사실적으로 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 경기지도학과에 대한 언급은 원문과 전혀 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 일치성이 부족하여 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 원문의 의도와는 다르게 해석될 수 있는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성과 관련성이 떨어져 혼란을 줄 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.5705908911083913</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 확인하기 위해서는 각 학과별 정원을 살펴봐야 합니다. 제공된 정보에 따르면, 나군에서는 경기 실적 우수자 모집이 이루어지며, 이 중에서 가장 많은 인원을 모집하는 학과는 경기지도학과로 7명의 인원이 모집됩니다.
+그러나 전체적으로 가장 많이 모집되는 학과를 결정하기 위해서는 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 등 모든 나군 학과의 정원을 비교해야 합니다. 하지만 현재 제공된 정보에서는 경기지도학과가 가장 많은 인원(7명)을 모집하고 있습니다.
+따라서, 현재 정보로는 경기지도학과가 가장 많이 모집되는 학과라고 추정할 수 있습니다. 그러나 최종 결정을 위해서는 동의대학교의 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 동의대학교에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 완전히 반대로 설명하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 담고 있어 일관성이 전혀 없습니다. 원문에서 명시된 지원 불가 조건을 무시하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 답변을 시도하고 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원문과의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 논리적으로 연결되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 관련성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 이해하기 쉬운 구조로 되어 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.7282356975017311</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교에서 농어촌학생전형을 통해 지원할 수 있습니다. 고교유형별 지원 자격에서 나군 학생부교과(농어촌학생전형)에 따르면 일반고, 자율고, 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고, 특성화고의 특성(직업), 특성화고의 특성(대안), 영재학교, 학력인정고, 방송통신고, 각종학교, 검정고시, 외국고 등 다양한 유형의 고등학교 출신 학생들이 지원 가능합니다.
+따라서, 특수목적고등학교 출신이더라도 동의대학교 농어촌학생전형을 통해 지원할 수 있습니다. 다만, 지원 자격과 관련된 기타 조건이나 제한 사항은 해당 전형의 세부 지침을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 없으며, 원문이 제공하는 정보와는 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 비일관성이 존재합니다. 원문과의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하지 않는 정보를 포함하고 있으며, 이는 명백한 부정확성입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 원문의 맥락과도 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.5623418838365549</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균으로, **377.12**입니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있다고 주장하지만, 원본 텍스트에서는 그러한 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적을 제시하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 평균 성적에 대한 정보가 없음을 알리고 있으며, 생성된 응답은 그와는 전혀 다른 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적입니다. 원본 텍스트와의 연결이 없기 때문에 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으므로, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 매우 낮은 점수를 받습니다. 따라서 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트는 정보가 없음을 알리고 있는데, 생성된 응답은 구체적인 정보를 제공하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5229877234915919</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+이외에도 영어 등급의 평균은 3.30이며, 수능 4개 영역 등급의 평균은 4.12입니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 원본 텍스트에 명시된 내용과 다소 차이가 있습니다. 예를 들어, 최초 합격자 등록 기간이 원본 텍스트에는 포함되어 있지 않으며, 등록 장소에 대한 정보도 추가되었습니다. 이러한 추가 정보는 정확하지 않거나 원본에 명시된 내용과 일치하지 않기 때문에 점수를 낮추었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 내용이 있어 일관성이 떨어집니다. 특히, 최초 합격자 등록 기간과 같은 정보는 원본 텍스트에 없으므로, 이로 인해 일관성이 부족하다고 평가했습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 추가된 정보가 원본 텍스트와 직접적으로 관련이 없기 때문에 완벽한 관련성은 아니라고 판단했습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 자연스러워서 높은 점수를 부여했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 논리적인 흐름이 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있어 완전한 일관성은 아니라고 평가했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 사실을 포함하고 있지만, 추가된 정보가 원본과 일치하지 않기 때문에 정확성 점수를 낮추었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 중간 점수를 부여했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 추가된 정보가 원본의 맥락과 완전히 일치하지 않기 때문에 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되었습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8245981034200441</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 합격자 발표 일정은 다음과 같습니다.
+1. 최초 합격자 발표 및 등록 : 2024년 2월 2일(금) 14:00
+   - 이 날짜에 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+2. 최초 합격자 등록 : 2024년 2월 7일(수) ~ 2024년 2월 13일(화)
+   - 이 기간 동안 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소 역시 학교 지정은행입니다.
+3. 충원 합격자 발표 및 등록 : 
+   - 1차 충원 합격자 발표 : 2024년 2월 14일(수) 09:00
+     - 이 날짜에 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소 역시 학교 지정은행입니다.
+   - 1차 충원 합격자 등록 : 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 이 기간 동안 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소 역시 학교 지정은행입니다.
+   - 2차 충원 합격자 발표 : 2024년 2월 15일(목) 09:00
+     - 이 날짜에 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소 역시 학교 지정은행입니다.
+   - 2차 충원 합격자 등록 : 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 이 기간 동안 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소 역시 학교 지정은행입니다.
+   - 3차 충원 합격자 발표 : 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 이 기간 동안 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소 역시 학교 지정은행입니다.
+   - 3차 충원 합격자 등록 : 개별 전화 통보 시 안내
+이상의 일정을 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언과 예시를 포함하고 있습니다. 원본 텍스트에서 명시된 날짜(2024. 01. 20.)를 언급하지 않아 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 면접 일정에 대한 구체적인 내용을 제공하지 않고 일반적인 정보를 제공합니다. 이는 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변을 시도하지만, 원본 텍스트의 구체적인 정보를 반영하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 점수가 다소 낮아졌습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 면접 일정에 대한 구체적인 사실을 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 원본 텍스트와의 일치성이 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 조언을 제공하지만, 원본 텍스트의 맥락과는 맞지 않기 때문에 점수가 낮아졌습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 적절성 때문에 점수가 다소 낮아졌습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3330418062861347</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>면접고사의 일정은 대체로 입시 공지일이나 학교에서 제공하는 안내에 따라 결정됩니다. 정확한 날짜와 시간은 입학처 또는 관련 홈페이지를 통해 확인해야 합니다. 예를 들어, 일부 대학에서는 면접일을 12월 중순으로 설정할 수 있으며, 이때 해당 일정을 미리 확인하고 준비하는 것이 중요합니다.
+만약 구체적인 정보가 필요하다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시거나, 학교 입학처에 직접 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 잘 반영하고 있지만, "관련 데이터가 포함되어 있지 않거나, 다른 전형 유형에 해당하는 정보만이 주어져 있습니다."라는 부분은 다소 모호하게 느껴질 수 있습니다. 따라서 완전한 정확성은 아니지만, 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, "관련 데이터가 포함되어 있지 않거나"라는 문구는 원본 텍스트의 명확한 진술과 일치하지 않으며, 다소 혼란을 줄 수 있습니다. 이로 인해 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 한의예과의 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있어 완벽한 유창성 점수는 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "관련 데이터가 포함되어 있지 않거나"라는 부분이 다소 혼란을 줄 수 있어 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가적인 정보가 포함되어 있어 정확성 점수가 약간 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문구가 혼란을 줄 수 있어 완전한 이해 가능성 점수는 아닙니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.6003387212586468</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 한의예과의 최저학력 기준을 찾을 수 없습니다. 관련 데이터가 포함되어 있지 않거나, 다른 전형 유형에 해당하는 정보만이 주어져 있습니다.
+더 자세한 정보를 얻으려면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제인 수능 최저학력 기준에 직접적으로 관련되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5992960429082576</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에 따르면, 모든 전형에서 수능최저학력기준이 없습니다. 따라서 정시 전형으로 지원할 때 수능최저학력기준을 충족해야 하는 것은 아닙니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 정보를 포함하고 있지만, 원본 텍스트에 명시된 "3차 이후 충원합격자 발표"에 대한 구체적인 내용이 누락되었고, "등록"에 대한 정보가 추가되어 있습니다. 이로 인해 일부 사실이 왜곡되거나 추가된 정보가 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일치하는 부분이 있지만, "등록"이라는 새로운 정보가 추가되어 원본과의 일관성이 떨어집니다. 또한, "3차 이후 발표"에 대한 언급이 부족하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 "등록" 정보가 원본의 핵심 내용과는 다소 차이가 있어 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 그러나 "등록" 정보가 추가되면서 약간의 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부사항이 누락되었고, 잘못된 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 추가된 정보가 원본의 맥락과 완전히 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.8818679180347817</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원합격자 발표 일정은 다음과 같습니다:
+1. 충원 합격자 1차 (인터넷) 발표: 2024년 2월 14일(수) 09:00
+2. 충원 합격자 1차 (인터넷) 등록: 2024년 2월 14일(수) 09:00~16:00
+3. 충원 합격자 2차 (인터넷) 발표: 2024년 2월 15일(목) 09:00
+4. 충원 합격자 2차 (인터넷) 등록: 2024년 2월 15일(목) 09:00~16:00
+이후에 3차 이후의 발표와 등록은 개별 전화 통보를 통해 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 명확한 정보를 제공하지 않고 있으며, 원본 텍스트에 명시된 날짜와 시간을 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 구체적인 발표 일정을 제공하는 반면, 생성된 응답은 그러한 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 정보인 발표 일정에 대한 언급이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 약간 저해됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해져서 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 발표 일정에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절하며, 원본 텍스트의 맥락과 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있지만, 내용의 부적절함으로 인해 전체적인 이해가 방해받을 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.3857991082804837</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 추가합격자 발표일에 대한 명시가 없습니다. 추가합격자 발표일은 일반적으로 대학마다 다른 날짜를 설정하므로, 정확한 일정을 확인하기 위해서는 해당 대학의 공식 웹사이트(https://ipsi. deu. ac. kr/main. do) 또는 입학처와 직접 연락하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 수시모집 등록자의 결원에 대한 정보와 정시 일반학생전형의 추가 모집에 대한 내용을 잘못 해석하고 있습니다. 원문에서는 정시모집의 결원에 대해 언급하고 있지만, 생성된 응답은 나군 학생부종합전형에 대한 정보만을 제공하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문은 정시모집에 대한 내용을 다루고 있지만, 생성된 응답은 나군 학생부종합전형에 대한 정보로 일관성이 부족합니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 주된 내용이 아닌 나군 학생부종합전형에 대한 정보로 인해 관련성이 떨어집니다. 원문에서 다루고 있는 추가 모집에 대한 정보가 부족합니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결이 약해 전체적인 일관성이 떨어집니다. 나군 학생부종합전형에 대한 설명이 원문과의 연관성을 약화시킵니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 다르게 해석하고 있으며, 사실관계에 대한 정확성이 부족합니다. 원문에서 언급된 정시모집의 추가 모집에 대한 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 사실성, 일관성, 관련성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 나군 학생부종합전형에 대한 정보가 주를 이루어 원문의 의미와 다소 어긋납니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4966653022370487</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로 보면, 현재 나군 학생부종합전형에서 추가 모집이 이루어지고 있지 않습니다. 
+나군 학생부종합전형은 평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형 등으로 구성되어 있으며, 각 전형별로 정해진 모집인원과 모집단위가 있습니다. 
+따라서 추가모집이 이루어질 경우를 제외하고는 현재 정보에서는 추가 모집이 없는 것으로 보입니다.
+만약 추가 모집에 대한 자세한 정보가 필요하시다면, 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 가장 정확할 것입니다. 
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 를 참조해 보시거나, 직접 입학처에 문의하시면 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 농어촌 전형에 대한 정보를 제공하고 있습니다. 이는 주제와 관련이 없으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 전형에 대한 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1  
+   - 생성된 응답은 평생학습자전형에 대한 질문에 대해 농어촌 전형에 대한 정보를 제공하고 있어 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4  
+   - 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 잘못되어 있어 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 전반적으로 모든 품질 차원에서 매우 낮은 점수를 받으며, 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4  
+   - 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용이 잘못되어 있어 전체적인 이해에는 문제가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6972385777385809</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형은 나군에서 다양한 지원자를 대상으로 하는 전형 중 하나입니다. 주요 특징과 절차는 다음과 같습니다:
+1. **지원 자격**: 
+   - **6년 과정**: 농어촌 지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 동안 본인 및 부모가 농어촌 지역에 거주한 자.
+   - **12년 과정**: 초·중·고등학교 전 과정을 농어촌 지역 소재 학교에서 이수하고 거주한 자.
+2. **제출 서류**:
+   - 지원자 본인의 가족관계증명서
+   - 주민등록초본 (6년 과정은 3부, 12년 과정은 1부)
+   - 중학교 학교생활기록부 
+   - 고등학교 학교생활기록부
+3. **최종 등록자 추가 제출 서류**:
+   - 고교 졸업증명서 (6년 과정만 필요)
+4. **평가 요소 및 비율**:
+   - **서류 평가**: 70%
+     - 공동체역량, 학업역량, 전공적합성
+   - **면접 평가**: 30%
+5. **최종 등록자 추가 평가 기준**:
+   - 서류평가의 공동체역량, 학업역량, 전공적합성 영역에서 성적이 상위자인 경우 우선적으로 선발됩니다.
+6. **모집 단과대학 및 계열**:
+   - 미래융합대학 (라이프융합학부, 부동산자산경영학부 등)
+7. **모집 인원**:
+   - 11명 (라이프융합학부), 23명 (부동산자산경영학부), 7명 (각 학과별로 다름)
+이러한 절차와 요구 사항을 참고하여 평생학습자전형에 지원할 수 있습니다. 자세한 내용은 공식 웹사이트를 참조하시기 바랍니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 세부사항을 제공하고 있지만, 원본 텍스트에서 언급된 "고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자"라는 지원자격을 전혀 반영하지 않고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 지원자격과 생성된 응답의 내용이 상충하므로 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 평생학습자전형에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 지원자격에 대한 정보는 포함되어 있지 않습니다. 따라서 관련성 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 세부사항을 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 평생학습자전형에 대한 정보를 제공하지만, 원본 텍스트의 의미와는 다르게 해석될 수 있습니다. 따라서 의미 적합성 점수는 2입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으며, 명확하게 작성되었습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.5856760277177736</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형 지원자격에 대한 세부사항을 확인해보겠습니다.
+- **산업체 적용범위**:
+  - 국가·지방자치단체 및 공공단체(소속 직원의 경우)
+  - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+  - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+    - 단, 4대 보험 가입대상 사업체가 아닌 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서 확인을 통해 인정할 수 있음
+- **재직기간 산정**:
+  - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+  - 재직기간은 제출한 지원자격 증빙서류 상으로 증명되는 기간만 산정
+  - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+  - 군 의무복무 경력도 재직기간으로 인정함
+이러한 지원자격을 충족하면 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않으며, 실기 준비에 대한 내용으로만 구성되어 있습니다. 따라서 사실성과 관련하여 매우 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 실기고사 대기실 및 입실시간에 대한 정보가 없고, 다른 주제에 대한 내용으로 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성 점수는 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 점수를 다소 낮게 평가합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 주제와 관련이 없습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 주제와의 관련성이 없기 때문에 점수를 다소 낮게 평가합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3761269468814367</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사는 계열과 모집단위에 따라 다르게 준비해야 합니다. 예를 들어, 디자인조형학과의 시각디자인/산업디자인/공예디자인에서는 기초디자인을 준비하며, 체육학과에서는 제자리 멀리뛰기나 메디신볼 던지기 등의 실기를 치릅니다. 구체적인 준비물이나 주제는 해당 모집단위의 공지사항을 참고하시거나, 대학 입학처 웹사이트를 확인해보시는 것이 좋습니다.
+특히 디자인조형학과의 경우, 기초디자인을 준비해야 하며, 실기주제는 당일 추첨으로 결정됩니다. 따라서 구체적인 주제와 시간 등을 미리 알고 준비하는 것이 중요합니다.
+메디신볼 던지기나 제자리 멀리뛰기는 특정 운동 능력을 요구하므로, 해당 운동을 꾸준히 연습해두시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 포함되어 있지 않으며, 실기종목에 대한 정보는 제공하지만, 원본 텍스트의 핵심 정보를 누락하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 입실시간과 대기실에 대한 정보를 제공하는 반면, 생성된 응답은 실기종목에 대한 정보만을 다루고 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 주제인 대기실 및 입실시간에 대한 정보는 포함되어 있지 않아 관련성이 떨어집니다. 그러나 실기종목에 대한 정보는 관련성이 있으므로 중간 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 따라서 일관성 점수는 높습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 실기종목에 대한 점수 정보를 제공하지만, 원본 텍스트의 핵심 정보인 대기실 및 입실시간에 대한 정보가 누락되어 있어 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미 적합성 점수는 중간입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3106579200226556</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 진행됩니다:
+1. **모집단위**: 체육학과입니다.
+2. **실기종목**:
+   - **제자리 멀리뛰기**: 이는 240점(24%)을 배점받습니다.
+   - **메디신볼 던지기**: 이는 243점(23%)을 배점받습니다.
+   - **Z-런**: 이는 230점(23%)을 배점받습니다.
+따라서, 체육학과의 실기고사는 제자리 멀리뛰기, 메디신볼 던지기, Z-런 중에서 선택하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표가 전화로 개별 연락을 하지 않는다는 원문 내용을 완전히 무시하고 있으며, 잘못된 정보를 제공하고 있습니다. 특히, "2024년 2월 15일 오후 7시 이후로 수시 충원 합격자 발표가 이루어집니다"라는 내용은 원문에 명시된 사실과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공하고 있어 일관성이 전혀 없습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시하고 있는데, 생성된 응답에서는 전화 통보를 받을 수 있다고 언급하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 주제와의 관련성이 낮습니다. 원문에서 강조하는 내용과는 다르게, 잘못된 날짜와 전화 통보에 대한 언급이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 품질은 낮아집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 일관되지만, 원문과의 내용 불일치로 인해 전체적인 논리적 흐름이 약해집니다. 원문과의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 사실이 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 부정적입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 제공하고 있습니다. 따라서 의미적 적절성 점수는 매우 낮습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.7122314004506961</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일 오후 7시 이후로 수시 충원 합격자 발표가 이루어집니다. 이 시점 이후에 개별적으로 전화 통보를 받을 수도 있습니다. 하지만 정확한 일정은 아직 공지되지 않았으므로, 입학 안내 홈페이지에서 최신 정보를 확인하는 것이 좋습니다.
+입학 안내 홈페이지에서는 합격자 발표 및 등록금 납부 일정 등을 확인할 수 있으니 주시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수시모집 결과에 대한 정보가 포함되어 있지 않다는 점을 잘 전달하고 있습니다. 그러나 "대학 입학 안내 홈페이지에서 최신 정보를 확인하시기 바랍니다"라는 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 수시모집 결과에 대한 정보가 없다는 점에서 일치하지만, 추가적인 웹사이트 방문 제안이 원본 텍스트와는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수시모집 결과에 대한 정보가 없다는 점을 명확히 하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "ipsi. deu. ac. kr"의 점이 띄어져 있는 부분은 약간의 어색함을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따르고 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 명시되어 있지 않기 때문에 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의도와 다소 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8331378267778526</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 문서 내에서는 언급되어 있지 않습니다. 관련 정보를 찾기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시거나, 대학 입학 안내 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않은 학생도 지원이 가능하다고 주장하고 있지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능에 응시하지 않은 학생도 지원이 가능하다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문 질문에 대한 답변을 제공하려고 하지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만, 그 내용이 부정확하여 적절한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원문과의 불일치로 인해 논리적인 흐름이 약간 깨집니다. 그러나 각 문장 간의 연결은 비교적 잘 이루어져 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 완전히 다르며, 문맥에 맞지 않는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.4332869735386763</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024학년도에 수능 응시하지 않은 학생도 지원이 가능합니다. 예를 들어, 특정 전형에서는 학생부 종합 평가를 통해 지원을 받을 수 있습니다. 또한, 실기/실적 위주 전형에서도 서류 및 면접 등을 통해 지원할 수 있는 경우가 있습니다.
+특히, 2024학년도에는 다음과 같은 변경사항들이 이루어졌습니다:
+- 학생부 종합 평가를 통한 지원이 확대되었습니다.
+- 실기/실적 위주 전형에서도 서류 및 면접 등을 통해 지원할 수 있는 경우가 있습니다.
+따라서, 정시에 수능 응시하지 않아도 다양한 방식으로 지원 가능합니다. 하지만 구체적인 지원 가능한 전형과 방법은 해당 대학의 공지사항을 확인하시거나 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지났더라도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 특히, "정시 지원은 불가능하다"는 주장은 원문과 명백히 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 정보를 제공하고 있습니다. 원문에서는 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답에서는 정시 지원이 불가능하다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원문에서 제시한 정보와는 다른 전형에 대한 설명이 포함되어 있어 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 주제 전환이 자연스럽지 않게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 정반대의 내용을 담고 있어 정확성이 매우 낮습니다. 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과는 다른 의미를 전달하고 있으며, 원문의 맥락과 맞지 않는 내용을 포함하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.640663968454504</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024년 나군 학생부교과(농어촌학생전형)나, 나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)에서는 정시 지원이 가능하지 않습니다. 
+- **학생부교과(농어촌학생전형)**: 고등학교 졸업 후 6년 이내에 농어촌 지역에서 중고등학교를 다닌 자만 지원할 수 있습니다.
+- **학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**: 재직자 전형의 경우 2024년 기준으로 총 재직기간이 3년 이상이어야 하며, 이는 고등학교 졸업 후 10년이 지났다면 지원 자격에 해당하지 않습니다.
+따라서, 고등학교 졸업한지 10년이 지났다면 정시 지원은 불가능합니다. 다른 전형이나 대학을 찾아보시는 것이 좋겠습니다. 더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 핵심 사항을 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7318296938677759</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집일정을 요약하면 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)에 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수)부터 6일 (토)까지 원서를 접수하며, 마감시간은 각 모집단위별로 다릅니다. 
+   - 예술디자인체육대학 경기지도학과는 18시까지,
+   - 패션디자인학과 교직은 18시까지.
+3. **서류 제출**: 2024년 1월 3일 (수)부터 12일 (금)까지 서류를 제출하며, 마감시간은 17시까지입니다.
+   - 서류 제출 대상: 전형별 세부 안내 참조
+   - 제출 방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송.
+4. **실기고사**:
+   - 레저스포츠학과 (제자리 멀리뛰기, Z-런): 2024년 1월 16일 (화)에 실시되며, 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 확인 가능합니다.
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024년 1월 17일 (수)에 실시되며, 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14:00 이후 입학안내 홈페이지에서 확인 가능합니다.
+5. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표 및 등록금 납부: 2024년 2월 2일 (금) 14:00에 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일 (수)부터 13일 (화)까지 (은행마감시간 내)에 등록금을 납부하고, 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 충원 합격자 발표 및 등록: 2024년 2월 14일 (수)와 15일 (목)에 각각 9시부터 16시까지, 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 충원 합격자 3차 이후 발표 및 등록: 2024년 2월 15일 (목) 19시부터 20일 (화) 18시까지 개별 전화 통보를 통해 발표되며, 각각의 일정에 따라 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+이상이 동의대학교 정시 모집일정입니다. 자세한 내용은 공고된 일정과 입학안내 홈페이지를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 포인트를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8954103609032594</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정을 살펴보겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화)에 이루어집니다.
+   - 이는 입학 안내 홈페이지에서 공지됩니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지 접수되며, 마감 시간은 각각의 일정에 따라 18시까지입니다.
+   - 원서접수 사이트는 http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com을 통해 가능합니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일(수)부터 12일(금)까지 접수되며, 마감 시간은 각각의 일정에 따라 17시까지입니다.
+   - 서류 제출 대상과 방법은 입학 안내 홈페이지에서 확인할 수 있습니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)에 실시되며, 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)에 실시되며, 대기실 및 입실 시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학 안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부 (최초 합격자 발표)**: 2024년 2월 2일(금) 오후 2시에 이루어집니다.
+   - 이는 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+7. **합격자 발표 및 등록금 납부 (최초 합격자 등록)**: 2024년 2월 7일(수)부터 13일(화)까지, 은행 마감 시간 내에 이루어집니다.
+   - 이는 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+8. **충원 합격자 발표 및 등록 (1차)**: 2024년 2월 14일(수) 오전 9시에 이루어집니다.
+   - 이는 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+9. **충원 합격자 발표 및 등록 (1차)**: 2024년 2월 15일(목) 오전 9시에 이루어집니다.
+   - 이는 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+10. **충원 합격자 발표 및 등록 (3차 이후)**: 2024년 2월 15일(목) 오후 7시부터 20일(화) 오후 6시까지 개별 전화 통보가 이루어집니다.
+    - 이는 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+이러한 일정을 참고하여 정시 모집에 참여하시기 바랍니다. 추가 정보나 자세한 사항은 입학 안내 홈페이지를 참조하시거나, 입학관리팀으로 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 미응시자가 지원 가능한 전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서는 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 원본 텍스트와 상충하는 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 수능 미응시자가 지원할 수 있는 전형을 나열하고 있습니다. 이는 원본 텍스트의 내용과 정면으로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 수능 미응시자에 대한 전형을 설명하고 있지만, 원본 텍스트의 핵심 내용인 수능 미응시자는 지원이 불가능하다는 점을 무시하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형을 나열하고 있지만, 원본 텍스트의 주제와 일치하지 않기 때문에 일관성이 떨어집니다. 그러나 각 전형에 대한 설명은 논리적으로 연결되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 상반되는 정보를 제공하고 있습니다. 수능 미응시자는 지원이 불가능하다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 수능 미응시자에 대한 전형을 설명하고 있지만, 원본 텍스트의 의미와 맥락을 무시하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조로 되어 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.7163054714899582</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 다음과 같습니다.
+1. **수능 (일반학생전형)**
+   - **가군**: 수능 성적 반영 없이 서류 및 면접으로 평가
+   - **나군**: 수능 성적 반영 없이 서류 및 면접으로 평가
+2. **실기/실적 (일반학생전형)**
+   - **가군**: 실기와 실적이 주요 평가 대상이며, 수능 성적은 반영되지 않습니다.
+3. **학생부종합(성인학습자(정원내)전형)**
+   - **나군**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다. 수능 성적은 반영되지 않습니다.
+4. **학생부종합(성인학습자(정원외)전형)**
+   - **나군**: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 합니다. 수능 성적은 반영되지 않습니다.
+5. **학생부종합(조기취업형계약학과전형)**
+   - **나군**: 서류와 면접을 통해 평가되며, 수능 성적은 반영되지 않습니다.
+이러한 전형들은 주로 실기/실적이거나 학생부 교과성적이 주요 평가 대상이므로 수능 미응시자도 지원 가능합니다. 자세한 내용은 동의대학교 입학처 웹사이트를 참조하시기 바랍니다. [https://ipsi. deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 전자공학과의 충원 합격 수를 34명으로 잘못 기재하였으며, 이는 원본 텍스트의 36명과 상충합니다. 또한, 충원 합격 차수에 대한 정보가 없다는 원본의 내용을 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공하고 있습니다. 원본에서는 충원 합격 차수에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 1차와 2차의 충원 합격 수를 제시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 충원 합격 차수에 대한 정보가 없다는 점을 간과하고 있습니다. 따라서 관련성은 있지만, 원본의 주요 포인트를 놓치고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 충원 합격 수치가 잘못 기재되어 있으며, 원본의 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 매우 낮은 점수를 받고 있으며, 원본 텍스트와의 관계가 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본의 의미와 맥락을 잘못 전달하고 있으며, 충원 합격 차수에 대한 정보가 없다는 점을 간과하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.7700697588710104</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위에서 전자공학과의 경우, 충원 합격(1차)은 34명이었고, 충원 합격(2차)은 34명으로 이루어졌습니다. 따라서 전자공학과의 충원 합격은 1차와 2차 모두에서 동일한 수인 34명이었습니다.
+만약 이 정보가 잘못되었다면, 공식 웹사이트를 참조해보시는 것이 좋겠습니다: &lt;https://ipsi.deu.ac.kr/main.do&gt;</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 제공된 정보와 상반되는 내용을 포함하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 명확한 전화번호를 제공하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 전화번호에 대한 질문에 대한 직접적인 답변이 아니며, 관련 정보가 부족합니다. 그러나 웹사이트 링크를 언급하여 일부 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전화번호에 대한 정보가 전혀 포함되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전화번호에 대한 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 한국어 사용자에게는 불명확한 정보로 인해 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.5749974326998282</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。如果需要这个信息，建议访问东义大学官网或者直接联系学校的招生办公室获取准确的联系方式。更多信息可以参考“https://ipsi. deu. ac. kr/main. do”以获得最新数据。</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않을 경우 학생이 홈페이지에서 합격 여부를 확인할 수 있다고 언급하고 있지만, 원본 텍스트에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주된다고 명시하고 있습니다. 따라서 사실관계에 여러 가지 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시하고 있지만, 생성된 응답은 홈페이지에서 합격 여부를 확인할 수 있다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 핵심 내용을 잘못 해석하고 있습니다. 전화 통화가 되지 않을 경우의 처리 방식에 대한 정보는 포함되어 있으나, 원본의 중요한 사실을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관계에서 일관성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 전달하고 있으며, 전화 통화가 되지 않을 경우의 처리 방식에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 중요한 사실을 잘못 해석하여 의미 전달이 부정확합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관계에서 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.479041014164639</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면, 해당 학생은 홈페이지에서 개별 조회를 통해 합격 여부를 확인할 수 있습니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능하며, 등록장소는 학교 지정은행(등록금 고지서에 기재된 것)으로 처리됩니다.
+따라서 전화 통화가 되지 않더라도 합격 여부와 관련된 정보를 홈페이지 및 고지서를 통해 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있으나, "최종 등록자 추가 제출서류" 부분에서 고교 졸업증명서가 언급되었으나 원본 텍스트에는 해당 내용이 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일치하지만, "최종 등록자 추가 제출서류" 부분에서 원본에 없는 정보를 추가하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 명확하게 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 잘 반영하고 있으나, 일부 추가된 정보가 원본에 없기 때문에 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 왜곡할 수 있는 가능성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 일부 추가된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7538134225003809</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야하는 서류는 다음과 같습니다.
+1. **6년 과정**:
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+2. **12년 과정**:
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+3. **최종 등록자 추가 제출서류**:
+   - 고교 졸업증명서
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부) 또는 고교 졸업증명서, 지원자 본인의 주민등록초본 1부
+이러한 서류들은 지원 자격과 입학사정을 확인하기 위한 것이며, 정확한 내용은 해당 대학의 공식 웹사이트를 통해 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 서류 목록을 정확하게 반영하고 있지만, '6년과정' 서류에 대한 언급은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, '6년과정' 서류에 대한 추가 정보는 원본과 일치하지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 필요한 서류에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, '6년과정' 서류에 대한 언급이 원본 텍스트에 없으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본과 일치하지 않으므로 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8097851662259825</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정으로 지원 시 다음과 같은 서류가 필요합니다.
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이 외에, 중·고등학교 재학 시 부모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류를 제출할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 기회균등 전형에 대한 정보가 제공되지 않았다고 언급했지만, 저소득 기회균등 전형의 일반적인 특징을 설명하고 있습니다. 그러나 원본 텍스트에서는 기회균등 전형이 존재하지 않는다고 명확히 언급하고 있어, 이 부분에서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 기회균등 전형이 존재하지 않는다고 명시하고 있지만, 생성된 응답은 저소득 기회균등 전형의 특징을 설명하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 저소득 기회균등 전형에 대한 일반적인 정보를 제공하고 있으나, 원본 텍스트의 주제와는 다소 벗어나 있습니다. 그러나 여전히 관련된 주제를 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 다소 부족합니다. 기회균등 전형이 존재하지 않는다는 점을 명확히 하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 원본 텍스트의 사실을 무시하고 저소득 기회균등 전형에 대한 정보를 제공하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 원본 텍스트와의 불일치가 나타나며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 저소득 기회균등 전형에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 맞지 않아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.5547627453366049</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2023년 정시모집에서 저소득 기회균등 전형에 대한 정보는 제공된 문맥에서 직접적으로 언급되지 않았습니다. 일반적으로 저소득 기회균등 전형은 다음과 같은 특징을 가집니다:
+1. 지원 자격: 주로 국가보조금 수혜자, 저소득층 등으로 구성됩니다.
+2. 모집 인원 및 단과대학: 각 대학마다 정해진 인원이 있으며, 해당 단과대학에 따라 달라질 수 있습니다.
+3. 평가 요인: 서류평가와 면접평가를 통해 지원자의 학업역량, 전공적합성 등을 종합적으로 평가합니다.
+하지만, 제공된 문맥은 고교유형별 지원자격과 관련된 정보를 주로 다루고 있어 저소득 기회균등 전형에 대한 구체적인 내용을 알기 위해서는 대학의 공식 홈페이지나 입학처와 직접 확인하는 것이 가장 정확합니다. 더 자세한 정보를 원하시면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시거나, 해당 대학의 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있지만, 생성된 응답은 2.5등급이 절사되지 않고 평균산출된다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충하는 내용을 포함하고 있습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 절사하지 않는다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 있지만, 원문이 제공하는 정보와는 다르게 해석하고 있습니다. 원문이 요구하는 정보에 대한 직접적인 답변이 아닌, 잘못된 해석을 바탕으로 한 내용이므로 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않기 때문에 점수가 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상반되는 내용을 포함하고 있어 정확성 점수가 매우 낮습니다. 원문에서 명시된 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 원문과의 관계가 부정확하여 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 부족합니다. 원문이 제공하는 정보와는 다른 해석을 하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.7178200739925938</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나오더라도 절사하지 않고 그대로 2.5 등급으로 평균산출합니다. 수능 최저등급에서 사탐 2 과목의 평균산출은 정확한 등급을 반영하므로 2.5 등급도 포함하여 평균산출이 이루어집니다.
+만약 국어, 수학, 영어 등 다른 영역에서도 각각 2.5등급이 나온다면, 그 평균치를 구하는 과정에서 2.5등급이 반영됩니다. 따라서 전체적으로 보면 2.5등급은 포함되어 평균산출에 반영될 것입니다.
+만일 자세한 내용이나 추가적인 문의가 있다면 "https://ipsi.deu.ac.kr/main.do"를 참조하시거나 학교 입학사정관에게 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "정시 충원 합격자 발표는 총 4차로 이루어집니다."라고 잘못된 정보를 제공하고 있습니다. 원본 텍스트에 따르면 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 진행됩니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 4차 발표가 있다고 언급했지만, 원본 텍스트에서는 3차까지만 언급되고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있지만, 잘못된 정보가 포함되어 있어 일부 관련성이 떨어집니다. 그러나 발표 일정에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 4차 발표에 대한 언급이 혼란을 초래합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 4차 발표에 대한 언급은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 적절성 점수가 낮아집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 구조는 명확합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8304171734904977</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 4차로 이루어집니다.
+1. **1차 발표**: 2024년 2월 14일(수) 09:00에 이루어집니다.
+2. **1차 등록**: 2024년 2월 14일(수) 09:00~16:00까지 이루어집니다.
+3. **2차 발표**: 2024년 2월 15일(목) 09:00에 이루어집니다.
+4. **2차 등록**: 2024년 2월 15일(목) 09:00~16:00까지 이루어집니다.
+이후에는 3차 이후의 발표가 있습니다. 이는 개별 전화 통보를 통해 이루어지며, 일정은 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지입니다.
+따라서 정시 충원 합격자 발표는 총 4차로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e-비즈니스학과의 정시 전형에 대한 구체적인 정보를 제공하지 않으며, 수능 성적이 4.6일 경우 추가 합격 가능성이 있다고 언급하지만, 이는 명확한 근거 없이 일반적인 가능성에 대한 언급으로 보입니다. 따라서 일부 사실은 포함되어 있으나, 정확한 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 추가 합격 가능성에 대한 언급이 원본 텍스트의 내용과 다소 상충하는 부분이 있습니다. 예를 들어, 모집 인원이나 전형 요소에 대한 정보가 부족하다는 점에서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e-비즈니스학과의 정시 전형에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 수치나 평균 점수에 대한 언급이 부족하여 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 정보와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적이 4.6일 경우의 가능성을 언급하지만, 구체적인 수치나 기준에 대한 정보가 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 정보의 정확성과 일관성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원본 텍스트의 구체적인 수치와 비교할 때 다소 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어질 경우 이해하는 데 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5478432219521538</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 e비즈니스학과의 정시 전형에 대한 자세한 내용을 알 수 없습니다. e비즈니스학과의 모집인원, 전형요소 반영 비율 등 추가 정보가 필요합니다.
+다군 수능(일반학생전형)에서 e비즈니스학과는 28명을 모집하며, 수능 성적만 반영하는 전형입니다. 따라서 수능 성적이 4.6이면, 정시 전형으로 추가 합격 가능할 가능성은 있습니다.
+하지만 확실한 답변을 위해서는 다음과 같은 정보를 확인해야 합니다:
+1. e비즈니스학과의 수능 최저 점수
+2. 다른 전형 요소(예: 실기, 서류 등)에 대한 반영 비율
+3. 동점자 처리 기준
+이러한 정보를 확인하시고, 필요하다면 대학 입학처에 문의하시는 것이 좋습니다.
+더 자세한 내용을 원하신다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급과 수능 4개 영역 등급에 대한 정보를 잘못 제시하고 있습니다. 원본 텍스트에서는 영어 등급 평균이 3.66이고 수능 4개 영역 등급 평균이 4.53이라고 명시되어 있지만, 생성된 응답에서는 영어 등급 평균이 4.70, 수능 4개 영역 등급 평균이 5.59로 잘못 기재되어 있습니다. 이러한 오류로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 정시 등급 5.3이 e비즈니스학과에 합격하기 어려울 수 있다고 명시하고 있지만, 생성된 응답에서는 정시 등급 5.3이면 합격 가능성이 상당히 높다고 주장하고 있습니다. 이러한 상반된 주장은 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 경쟁률, 평균 점수 등을 다루고 있어 원본 텍스트의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 질문인 정시 등급 5.3의 합격 가능성에 대한 직접적인 답변이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 정시 등급 5.3에 대한 결론이 원본 텍스트와 상충하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 특히, 평균 점수와 관련된 정보가 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다. 관련성은 어느 정도 있지만, 다른 차원에서의 부족함이 전체 점수를 낮추고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 정보의 오류로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6496540557778459</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 경쟁률은 1.21이며, 충원 합격자는 21명입니다. 이는 상대적으로 낮은 경쟁률을 보여주고 있습니다.
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 276.61이며, 표준 편차는 19.76입니다. 이에 비해 정시 등급 5.3의 경우, 수능 점수가 상대적으로 낮을 가능성이 높습니다.
+영어 등급의 평균은 4.70이며, 영어 등급의 표준 편차는 1.00입니다. 이 역시 정시 등급 5.3에 비해 낮을 수 있습니다.
+수능 4개 영역 등급의 평균은 5.59이며, 표준 편차는 0.51입니다. 이 역시 정시 등급 5.3에 비해 낮을 가능성이 높습니다.
+따라서, 정시 등급 5.3이면 동의대학교 e비즈니스학과에 최초 합격 가능성은 상당히 높다고 볼 수 있습니다. 하지만 확실한 것은 아니며, 실제 수능 점수가 결정적인 역할을 합니다.
+만약 더 자세한 정보가 필요하다면, https://ipsi. deu. ac. kr/main. do를 참조해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 38번 학생의 합격 가능성에 대한 정보를 제공하지만, 모집인원과 전형요소 반영 비율에 대한 정보는 원본 텍스트에 명시되어 있지 않습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있으나, 생성된 응답은 추가적인 정보가 필요하다고 하여 모호한 결론을 내리고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 예비 38번의 합격 가능성에 대한 명확한 결론을 제시하지 않고 있습니다. 원본 텍스트는 합격 가능성이 낮다고 명시하고 있으나, 생성된 응답은 그 가능성을 높일 수 있는 조건을 제시하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 38번 학생의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 합격 가능성이 낮다는 점을 간과하고 있습니다. 따라서 관련성은 높지만 완전하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트의 결론과 다소 상충하는 점이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 다소 상충하는 내용을 포함하고 있습니다. 예를 들어, 모집인원과 전형요소 반영 비율에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 예비 38번의 합격 가능성에 대한 결론이 모호합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 정보의 정확성과 일관성에서 부족함이 있으며, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락과 관련된 의미를 전달하고 있으나, 예비 38번의 합격 가능성에 대한 결론이 원본 텍스트와 다소 상충하여 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.701477599068302</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>38번 학생이 e비즈니스학과에 예비합격 가능한지 판단하기 위해서는 다음과 같은 정보가 필요합니다:
+1. **모집인원**: e비즈니스학과의 모집인원은 28명입니다.
+2. **현재 지원자 수**: 현재까지 지원한 학생들의 수와 그들 중에서 예비합격자가 몇 명인지 확인해야 합니다.
+3. **전형요소 반영 비율**: e비즈니스학과의 전형요소 반영 비율은 수능 100%입니다.
+현재 정보만으로는 정확한 판단이 어렵습니다. 현재까지 지원한 학생들의 수와 그들 중에서 예비합격자가 몇 명인지 확인해야 합니다. 만약 현재까지 지원한 학생들이 모집인원을 초과하지 않고, 이정도 점수의 학생이 예비합격 가능한 위치에 있다면 예비합격 가능성이 있습니다.
+추가 정보를 얻기 위해서는 입학처 웹사이트나 관련 공지사항을 확인하거나 직접 입학처와 연락하여 자세한 상황을 문의하는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주요 사실을 잘 반영하고 있습니다. 그러나 일부 세부사항(예: 모집 인원, 전형 성적 산출 방법 등)은 원본 텍스트에 명시되어 있지 않으므로 완전한 일치는 아닙니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 추가된 정보(모집 인원, 전형 성적 산출 방법 등)가 원본 텍스트와의 일관성을 떨어뜨립니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 매우 높은 관련성을 가지고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 추가 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가된 정보도 일반적으로 정확합니다. 그러나 원본 텍스트에 없는 세부사항이 포함되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 사실성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 추가된 정보가 원본의 맥락과 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6570371643667787</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 합격할 확률은 상당히 낮습니다. 동의대학교 간호학과의 정원 내 모집 인원이 110명이며, 수능 전형성적 산출방법은 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수입니다. 이에 따라 높은 점수를 요구하는 경향이 있습니다.
+하지만 정확한 합격 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **성적 평균**: 동의대학교 간호학과의 성적 평균을 확인해보세요.
+2. **입학사정관 제출**: 입학사정관 제출이 가능하다면 이를 활용하여 합격 가능성 높일 수 있습니다.
+3. **추천서 및 자기소개서**: 강력한 추천서와 자기소개서를 준비하면 도움이 될 수 있습니다.
+현재의 성적 3.44로는 낮은 확률을 가지고 있지만, 추가적인 지원 자료들을 잘 활용한다면 합격 가능성도 높일 수 있을 것입니다. 
+추가 정보나 자세한 조언이 필요하시다면 https://ipsi. deu. ac. kr/main. do를 참조해보시거나 동의대학교 입학처에 문의하시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 평균 등급과 관련된 정보를 잘못 해석하고 있습니다. 원문에서는 2.52의 성적이 평균 등급보다 높다고 언급했으나, 생성된 응답에서는 이 성적이 낮다고 판단하고 있습니다. 또한, 경쟁률과 모집 인원에 대한 정보는 제공되었지만, 원문에서 제시된 합격 가능성에 대한 긍정적인 해석과는 상반된 내용을 담고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 2.52의 성적이 합격 가능성이 높다고 했으나, 생성된 응답에서는 반대로 최종합격이 어렵다고 주장하고 있습니다. 이러한 상반된 주장은 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 다룬 주제와 관련이 있지만, 원문에서 제시된 긍정적인 가능성을 간과하고 부정적인 측면에만 초점을 맞추고 있습니다. 그러나 경쟁률과 전형 요소에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원문과의 상반된 주장은 전체적인 일관성을 해칠 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 사실관계가 맞지 않습니다. 2.52의 성적이 평균보다 높다는 원문의 주장을 무시하고, 반대로 낮다고 판단하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 사실관계와 일관성에서 큰 문제를 보이고 있습니다. 전반적으로 낮은 품질을 나타냅니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 다소 다르게 해석되고 있으며, 원문에서 제시된 긍정적인 가능성을 간과하고 있습니다. 그러나 전반적으로 주제와 관련된 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 원문과의 상반된 주장은 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.5766537527414124</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 성적을 가지고 동의대학교 간호학과에 최종합격하기는 어렵다고 판단됩니다. 동의대학교 간호학과의 경쟁률이 매우 높고, 평균적인 합격 점수가 높은 편입니다.
+다군 수능(일반학생전형)에서 동의대학교 간호학과의 경우 다음과 같은 특징을 가지고 있습니다:
+- 모집인원: 22명
+- 지원인원: 145명
+- 경쟁률: 6.59
+- 충원 합격 (후보순위): 37명
+이러한 상황에서, 평균적인 합격 점수가 높은 편이며, 2.52라는 성적은 대체로 중하위권에 해당합니다.
+하지만, 최종합격 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **개별 지원자의 전형요소 평가**: 서류평가와 면접평가에서 좋은 점수를 받는다면 합격 가능성이 높아집니다.
+2. **동점자 처리 기준**: 동점자가 발생할 경우, 수능 성적 순위에 따라 결정되므로, 2.52라는 성적이 상대적으로 낮은 편입니다.
+따라서, 현재의 성적만으로는 최종합격이 어렵다고 판단됩니다. 하지만, 전형요소 평가에서 좋은 점수를 받고, 면접에서도 우수한 성과를 보여주면 합격 가능성은 높아질 수 있습니다.
+추천되는 조치:
+1. **전형요소 강화**: 서류평가와 면접평가에서 우수한 결과를 얻기 위해 노력해야 합니다.
+2. **다른 대학/과목 탐색**: 현재의 성적을 고려할 때, 다른 대학이나 과목에 지원해 보는 것도 좋은 방법입니다.
+이런 상황에서는 전략적인 접근이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 간호학과의 정시모집군 변경사항에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 간호학과의 평균 등급과 관련된 정보는 무시하고 있습니다. 또한, 정시 성적이 3.7인 경우 합격 가능성이 낮다는 원본의 결론을 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 일치하지 않으며, 간호학과의 합격 가능성에 대한 원본의 결론과 상충하는 내용을 포함하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 간호학과의 정시모집군과 관련된 정보를 제공하지만, 원본 텍스트의 핵심 질문인 정시 성적 3.7에 대한 합격 가능성에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 주제 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 특히, 정시 성적과 관련된 결론이 부족하여 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 간호학과의 평균 등급과 관련된 정보를 무시하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성, 일관성, 정확성에서 부족함이 드러납니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 핵심 질문에 대한 답변이 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 주제의 명확성이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.5864182055776683</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>2024학년도의 변경사항을 보면, 정시모집군이 어떻게 바뀌었는지 확인해야 합니다. 간호학과가 어느 정시모집군에 속하는지와 해당 모집군의 학업역량 평가 기준 등을 고려해야 합니다.
+2024학년도의 정시모집군 변경사항을 보면, 2023년도에는 간호학과가 '영어영문학과 (가)'에 속했지만, 2024년도에는 '영어영문학과 (다)'로 분류되었습니다. 이는 학업역량 평가 기준이 바뀌었을 가능성이 있습니다.
+현재 정보만으로는 간호학과의 정시모집군과 학업역량 평가 기준을 정확히 알 수 없습니다. 따라서, 정시 성적이 3.7인 경우 간호학과에 합격할 수 있을지 확신하기 위해서는 다음과 같은 정보를 확인해야 합니다:
+1. **2024년도 간호학과의 정시모집군**: 현재 모집군이 무엇인지 확인해야 합니다.
+2. **학업역량 평가 기준**: 해당 모집군에서 학업역량은 어떻게 평가되는지 확인해야 합니다.
+위와 같은 정보를 확인한 후, 자신의 성적과 학업역량 평가 기준을 비교하여 판단해야 할 것입니다. 필요하다면, 대학의 입학처나 관련 홈페이지를 참조하거나 직접 문의하는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 간호학과의 정시 합격 기준 점수가 공개되지 않았다고 언급하고 있지만, 원문에서는 현재 정시 등급이 2.58이라면 합격 가능성이 높다고 명시하고 있습니다. 따라서, 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일치하지 않으며, 합격 가능성에 대한 판단을 어렵다고 하여 원문과의 일관성이 부족합니다. 원문은 합격 가능성이 높다고 명시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원문에서 제시된 구체적인 성적 기준에 대한 언급이 부족하여 약간의 관련성 결여가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원문과의 연결성이 떨어져서 약간의 일관성 부족이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 구체적인 성적 기준과 상충되는 정보를 포함하고 있어 정확성이 떨어집니다. 원문은 합격 가능성이 높다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 의미적 일치성이 떨어져서 다소 부적절한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 연결성이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.5720090279772606</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과에 대한 정시 합격 기준 점수는 공개되지 않았습니다. 따라서 현재로서는 정확한 합격 가능성을 판단하기 어렵습니다.
+정시 전형의 합격 기준은 모집단위, 학과, 그리고 해당해 있는 성적 영역 등에 따라 다르므로, 동의대학교 간호학과의 정시 합격 기준 점수를 확인해야 합니다. 이 정보는 동의대학교 입학처 웹사이트나 입학 안내서에서 확인할 수 있습니다.
+추가적으로, 간호학과의 경우 실기 평가도 포함되어 있으므로, 단순히 성적만으로 합격 가능성을 판단하기 어렵습니다. 실기 평가 점수와 함께 고려해야 합니다.
+따라서, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다. 더 자세한 내용을 확인하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 예비 7번 학생이 게임공학과에 지원했지만, 제공된 정보로는 충원합격 가능성에 대한 명확한 언급이 없으며, 잘못된 정보가 포함되어 있습니다. 예비 7번의 경우 충원합격 가능성이 낮다는 사실을 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있으며, 예비 7번의 상황에 대한 일관성이 부족합니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 그에 대한 언급이 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 게임공학과에 대한 일반적인 정보와 지원 방법을 제공하지만, 원본 텍스트의 핵심 내용인 예비 7번의 합격 가능성에 대한 정보와는 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 주제와 연결되지 않아 일관된 흐름이 부족합니다. 예비 7번에 대한 정보가 명확히 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 예비 7번의 합격 가능성에 대한 정보가 잘못 해석되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 드러납니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.5960711024464801</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>7번 학생님이 게임공학과에 지원하셨지만, 현재 제공된 정보로는 게임공학과와 관련된 정원 외 모집 단위나 전형 요소가 없습니다. 따라서 게임공학과에 대한 지원 자세한 내용이 필요합니다.
+게임공학과의 경우, 일반적으로 학생부종합전형이나 수능 및 실기 전형 등 다양한 형태로 모집됩니다. 현재 제공된 정보는 조기취업형 계약학과전형에서 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과 등에 대한 정보만 있습니다.
+따라서 게임공학과에 지원하시려면:
+1. 해당 대학의 홈페이지를 확인하여 정확한 모집 단위와 전형 요소를 파악하세요.
+2. 필요한 서류를 준비하고 원서 접수 기간 내에 제출하세요.
+3. 필요하다면 면접 준비도 철저히 하세요.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크에서 더 많은 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수 4.16이 게임공학과에 지원하는 데 어려움이 있을 것이라고 언급하고 있지만, 원본 텍스트에서는 4.16이 평균 등급보다 높아 합격 가능성이 높다고 명시하고 있습니다. 따라서, 사실관계에서 일부 불일치가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하는 부분이 있지만, 추가 합격 가능성에 대한 언급이 상반된 내용을 포함하고 있습니다. 원본 텍스트는 합격 가능성이 높다고 하였으나, 생성된 응답은 낮다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 게임공학과에 대한 정보와 수능 점수에 대한 논의를 포함하고 있어 관련성이 높습니다. 그러나 일부 내용은 원본 텍스트의 핵심 주제와는 다소 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 문장에서 주제가 전환되는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수에 대한 해석에서 원본 텍스트와 상충하는 내용을 포함하고 있어 정확성에서 다소 부족합니다. 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실관계와 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 대체로 잘 전달하고 있으나, 일부 내용에서 의미가 왜곡된 부분이 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 문장이 길어 이해하는 데 시간이 걸릴 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6727979691162728</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 점수는 상경대학 경영정보학과나 e비즈니스학과 등에서 어느 정도 경쟁률을 이겨내는 데에는 도움이 될 수 있습니다만, 동의대학교 게임공학과에 지원하는 경우 추가 합격 가능성은 낮습니다. 
+게임공학과는 보통 전산공학이나 컴퓨터공학과 같은 계열에서 모집하며, 해당 분야에서는 고른 수능 점수와 비교적 높은 수능 점수가 요구됩니다. 4.16이라는 점수로는 게임공학과에 지원해도 추가 합격이 어려울 것으로 예상됩니다.
+하지만 정확한 결과를 알기 위해서는 동의대학교 게임공학과의 모집인원, 지원 인원, 경쟁률 등을 확인해야 합니다. 또한 면접 성적이나 서류 평가 등 다른 전형 요소도 고려되어야 하므로, 해당 정보를 참고하시고 결정하시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 동의대학교 게임공학과에 대한 최신 정보를 확인해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급과 최초 등록자 가능성에 대한 구체적인 내용이 누락되어 있습니다. 또한, 학생부 교과성적 반영방법에 대한 정보는 원본 텍스트와 직접적으로 관련이 없으므로, 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 학생부 교과성적 반영방법에 대한 정보는 원본 텍스트의 주제와 일치하지 않습니다. 따라서 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적에 대한 질문에 대한 답변을 제공하려고 하지만, 학생부 교과성적 반영방법에 대한 정보는 원본 텍스트의 핵심 주제와 관련이 적습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 주제 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 따라서 일관성 점수가 낮습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 성적에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치나 조건을 반영하지 않아 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성, 일관성, 관련성에서 부족함이 있어 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어진 정보가 포함되어 있어 의미적 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6758880470591906</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 정시 모집군에서 경영정보학과를 지원하려면, 학생부 교과성적 반영방법을 확인해야 합니다. 현재 제공된 정보에서는 2023학년도와 2024학년도의 학생부 교과성적 반영방법이 다소 다르게 변경되어 있습니다.
+2023학년도에는 전 모집단위(한의예과 제외)에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목을 반영하였습니다. 
+2024학년도에는 전 모집단위(한의예과 제외)에서 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 반영하였습니다. 
+따라서 경영정보학과를 지원하려면, 2024학년도의 학생부 교과성적 반영방법에 따라 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목을 확인해야 합니다. 
+만약 경영정보학과의 정시 성적 3.75가 이 12과목 중에서 좋은 성적이었다면 최초 등록자로 가능할 수 있습니다. 하지만, 정확한 판단을 위해서는 해당 학교의 공식 홈페이지(https://ipsi. deu.ac.kr/main.do)를 확인하거나, 입학처에 문의하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 성적과 관련된 정보를 포함하고 있으며, 4.2의 성적이 평균보다 낮다는 점을 언급하고 있습니다. 그러나, 추가적인 요소들(모집인원, 성적 순위 등)을 고려해야 한다고 설명하고 있어, 일부 사실을 정확히 반영하고 있습니다. 다만, 원문에서 제공된 정보에 비해 다소 일반적인 설명이 추가되어 있어 완전한 정확성은 떨어집니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 4.2의 성적이 낮다는 점을 강조하고 있으며, 추가적인 요소들을 고려해야 한다고 설명합니다. 그러나, 원문에서 제시된 평균 성적에 대한 구체적인 수치가 누락되어 있어 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 경영정보학과의 합격 가능성에 대한 여러 요소를 고려하고 있습니다. 원문과 관련된 모든 주요 포인트를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 명확한 구조를 가지고 있습니다. 전반적으로 매우 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 정보의 흐름이 매끄럽고 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 여러 요소를 잘 설명하고 있지만, 원문에서 제공된 구체적인 평균 성적 수치가 누락되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 잘 수행하고 있습니다. 그러나 일부 세부사항에서 약간의 부족함이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 잘 이루어져 있으며, 질문의 맥락에 적절하게 반응하고 있습니다. 의미적으로 적절한 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6834348522967894</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.2인데 경영정보학과 최초 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>4.2의 성적을 가지고 경영정보학과에 최초 합격이 가능한지 확답하기는 어렵습니다. 하지만 다음과 같은 요소들을 고려해볼 수 있습니다:
+1. **전형별 모집인원**: 경영정보학과의 모집인원은 7명입니다. 이는 비교적 적은 인원이므로, 성적이 높은 학생들이 선발될 가능성이 큽니다.
+2. **성적 순위**: 전형요소 반영비율에서 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)의 합계점수가 중요합니다. 4.2의 성적이 어느 정도인지, 특히 수능 영어 등급이 높다면 경쟁력을 갖추고 있을 것입니다.
+3. **동점자 처리기준**: 동점자 처리 기준에서 1위는 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)의 합계점수가 상위자입니다. 이 기준을 충족하는지 확인해야 합니다.
+4. **서류평가**: 서류평가에서 공동체역량, 학업역량, 전공적합성 등이 평가됩니다. 지원동기와 학업계획, 전공적합성 등을 잘 준비한다면 이 부분에서도 좋은 점수를 받을 수 있습니다.
+5. **면접평가**: 면접에서는 지원동기 및 학업계획, 학업역량, 전공적합성 등이 평가됩니다. 면접 준비도 중요합니다.
+따라서 4.2의 성적을 가지고 경영정보학과에 최초 합격이 가능한지 여부는 개인별로 다르며, 성적 외에도 서류평가와 면접평가에서 좋은 점수를 받는 것이 중요합니다. 자세한 정보는 입학사정관이나 대학 홈페이지를 통해 확인하시기 바랍니다.
+더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do로 접속하여 자세한 내용을 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 평균 성적과 합격 가능성에 대한 정보를 잘 반영하고 있습니다. 그러나 수학 성적에 대한 구체적인 언급이 없고, "5.33이라는 성적은 국어, 영어, 탐구 등에서 좋은 점수를 얻어야 하지만"이라는 부분은 다소 모호하게 표현되어 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일치합니다. 그러나 수학 성적의 중요성에 대한 강조가 원본 텍스트에서 명시적으로 언급되지 않았기 때문에 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확하지만, 수학 성적에 대한 구체적인 정보가 부족하여 약간의 정확성 결여가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 차원에서 잘 수행되었지만, 일부 세부 사항에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6294771526402807</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 정시 일반학생전형으로 경영정보학과  합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>5.33이라는 성적을 가지고 동의대학교 정시 일반학생전형에서 경영정보학과에 합격할 확률은 상당히 낮습니다. 이유는 다음과 같습니다:
+1. **경쟁률**: 동의대학교 경영정보학과는 매우 인기 있는 학과로, 많은 지원자가 있습니다. 이 때문에 경쟁률이 높아서 합격 기준 점수가 상대적으로 높게 설정됩니다.
+2. **성적 요구**: 정시 모집에서는 수능 성적이 핵심적인 역할을 합니다. 특히 경영정보학과는 수학 성적이 중요하게 작용합니다. 5.33이라는 성적은 국어, 영어, 탐구 등에서 좋은 점수를 얻어야 하지만, 수학 성적에서는 낮은 점수가 나올 가능성이 높습니다.
+3. **전형별 요구**: 동의대학교 정시 일반학생전형에서는 수능 성적이 핵심이지만, 경영정보학과는 특히 수학 성적이 중요합니다. 5.33이라는 성적에서 수학 성적이 낮다면 합격 가능성은 더욱 줄어듭니다.
+따라서, 5.33이라는 성적을 가지고 동의대학교 정시 일반학생전형 경영정보학과에 합격하기 위해서는 다음과 같은 조치를 취해야 합니다:
+1. **수능 준비 강화**: 특히 수학 영역에서 더 많은 시간을 투자하여 점수를 높이는 것이 중요합니다.
+2. **추가 지원 전형 활용**: 정시 외에 다른 학교나 전형(예: 특기자전형, 실기/실적 위주전형 등)을 고려해 볼 수 있습니다.
+3. **대학별 맞춤형 준비**: 각 대학의 전형 특성과 요구를 잘 이해하고, 자신의 강점을 살릴 수 있는 전형을 선택하는 것이 중요합니다.
+4. **상담 및 지원**: 학교 상담실이나 교사에게 상담을 받고, 필요한 자료나 정보를 얻는 것도 도움이 될 것입니다.
+결론적으로, 5.33이라는 성적만으로 경영정보학과에 합격하기 어렵습니다. 그러나 추가적인 노력과 전략적 접근을 통해 다른 학교나 전형에서 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 성적에 대한 정보와 지원 경쟁률에 대한 내용을 포함하고 있지만, 원본 텍스트에서 제시된 합격 가능성에 대한 긍정적인 언급과는 상반된 내용을 담고 있습니다. 원본 텍스트는 3.33의 성적이 평균보다 높아 합격 가능성이 있다고 명시하고 있으나, 생성된 응답은 입학이 어려울 것이라고 주장하고 있어 사실관계에 부합하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 3.33의 성적이 합격 가능성이 높다고 언급하는 반면, 생성된 응답은 입학이 어려울 것이라고 주장합니다. 이러한 상반된 정보는 일관성을 결여하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 정보와 경쟁률에 대한 내용을 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 포인트인 합격 가능성에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 합격 가능성에 대한 상반된 주장이 포함되어 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 3.33의 성적이 합격 가능성이 높다고 명시하고 있으나, 생성된 응답은 반대의 주장을 하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 있으며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 핵심 메시지와는 다소 어긋나는 부분이 있어 의미적 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 내용이 혼란을 줄 수 있는 점이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.8086909730422743</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 바이오응용공학부에 대한 정보를 바탕으로, 성적 평균 3.33 정도에서는 최초 등록자로서 입학하기는 어려울 것으로 예상됩니다.
+바이오응용공학부의 경우, 지원 인원과 모집 인원 간의 경쟁률이 높습니다. 예를 들어, 경영학과의 경우 4.33의 경쟁률을 보였으며, 충원 합격자는 23명으로 많은 지원자가 경쟁하고 있었습니다.
+또한, 바이오응용공학부의 평균 성적은 상대적으로 높습니다. 예를 들어, 한의예과(수학&lt;미적분/기하&gt;)에서는 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 399.33으로 매우 높은 수치를 보였습니다.
+성적이 3.33 정도라면, 바이오응용공학부에 최초 등록자로 입학하기는 어려울 것으로 예상됩니다. 그러나, 특정 전공의 경우 경쟁률이 낮아질 수 있으므로, 지원할 단과대학 및 모집단위를 다양하게 고려해보시는 것이 좋습니다.
+더 자세한 정보나 추가적인 질문이 있다면, "https://ipsi.ipsi.ipsi" 링크를 통해 확인하시거나, 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보와 현재 정시 등급이 4.4라는 사실을 언급하고 있지만, 방사선학과에 지원하기 위한 다른 조건들에 대한 정보가 포함되어 있어 원본 텍스트의 핵심 사실과는 다소 차이가 있습니다. 특히, 방사선학과의 평균 등급보다 낮은 성적을 가지고 있다는 점을 명확히 언급하지 않고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 여러 조건을 제시하고 있지만, 원본 텍스트에서 제시된 정시 등급과의 관계가 명확하지 않습니다. 방사선학과의 평균 등급보다 낮은 성적을 가지고 있다는 점이 일관되게 반영되지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 지원하기 위한 다양한 요소를 다루고 있어 관련성이 높지만, 원본 텍스트의 핵심 정보인 평균 등급과의 관계를 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 요소를 나열하고 있지만, 이들 간의 논리적 연결이 다소 약해 보입니다. 방사선학과의 평균 등급과 현재 정시 등급 간의 관계가 명확히 드러나지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과에 대한 정보가 포함되어 있지만, 원본 텍스트의 핵심 사실인 평균 등급과의 관계를 정확히 반영하지 못하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 어느 정도의 품질을 보여주지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.5738951730202168</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>2024학년도의 방사선학과에 지원하려면, 학생부종합 평가를 받을 가능성이 높습니다. 현재 정시 등급이 4.4로 보통의 경우 방사선학과는 비교적 높은 성적을 요구하기 때문에, 방사선학과에 진학하려면 다음과 같은 점들을 고려해야 합니다:
+1. **학생부 종합 평가**: 현재 정시 등급이 4.4라면, 학생부종합 평가에서 좋은 결과를 얻기 위해서는 인성, 학업역량, 전공적합성을 잘 보여줘야 합니다.
+2. **진로선택과목 성적 반영**: 방사선학과에 지원하려면 관련 진로선택과목의 성적이 중요합니다. 방사선학과와 관련된 과목을 잘 수강하고 좋은 성적을 받는 것이 유리할 것입니다.
+3. **추천서 및 자기소개서**: 일부 학교에서는 추천서나 자기소개서를 요구하기도 합니다. 이에 대한 준비가 필요합니다.
+4. **면접 준비**: 방사선학과의 경우 면접을 통해 지원자의 적합성을 평가하는 경우가 많습니다.因此，根据提供的信息，目前您的成绩可能不太适合直接申请放射学专业。建议您先了解该专业的具体要求，并考虑其他与之相关的专业或课程作为过渡。
+如果您还有其他问题或者需要进一步的帮助，请访问“https://ipsi. deu. ac. kr/main. do”以获取更多信息。
+如果您想了解更多关于放射学专业的详细信息，可以参考上述链接中的相关信息。</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 평균 등급(2.8, 3.82)과 관련된 정보는 포함되어 있지 않으며, 경쟁률에 대한 수치(7.20)가 원본 텍스트와 일치하지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 성적이 평균보다 높다는 점을 강조하고 있지만, 생성된 응답은 경쟁률에 대한 정보에 집중하고 있어 서로 다른 주제를 다루고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 주요 내용인 성적과 합격 가능성에 대한 정보와는 직접적인 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 요소를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족하여 일관성이 떨어집니다. 각 요소 간의 연결이 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 경쟁률 수치가 원본 텍스트와 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 특히 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 부분은 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.4965292823384203</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66의 경쟁률이 방사선학과에서 7.20이라는 것을 고려하면, 현재의 경쟁률인 2.66은 상대적으로 낮습니다. 하지만 이는 모집 인원(5명)과 지원 인원(36명)에 따라 결정되므로, 여전히 높은 수준의 경쟁이 있습니다.
+방사선학과의 경우, 다음과 같은 특징들이 있습니다:
+- 모집인원: 5명
+- 지원인원: 36명
+- 경쟁률: 7.20
+현재의 경쟁률인 2.66은 이전의 7.20에 비해 훨씬 낮습니다. 그러나 여전히 높은 수준의 경쟁이 있으므로, 안심할 필요는 없습니다.
+추가적으로 고려해야 할 사항:
+1. **경쟁률 추세**: 과거 몇 년간의 경쟁률을 분석하여 현재의 경쟁률이 장기적으로 유지될 것인지 확인합니다.
+2. **지원 인원 변화**: 지원 인원이 증가할 경우 경쟁률이 상승할 수 있으므로, 이를 고려해야 합니다.
+3. **모집인원 변화**: 모집인원이 늘어나면 경쟁률이 낮아질 수 있습니다.
+따라서 현재의 2.66 경쟁률은 상대적으로 낮지만, 여전히 높은 수준의 경쟁이 있으므로 주의가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 잘 반영하고 있으며, 추가적인 요소들을 고려해야 한다는 점도 언급하고 있습니다. 그러나, "농어촌 전형"에 대한 구체적인 정보가 부족하여 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 성적이 평균보다 높고 경쟁률이 낮아진 점을 긍정적으로 평가하고 있습니다. 다만, 추가적인 요소를 고려해야 한다는 점에서 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 약간의 중복된 내용이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 "농어촌 전형"에 대한 구체적인 데이터가 부족하여 약간의 정확성 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 특정 전형에 대한 정보가 부족하여 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 필요한 정보를 잘 전달하고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5553657204789093</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 평균성적은 경찰행정학과 농어촌 전형에 지원하는 경우에도 충분히 고려될 수 있습니다. 그러나 정확한 합격 가능성 판단을 위해서는 다음과 같은 요소들을 확인해야 합니다:
+1. **전형별 선발인원**: 경찰행정학과의 정원외 모집단위 및 모집인원을 확인해 보세요.
+2. **성적 평균**: 해당 전형에서 지원자의 성적이 어느 수준인지 확인하세요. 이는 대략적인 합격 기준을 알려줄 것입니다.
+3. **기타 평가 요소**: 일부 전형에서는 학생부 교과 성적 외에도 면접, 자질 등의 평가를 진행합니다.
+현재 제공된 정보만으로는 정확한 판단이 어렵습니다. 해당 대학의 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)에서 최신 정보와 선발인원 등을 확인해 보시기 바랍니다. 또한, 학교 관계자에게 직접 문의하시거나, 입학처에 방문하여 상세히 설명을 듣는 것이 좋습니다.
+만약 추가로 도움이 필요하다면 다시 질문해 주세요!</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 수능 점수와 동점자 처리 기준에 대한 정보를 제공하지만, 원문에서 언급된 특정 학과에 대한 합격 가능성에 대한 정보는 포함되어 있지 않습니다. 따라서 일부 사실은 정확하지만, 원문과의 일치성은 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 제시된 정보와 일치하는 부분도 있지만, 예비 25번의 합격 가능성에 대한 구체적인 학과 정보를 제공하지 않아 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 등록자의 수능 점수와 관련된 정보를 제공하여 질문에 대한 답변을 시도하고 있으나, 원문에서 요구하는 특정 학과에 대한 정보는 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원문과의 연결성이 떨어져 다소 일관성이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 수능 점수와 동점자 처리 기준에 대한 정보를 제공하지만, 원문에서 요구하는 특정 학과에 대한 합격 가능성에 대한 정보는 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 일치성 및 관련성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있으나, 원문에서 요구하는 특정 정보가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.4836126201905583</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 등록자는 동점자 처리 기준에 따라 수능 점수 순위로 결정됩니다. 정시 일반학생전형은 수능 위주로 평가되므로, 수능 점수가 높다면 붙을 확률이 있습니다.
+현재 정보만으로는 예비 등록자들의 수능 점수를 알 수 없으므로, 정확한 가능성 판단하기 어렵습니다. 하지만 수능 점수가 높고, 동점자 처리 기준에 따라 상위권이라면 붙을 확률이 있습니다.
+추가 정보:
+1. 동점자 처리 기준은 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수) 영역의 합계점수 순으로 결정됩니다.
+2. 수능 점수가 높을수록 붙을 확률이 높아집니다.
+따라서, 수능 점수를 확인하고, 동점자 처리 기준에 따라 상위권이라면 붙을 가능성이 있습니다. 하지만 정확한 가능성 판단하기 위해서는 전체 예비 등록자의 수능 점수 분포와 동점자 처리 기준을 고려해야 합니다.
+더 자세한 정보나 도움이 필요하시다면, 해당 대학의 입학처에 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보를 제공하고 있지만, 실제로는 해당 학부가 존재하지 않으며, 경찰행정학과에 대한 정보와 혼동하고 있습니다. 따라서 사실과 일치하지 않는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 법경찰행정학부에 대한 정보가 잘못된 것으로 나타납니다. 원본 텍스트는 해당 학부가 존재하지 않는다고 명시하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교의 입학 정보에 대한 내용을 다루고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 원본 텍스트의 핵심 주제와 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 일치하지 않는 정보가 포함되어 있으며, 특히 법경찰행정학부의 존재 여부에 대한 잘못된 주장을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7195535514303557</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 법경찰행정학부에 대한 정보를 바탕으로 추론해보겠습니다.
+- **모집인원**: 7명
+- **지원인원**: 40명
+- **경쟁률**: 5.71 (40 / 7)
+- **충원 합격 (후보순위)**: 13명
+이 정보를 바탕으로 추정해볼 수 있습니다:
+1. **경쟁률**: 5.71은 매우 높습니다. 이는 충원 합격자(13명)가 지원 인원의 약 28%에 해당하는 것을 의미합니다.
+2. **문 닫고 들어갈 확률**: 경쟁률이 매우 높기 때문에, 문을 닫고 들어갈 확률은 매우 낮습니다. 대부분의 학생들은 충원 합격자들 중에서 선발될 가능성이 더 큽니다.
+따라서, 안정권으로 들어가려면 평균 성적이 315.78 이상이어야 합니다 (충원 합격자들의 평균 점수). 이는 경쟁률이 매우 높기 때문에, 조금이라도 낮은 점수를 받으면 안전하지 않을 가능성이 큽니다.
+**추천 성적 범위:**
+- **안정권**: 315.78 이상
+- **문 닫고 들어갈 확률**: 매우 낮음
+이 정보는 추정이며, 실제 입학 결과는 다양한 요인에 따라 변동될 수 있습니다. 따라서, 최종 결정을 내리기 전에는 공식적인 입학 정보를 확인하는 것이 좋습니다. 더 자세한 정보나 추가 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do 를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 보육가정상담학과의 합격 가능성에 대한 여러 요소를 언급하고 있으며, 이는 원본 텍스트의 정보와 일치합니다. 그러나 원본 텍스트에서 제공된 아동학과의 평균 등급에 대한 정보는 포함되지 않았습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 보육가정상담학과의 합격 가능성에 대한 다양한 요소를 설명하고 있습니다. 다만, 아동학과의 평균 등급에 대한 언급이 없어서 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 다양한 요소를 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 따라서 일관성이 매우 높습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 합격 가능성에 대한 정확한 요소를 제시하고 있지만, 아동학과의 평균 등급에 대한 정보가 누락되어 있어 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성이 높습니다. 그러나 일부 정보의 누락으로 인해 점수가 약간 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.575520005132231</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>5.33 등급을 가진 지원자가 동의대학교 보육가정상담학과에 합격할 수 있는지는 여러 요소에 따라 달라집니다.
+1. **등급 기준**: 동의대학교 각 모집단위별로 정시모집에서 요구하는 최저 등급이 있습니다. 이 기준을 넘는 지원자는 합격 가능성이 높아집니다.
+2. **전형 방식**: 보육가정상담학과의 전형 방식에 따라 달라집니다. 예를 들어, 실기/실적 위주로 평가하는 경우 실력이 중요할 수 있습니다.
+3. **경쟁률**: 해당 학과의 경쟁률을 고려해야 합니다. 경쟁률이 높다면 5.33 등급으로 합격하기는 어렵습니다.
+4. **기타 평가 요소**: 서류심사, 면접 등의 평가 요소도 중요합니다. 지원자의 서류와 면접 성적에 따라 결과가 달라질 수 있습니다.
+따라서 정확한 답변을 위해서는 동의대학교 보육가정상담학과의 최저 등급 기준과 전형 방식, 경쟁률 등을 확인해야 합니다. 이를 통해 합격 가능성을 판단할 수 있을 것입니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 공식 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 충원 합격자 발표와 관련된 정보가 포함되어 있지만, 보육가정상담 전공에 대한 구체적인 정보가 부족합니다. 또한, 예비 12번에 대한 긍정적인 신호라는 언급은 있지만, 전체적인 맥락에서 정확한 정보가 부족하여 점수를 낮게 평가했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있으나, 보육가정상담 전공에 대한 명확한 언급이 없고, 다른 전형에 대한 정보가 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교와 관련된 정보를 제공하고 있으나, 질문의 핵심인 보육가정상담 전공에 대한 정보가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 정보가 잘 정리되어 있습니다. 그러나 보육가정상담 전공에 대한 정보가 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 보육가정상담 전공에 대한 구체적인 정보가 부족하여 정확성 점수를 낮게 평가했습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 보육가정상담 전공에 대한 정보 부족으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 동의대학교와 관련된 정보를 제공하고 있습니다. 그러나 질문의 맥락에 완전히 부합하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성을 제공하지는 못합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.5709583625385566</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에 대한 정보를 바탕으로 답변 드리겠습니다.
+현재 제공된 정보로는 "나군 학생부교과(농어촌학생전형)"와 관련된 내용들이 주요하게 나열되어 있습니다. 그러나 보육가정상담 전공이나 해당 모집단위에 대한 명확한 정보가 포함되어 있지 않습니다. 따라서 정확한 답변을 드리기 위해서는 동의대학교 공식 웹사이트를 참조하거나, 대학 측에 직접 문의하는 것이 가장 좋습니다.
+https://ipsi. deu. ac. kr/main. do
+위 링크를 통해 동의대학교의 공식 웹사이트로 접속하여 보육가정상담 전공과 관련된 정보를 확인해보시기 바랍니다. 또한, 3차에서 예비 12번을 받았다는 점은 합격 가능성에 대한 긍정적인 신호일 수 있지만, 최종 합격 여부는 여러 요인에 따라 결정되므로 확실한 답변을 듣기 위해서는 대학 측으로부터 직접 확인하는 것이 좋습니다.
+만약 추가로 필요한 정보가 있다면 언제든지 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 4.75의 성적이 유아교육학과에 지원할 수 있는 가능성이 있다고 주장하지만, 원본 텍스트에서는 4.75의 성적이 유아교육학과에 지원하기 어려울 것이라고 명확히 언급하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본에서는 4.75로 유아교육학과에 지원하기 어렵다고 했으나, 생성된 응답은 가능성이 있다고 주장합니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성에 대해 논의하고 있으며, 관련된 정보와 조언을 제공합니다. 그러나 원본 텍스트의 주된 내용과는 다소 차이가 있어 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상반되는 주장을 하고 있어 정확성 점수가 낮습니다. 4.75의 성적이 유아교육학과에 지원하기 어렵다는 원본의 주장을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으므로 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 지원 가능성에 대해 논의하고 있지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 따라서 의미적 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7530501199132651</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 성적은 매우 높은 점수입니다. 정시모집에서 학생부종합전형과 함께 수능성적이 중요한 요소로 작용하므로, 이 성적을 가지고 유아교육학과에 지원하는 것은 가능성이 있습니다.
+유아교육학과의 경우, 일반적으로 인문사회계열의 전공으로, 수능성적이 높은 점수를 요구하지는 않습니다. 그러나 정시모집에서 학생부종합전형을 함께 준비해야 하므로, 다음과 같은 절차와 방법을 고려해보세요:
+1. **학생부 종합평가**: 학생부의 교과성적 외에도 공동체역량, 학업역량, 전공적합성을 강조하는 것이 중요합니다.
+2. **면접 준비**: 면접에서는 지원동기와 학업계획을 잘 설명하고, 유아교육에 대한 열정과 이해를 보여주는 것이 필요합니다.
+3. **추천서 작성**: 가능하다면 교사나 선생님의 추천서를 받아보세요. 이는 지원자의 성격이나 능력을 객관적으로 평가하는 데 도움이 됩니다.
+4. **진로 탐색 활동**: 학교에서 진행하는 진로 탐색 활동에 적극 참여하고, 관련 경험을 쌓아보세요.
+5. **자기소개서 작성**: 지원동기에 대한 명확한 설명과 앞으로의 계획을 잘 담아보세요.
+이렇게 준비하면 4.75라는 높은 수능성적을 가지고 유아교육학과에 지원하는 것이 가능할 것입니다. 다만, 각 대학별 정시모집에서의 경쟁률 등을 고려해야 하므로, 최종 결정 전에 해당 정보를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 보육가정상담학과의 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 아동학과의 평균 등급과 관련된 정보는 포함되어 있지 않으며, 주어진 질문에 대한 직접적인 답변이 부족하다. 또한, 원본 텍스트의 핵심 정보가 누락되어 있다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족하다. 원본 텍스트는 특정한 등급에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 일반적인 전형 정보에 초점을 맞추고 있어 일관성이 떨어진다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 전형에 대한 정보를 제공하지만, 질문자가 원하는 합격 가능성에 대한 직접적인 답변이 부족하여 관련성이 떨어진다. 그러나 일부 정보는 관련이 있다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 주제 간의 연결이 명확하지 않아 일관된 흐름이 부족하다. 정보가 나열되어 있지만, 논리적인 흐름이 약간 떨어진다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 핵심 사실을 반영하지 않으며, 질문에 대한 정확한 답변을 제공하지 않는다. 따라서 정확성 점수가 낮다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았다. 사실성, 일관성, 정확성 모두 부족하여 전체적인 품질이 낮다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 질문의 맥락과는 다소 동떨어진 정보가 포함되어 있어 의미적 적절성이 떨어진다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 문장으로 인해 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5063848142742808</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과의 일반학생전형에 대한 정보를 제공하겠습니다.
+보육가정상담학과의 일반학생전형은 학생부종합 평가를 통해 선발되며, 주요 평가 영역은 공동체역량, 학업역량, 전공적합성입니다. 또한, 2024학년도에는 학생부 교과성적 반영방법이 변경되었는데, 이는 전반적으로 과목의 석차등급을 더 많이 반영하게 되었습니다.
+현재您的问题似乎是在询问关于东国大学保育·家庭咨询学专业的普通学生录取情况。根据您提供的信息，2024年东国大学保育·家庭咨询学专业采用综合评价的方式进行招生，并且主要评估领域包括：社会贡献能力、学业能力和专业适应性。
+此外，2024年的学生学业成绩评价方式也有所变化，更加注重各科目的等级排名。您目前的换算等第为4.16，这个成绩在一定程度上反映了您的学术水平和学习能力。
+为了更准确地判断您是否能够被录取，建议参考以下几点：
+1. **共同社会贡献能力**：这包括您的社团活动、志愿服务经历等。
+2. **学业能力**：根据您提供的换算等第4.16来看，这个成绩在一定程度上反映了您的学术水平。但具体还需要看各科目的等级排名是否符合学校的要求。
+3. **专业适应性**：这主要考察您对专业的兴趣和适合度。
+综合以上因素，如果您的共同社会贡献能力较强，并且学业能力和专业适应性也较好，那么被录取的可能性较大。但是最终能否被录取还需参考具体的招生标准和流程，请务必关注东国大学的官方通知或咨询相关部门以获取最准确的信息。
+如需更多信息，建议访问东国大学官网（https://ipsi. deu.ac.kr/main.do）查看最新的招生信息和要求。</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 잘못된 정보를 제공합니다. 소프트웨어융합학과는 정시로 지원할 수 없다는 사실을 무시하고 소프트웨어공학부에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트와 상충하는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 소프트웨어융합학과에 대한 지원 불가능성을 명확히 하고 있지만, 생성된 응답은 소프트웨어공학부에 대한 정보를 제공하여 서로 모순되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 질문은 소프트웨어융합학과의 정시 지원 가능성에 대한 것이지만, 응답은 소프트웨어공학부에 대한 정보로 전환되어 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 답변으로서의 일관성이 부족합니다. 소프트웨어공학부에 대한 정보가 포함되어 있지만, 질문과의 연결이 약해 전체적인 논리적 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 소프트웨어융합학과는 정시로 지원할 수 없다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 질문에 대한 적절한 답변이 아닌, 다른 주제에 대한 정보를 제공하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 질문과의 관련성이 떨어져서 전체적인 이해가 어렵습니다. 주제와의 연결이 부족하여 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4010664701860616</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부가 모집단위로 포함되어 있습니다. 이 학과의 경쟁률과 지원자들의 성적 평균을 확인해보겠습니다.
+- **소프트웨어공학부** 관련 정보:
+  - 모집 인원: 30명
+  - 지원 인원: 146명
+  - 경쟁률: 4.87
+  - 충원 합격 (후보순위): 63명
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 317.87
+  - 영어 등급의 평균: 3.77
+이 정보를 바탕으로 소프트웨어공학부에 지원하기 위해서는 대략적으로 다음과 같은 성적을 받아야 합니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 317.87
+- **영어 등급의 평균**: 3.77
+따라서, 대략적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 317.87 이상이고 영어 등급이 3.77 이상인 경우 소프트웨어공학부에 지원할 수 있을 것으로 예상됩니다.
+하지만, 이는 평균적인 수치이며 실제 경쟁률과 모집 인원 등을 고려하여 더 높은 점수를 받는 것이 좋습니다. 또한, 학교별로 정확한 기준이 다를 수 있으므로, 최종적인 지원 자격을 확인하기 위해서는 해당 대학의 공식 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 면접 평가의 주요 요소인 지원 동기, 학업 역량, 전공 적합성에 대한 질문을 언급하고 있지만, 원본 텍스트에서 명시된 서류 평가와 학생부 교과 성적에 대한 정보는 누락되어 있습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 면접 준비에 대한 정보를 제공하지만, 원본 텍스트의 서류 평가와 관련된 내용과는 일관성이 떨어집니다. 면접과 관련된 정보는 일관되지만, 서류 평가에 대한 언급이 없기 때문에 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 면접 준비와 관련된 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 서류 준비에 대한 정보가 부족하여 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있습니다. 따라서 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 준비에 대한 정보가 일관되게 제시되고 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 면접 준비에 대한 정보는 정확하지만, 원본 텍스트의 서류 평가와 관련된 정보가 누락되어 있어 정확성 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유용한 정보를 제공하지만, 원본 텍스트의 일부 중요한 요소가 누락되어 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적합한 의미를 전달하고 있지만, 서류 준비와 관련된 정보가 부족하여 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 점수를 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.5636852372835354</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 소프트웨어융합학과의 면접 평가에서는 주로 지원동기, 학업역량, 전공적합성에 대한 질문이 제시됩니다. 이 중 특히 전공적합성 부분은 본인이 의미를 두고 노력했던 지원 전공(계열)과 관련된 교내 활동을 이야기하는 내용으로 구성되어 있습니다.
+따라서 면접 준비 시 다음과 같은 점들을 주의해야 합니다:
+1. **지원 동기와 학업 계획**: 입학 후 어떤 목표를 세우고 이를 어떻게 달성할 것인지 구체적으로 설명하세요.
+2. **학업역량**: 고교(직장) 생활 중 학업에 대한 어려움과 해결하기 위한 노력에 대해 이야기해 보세요.
+3. **전공적합성**: 본인이 의미를 두고 노력했던 지원 전공(계열)과 관련된 교내 활동을 구체적으로 설명하세요.
+**서류 준비**:
+- 서류는 주로 학교생활기록부 1부, 검정고시 합격증서 사본 또는 합격증명서 1부, 검정고시 성적증명서 1부 등이 필요합니다.
+- 외국고교 졸업(예정)자인 경우 공증받은 외국고교 졸업(예정)증명서 1부와 공증받은 외국고교 성적증명서 1부를 제출해야 합니다.
+이러한 서류들은 면접 평가에서 지원자의 학력과 전공 적합성을 확인하는 데 사용되므로 정확하게 준비하고 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격자 평균 점수와 관련된 정보를 제공하고 있으며, 4.08의 성적이 평균 점수와 비교하여 어느 정도의 가능성이 있는지를 설명하고 있습니다. 그러나, 평균 점수와의 비교에 대한 구체적인 수치적 언급이 부족하여 완전한 정확성은 떨어집니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 추가적인 정보와 분석 방법을 제시하고 있습니다. 다만, 원본 텍스트에서 언급된 "확실하지는 않다"는 점이 명확히 반영되지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 질문에 대한 적절한 분석과 조언을 포함하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 평균 점수와의 비교에 대한 구체적인 수치적 언급이 부족하여 완전한 정확성은 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으나, 일부 세부 사항에서 완전한 정확성이나 일관성이 부족하여 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.7925933480405621</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>4.08이라는 수능 점수가 동의대학교 소프트웨어공학부의 최초합격자에 해당하는지 판단하기 위해서는 몇 가지 정보가 필요합니다:
+1. **소프트웨어공학부의 모집인원과 지원 인원**: 이 정보를 통해 경쟁률을 파악할 수 있습니다.
+2. **최근 몇 년간의 최초합격자들의 평균 점수와 경쟁률**: 이 정보는 현재의 입시 상황을 이해하는 데 도움이 됩니다.
+다음은 일반적인 분석 방법입니다:
+1. **경쟁률 계산**:
+   - 지원 인원 / 모집인원 = 경쟁률
+2. **최초합격자들의 평균 점수와 경쟁률 비교**: 
+   - 현재의 점수가 최근 몇 년간의 최초합격자들의 평균 점수보다 높다면, 가능성이 있습니다.
+다만, 이 정보를 제공하지 않아 정확한 판단을 내리기 어렵습니다. 따라서, **"https://ipsi.deu.ac.kr/main.do"** 웹사이트에서 동의대학교 소프트웨어공학부의 최신 입시 결과와 모집인원, 지원 인원 등의 정보를 확인해 보시는 것이 좋겠습니다.
+또한, 해당 학과의 최근 몇 년간의 최초합격자들의 평균 점수와 경쟁률을 파악하는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보가 포함되어 있지 않다는 원문과 상충하는 정보를 제공합니다. 특히, 소프트웨어공학부에 대한 지원 인원과 경쟁률, 표준 변환 점수에 대한 정보는 원문에 명시되어 있지 않으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 부족합니다. 원문은 소프트웨어융합학과에 대한 정보만을 제공하고 있으며, 소프트웨어공학부에 대한 정보는 포함되어 있지 않습니다. 이로 인해 두 텍스트 간의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 답변으로 보이지만, 소프트웨어공학부에 대한 정보로 전환되면서 원문과의 관련성이 떨어집니다. 원문에서 요구하는 정보와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 정보가 다소 분산되어 있어 일관된 흐름이 부족합니다. 소프트웨어융합학과와 소프트웨어공학부에 대한 정보가 혼합되어 있어 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 특히, 소프트웨어공학부에 대한 구체적인 데이터는 원문에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 원문과의 관련성도 떨어집니다. 따라서 다차원 품질 점수도 낮게 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과의 의미적 일치가 부족합니다. 소프트웨어융합학과에 대한 질문에 대해 소프트웨어공학부의 정보를 제공함으로써 의미적으로 부적절한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 정보의 혼합으로 인해 일부 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6308379091541407</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 경우, 지원 인원이 146명이고 경쟁률이 4.87입니다. 평균 5등급을 가지고는 충분히 합격 가능성이 있지만, 정확한 확률은 표준 변환 점수와 등급 분포를 고려해야 합니다.
+평균 5등급으로 지원 시, 표준 변환 점수의 평균이 434.70이고 표준 편차가 8.01입니다. 이는 상대적으로 높은 점수가 필요하다는 것을 의미합니다. 따라서 5등급을 가지고 있는 학생도 충분히 경쟁력을 갖추고 있지만, 다른 지원자들과의 비교를 통해 더 정확한 판단이 가능할 것입니다.
+더 자세한 정보나 분석을 원하시면, 제공된 데이터와 함께 "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 확인해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 전형 및 수능 반영 비율에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 합격 가능성에 대한 명확한 판단을 다루지 않고 있습니다. 따라서 일부 사실은 정확하지만, 전체적으로 원본의 핵심 정보를 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 합격 가능성에 대한 판단이 원본의 결론과 다소 상충하는 부분이 있습니다. 원본에서는 합격 가능성이 높다고 명시했으나, 생성된 응답은 보다 불확실한 어조로 표현하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 전형 및 수능 반영 비율에 대한 정보를 제공하여 관련성이 높지만, 원본 텍스트의 핵심 질문인 합격 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 결론과의 연결이 약간 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 전형 및 수능 반영 비율에 대한 정보를 제공하지만, 원본 텍스트의 합격 가능성에 대한 명확한 판단을 다루지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 합격 가능성에 대한 명확한 언급이 부족하여 완전한 적합성을 제공하지는 못합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 복잡하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6827438541535895</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과에 지원하시려면, 전형별로 다르게 평가받으실 것입니다. 주요 변경사항을 보면, 신소재공학과는 일반학생전형인 '나군'에 해당합니다.
+'나군'의 수능 반영 영역 및 잔여 비율은 다음과 같습니다:
+- 국어(화법과작문 또는 언어와매체) 25%
+- 수학(확률과통계 또는 미적분 또는 기하) 25%
+- 영어 25%
+- 탐구(사회탐구 또는 과학탐구 또는직업탐구 - 2개 과목 합) 25%
+'나군'의 전형요소 반영 비율은 다음과 같습니다:
+- 실기/실적(경기실적우수자전형): 학생부교과18%+출결12%+서류(실적)70%
+따라서, 정시 성적이 4.28이라면 수능 점수가 어느 정도인지 확인해야 합니다. 예를 들어, 국어, 수학, 영어 등에서 좋은 성적을 받으셨다면 합격 가능성은 높아질 것입니다.
+하지만, 정확한 합격 가능성을 판단하기 위해서는 동의대학교의 2024년도 입시 안내와 전형별 평균 점수 등을 참고하시거나, 해당 대학의 입학처에 문의하시는 것이 가장 정확할 것입니다. 
+더 자세한 정보를 얻으시려면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크에서 동의대학교의 2024년도 입시 안내를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 일부 내용은 추가적인 정보로 인해 약간의 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 추가된 정보가 원본의 간결함과 일관성을 해치는 경향이 있습니다. 특히, 관련 증명 자료에 대한 설명이 원본의 핵심 메시지와 다소 상충할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 자기소개서가 필요 없다는 점을 명확히 하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장 구조가 복잡하여 읽기 어려운 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 추가된 정보가 원본의 간결함을 해치는 경향이 있어 약간의 일관성 부족이 느껴집니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 사실적으로 정확하지만, 추가된 정보가 원본의 핵심 메시지를 흐리게 할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되었으나, 일관성과 유창성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 추가된 정보가 원본의 맥락과 다소 어긋날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.4186306007765894</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>一般的的学生选拔不需要提交个人陈述书。根据提供的信息，对于多军普通学生选拔（다군 수능(일반학생전형)），以下是一些需要准备的事项：
+1. **无需提交个人陈述书**：没有提到需要提交个人陈述书。
+2. **提交相关证明材料**：
+   - 高中毕业（或预计毕业）的学生不需要提交任何额外文件，除非他们同意在线提供学生档案。
+   - 对于参加普通学生选拔的检定高中毕业生和外国高中毕业生，也不需要提交任何额外文件。
+3. **其他准备事项**：
+   - 准备好你的成绩单、标准化考试成绩（如高考成绩）等。
+   - 根据你申请的专业或学院的要求，可能还需要准备一些特定的材料。
+因此，对于多军普通学生选拔来说，并不需要特别撰写个人陈述书。主要任务是准备好相关的学术和标准化考试成绩以及任何必要的证明文件即可。如果有疑问，可以访问“https://ipsi. deu. ac. kr/main. do”以获取更多信息或直接咨询学校招生办公室。</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 점수 4.5에 대한 긍정적인 평가와 추가 모집에 대한 여러 요인을 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 일부 세부 사항이 원본 텍스트에서 명시된 내용과 다소 차이가 있을 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 내용과 일관되며, 추가 모집에 대한 정보와 수능 점수의 중요성을 강조하고 있습니다. 그러나 전형별 차이에 대한 설명이 원본 텍스트에 명시된 내용과는 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 명확하게 구분되어 설명되고 있습니다. 그러나 일부 부분에서 더 매끄러운 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 수능 점수와 추가 모집에 대한 정보가 정확하게 전달되고 있습니다. 그러나 일부 세부 사항에서 약간의 차이가 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 세부 사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현에서 더 명확한 의미 전달이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.6592411307808078</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 좋은 성적입니다. 하지만 추가모집에 합격할 확률은 여러 요인에 따라 달라질 수 있습니다.
+1. **전형별 차이**: 각 전형(가군, 나군, 다군)의 수능 반영 비율과 기준 점수가 다르므로, 정시에서 받은 4.5는 어떤 전형에서도 충분히 높을 수 있지만, 추가모집에서는 일반 모집단위와 비교해 볼 필요가 있습니다.
+2. **추가모집의 특징**: 추가모집은 주로 학생부 종합전형이나 실기/실적 전형 등으로 진행되므로, 수능 점수만으로는 결정되지 않을 가능성이 큽니다. 따라서 수능 점수 외에도 학생부 성적, 실기 점수 등을 고려해야 합니다.
+3. **모집인원과 경쟁률**: 추가모집의 모집인원과 경쟁률을 확인해 보세요. 경쟁률이 높다면 4.5라는 점수만으로는 합격하기 어렵겠지만, 경쟁률이 낮다면 더 큰 가능성은 있습니다.
+4. **대학별 정책**: 동의대학교의 추가모집 전형에 대한 정확한 정보를 확인해야 합니다. 대학 홈페이지나 입학처와 연락하여 자세히 문의해 보세요.
+추가로, 수능 점수 4.5는 상당히 좋은 성적입니다. 하지만 추가모집에서는 수능 점수 외에도 다양한 요소들이 고려되므로, 정확한 판단을 위해서는 대학 입학처와 직접 연락하여 자세한 정보를 얻는 것이 좋습니다.
+더 궁금하신 사항이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 정시 모집군 및 등급에 대한 구체적인 정보를 제공하지 않고, 공식 홈페이지를 참조하라고 안내하고 있습니다. 이는 원본 텍스트의 구체적인 데이터와는 다소 거리가 있으며, 평균 등급에 대한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부분 일치하지만, 신소재공학과의 평균 등급에 대한 정보가 포함되어 있지 않아 일관성이 떨어집니다. 원본 텍스트의 핵심 정보를 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 정시 모집군 및 등급에 대한 질문에 대해 관련된 정보를 제공하려고 하지만, 구체적인 데이터가 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트의 핵심 정보를 포함하지 않아 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않고 있으며, 평균 등급에 대한 정보가 누락되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 핵심 정보를 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변을 제공하려고 노력하고 있습니다. 그러나 원본 텍스트의 구체적인 내용을 반영하지 못해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.5863710562842058</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과의 정시 모집군 및 등급은 제공된 정보로 확인되지 않았습니다. 관련 정보를 얻기 위해서는 공식 홈페이지(https://ipsi.deu.ac.kr/main.do)를 참조하시거나, 동의대학교 입학처에 직접 문의하시는 것이 좋겠습니다. 해당 페이지에서 최신 정시 모집군과 합격 기준 등급을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 점수와 귀하의 점수에 대한 정보를 포함하고 있지만, 작년보다 약간 높은 점수가 요구되었을 가능성에 대한 언급은 명확한 사실이 아닙니다. 또한, 신소재공학과 외의 다른 학과에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 일부 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 신소재공학과 외의 다른 학과에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트는 신소재공학과에만 초점을 맞추고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과에 대한 질문에 답변하고 있지만, 다른 학과에 대한 정보가 포함되어 있어 약간의 주제 이탈이 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 신소재공학과 외의 다른 학과에 대한 언급이 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 평균 점수와 귀하의 점수에 대한 정보를 포함하고 있지만, 다른 학과에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 다소 부족함이 있습니다. 전반적으로 괜찮은 응답이지만, 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 다른 학과에 대한 언급이 있어 약간의 맥락 이탈이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.5951885880255907</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집단위 중 신소재공학과와 의생명공학과, 분자나노공학과 등이 447점 이상의 표준 변환 점수를 요구하고 있습니다. 작년에 비해 작년보다 약간 높은 점수가 요구되었을 가능성이 있습니다.
+하지만, 동일한 표준 변환 점수를 요구하는 모집단위가 여러 곳이기 때문에, 447점으로도 충원 합격이 가능한 모집단위가 있을 수 있습니다. 예를 들어, 경쟁률이 낮은 모집단위나 모집인원이 많은 모집단위에서는 447점으로 충원 합격이 가능할 수 있습니다.
+따라서, 작년에 비해 약간 높은 점수가 요구되었지만, 여전히 충원 합격 가능성은 있을 수 있습니다. 하지만 확실한 것은 아니므로, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다.
+또한, 작년과 비교하여 점수가 약간 높아졌다는 점을 고려할 때, 지원 시 다른 모집단위들에 대한 정보도 함께 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 여러 요인을 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 평균 성적 데이터와 비교하여 명확한 결론을 내리지 않고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 합격 가능성에 대한 결론이 원본 텍스트의 내용과 다소 상충하는 부분이 있습니다. 특히, 원본 텍스트는 합격 가능성이 높다고 명시했으나, 생성된 응답은 확실하지 않다고 언급하고 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 여러 요인을 다루고 있으며, 신소재공학부의 합격 가능성에 대한 질문에 적절하게 응답하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터에 대한 언급이 부족하여 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 합격 가능성에 미치는 영향을 설명하고 있습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 구체적인 수치와 비교하여 정확한 정보를 제공하지 않으며, 합격 가능성에 대한 결론이 모호합니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 전반적으로 평균적인 품질을 보이며, 사실성, 일관성, 정확성에서 다소 부족한 점이 있어 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 관련된 정보를 잘 전달하고 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 일부 문장이 길어질 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5622866789101171</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.1~4.2 등급대의 성적이면 신소재공학부 일반학생전형에 붙을 수 있을지는 확실하지 않습니다. 하지만 다음과 같은 요인들을 고려해볼 필요가 있습니다:
+1. **학교별 차이**: 각 학교마다 평균성적과 최저성적 등이 다르므로, 동의대학교의 경우 특정 등급대에서 일반학생전형에 붙는 것이 가능할 수도 있고 그렇지 않을 수도 있습니다.
+2. **모집인원 및 경쟁률**: 신소재공학부의 모집인원과 경쟁률을 고려해야 합니다. 경쟁률이 높다면, 4.1~4.2 등급대에서는 낮은 확률로 합격할 수 있습니다.
+3. **전형별 차이**: 일반학생전형 외에도 특별전형이나 학생부종합전형 등이 있으므로, 해당 전형에 지원해볼 수도 있습니다.
+4. **추천서 및 자기소개서**: 서류평가에서 좋은 점수를 받기 위해 추천서와 자기소개서 등을 잘 준비하는 것이 중요합니다.
+5. **면접 성적**: 일부 전형에서는 면접 성적이 중요한 요인으로 작용하므로, 면접 준비도 철저히 해야 합니다.
+6. **최종 결정**: 최종적으로는 합격 가능성을 판단하기 위해 동의대학교의 입학처 웹사이트나 전화로 문의하거나, 입학상담을 받는 것이 좋습니다.
+위와 같은 요인들을 종합적으로 고려하여 결정하시길 바랍니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 동의대학교의 공식 웹사이트에서 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 구체적인 성적 정보를 제공하지 않고, 예시 성적을 제시하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 실제 성적에 대한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성이 없습니다. 원본 텍스트는 특정한 성적 데이터를 제공하는 반면, 생성된 응답은 가상의 성적을 제시하고 있어 서로 충돌하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 성적에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 원본 텍스트의 핵심 내용과는 다소 거리가 있습니다. 예시 성적은 관련이 있지만, 원본의 구체적인 데이터와는 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 구조가 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 흐름을 가지고 있으나, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 예시 성적을 제시하는 부분이 원본의 정보와 잘 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 가상의 성적을 제시하고 있어 사실성과 정확성이 부족합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보가 원본의 의미와 맥락을 완전히 반영하지는 않습니다. 예시 성적이 주제와 관련이 있지만, 원본의 구체적인 데이터와는 다릅니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.6746794247679084</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>东义大学人工智能学部的普通学生入学考试，其成绩构成如下：
+1. 국어 표준점수 (25%)
+2. 수학 표준점수 (25%)
+3. 영어 등급 점수 (25%)
+4. 탐구 표준점수 (25%)
+예를 들어, 다음과 같은 성적을 가정해보겠습니다:
+- 국어: 104
+- 수학(미적분): 108
+- 영어: 4등급 (139 점)
+- 탐구: 과탐(물리Ⅰ) - 47, 과탐(화학Ⅰ) - 59
+이 경우의 총점은 다음과 같습니다:
+국어 표준점수: 104
+수학 표준점수: 108
+영어 등급 점수: 139 (4등급)
+탐구 표준점수: (47 + 59) / 2 = 53
+총점 계산:
+(104 + 108 + 139 + 53) * 0.25 = 106.5
+따라서, 이 예시에서는 총점이 106.5가 됩니다.
+실제 점수는 개인의 성적에 따라 달라질 수 있으므로, 실제 성적을 확인하시기 바랍니다. 더 자세한 정보를 원하신다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27 성적에 대한 충원 합격 가능성을 언급하고 있지만, 구체적인 학과와 성적 기준에 대한 정보가 부족하여 정확한 사실을 반영하지 못하고 있다.
+2. Consistency Score (1-5): 3
+   - 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 구체적인 학과와 성적에 대한 정보가 누락되어 있어 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 응답은 5.27 성적에 대한 추합 가능성을 다루고 있어 관련성이 높지만, 구체적인 학과 정보가 부족하여 완전한 관련성을 갖추지 못하고 있다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽다.
+6. Accuracy Score (1-5): 3
+   - 응답은 5.27 성적이 좋은 성적이라고 언급하지만, 구체적인 학과와 성적 기준에 대한 정보가 부족하여 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 구체적인 세부사항이 부족하여 다차원적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 구체적인 정보가 부족하여 완전한 적절성을 갖추지 못하고 있다.
+9. Understandability Score (1-5): 4
+   - 응답은 명확하고 이해하기 쉬운 표현을 사용하고 있으나, 구체적인 정보가 부족하여 완전한 이해를 돕지 못한다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.666536260925131</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 성적을 가지고 추합 가능성을 판단하기 위해서는 해당 대학과 전공의 경쟁률, 충원 합격자 등에 대한 정보를 고려해야 합니다.
+현재 제공된 정보만으로는 특정 대학과 전공에 대한 정확한 경쟁률 및 충원 합격자를 알 수 없습니다. 그러나 일반적으로 5.27이라는 성적은 좋은 성적입니다. 특히 인문사회과학대학이나 상경대학의 경우, 경쟁률이 높지 않을 수도 있으며, 이 경우에는 추합 가능성은 높을 수 있습니다.
+다만, 정확한 판단을 위해서는:
+1. 해당 대학과 전공의 최종 등록자 중 5.27 이상의 성적을 받은 학생들의 수를 확인해야 합니다.
+2. 경쟁률이 얼마나 높았는지 확인해야 합니다.
+따라서, 더 구체적인 정보가 필요합니다. 만약 더 구체적인 대학과 전공에 대한 정보가 있다면, 해당 정보를 바탕으로 판단할 수 있습니다. 그렇지 않다면, "https://ipsi.deu.ac.kr/main.do" 링크를 참조하여 각 대학의 모집단위별 경쟁률 및 충원 합격자 등의 정보를 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 정시 성적 4.2에 대한 합격 가능성을 낮다고 평가하고 있지만, 원본 텍스트에서는 4.2가 평균 등급보다 높은 성적이라고 언급하고 있어 사실과 상충합니다. 또한, 수능 4개 영역의 평균 점수에 대한 정보가 잘못 해석되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되지 않습니다. 원본에서는 4.2가 평균보다 높은 성적이라고 하였으나, 생성된 응답에서는 낮다고 주장하고 있습니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 정보와 지원자의 성적에 대한 내용을 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 포인트를 완전히 반영하지는 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 합격 가능성에 대한 결론이 원본 텍스트와 상충하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 해석하고 있으며, 특히 합격 가능성에 대한 평가가 부정확합니다. 원본의 정보와 상충하는 부분이 많습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 요소가 있지만, 사실성과 일관성에서 큰 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 합격 가능성에 대한 해석이 잘못되어 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6638842614246286</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 지원자들의 평균 점수와 경쟁률을 고려해보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균**: 317.87
+- **영어 등급의 평균**: 3.77
+- **수능 4개 영역  (가산점 포함) 표준 변환 점수 합의 평균**: 434.70
+당신의 성적은 정시 성적 4.2로, 이는 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균보다 낮습니다. 그러나 동의대학교 소프트웨어공학부의 경쟁률이 4.87이며, 이는 상대적으로 높은 경쟁률을 보이고 있습니다.
+따라서 정시 성적 4.2로는 합격 가능성은 낮다고 볼 수 있습니다. 그러나 동의대학교 소프트웨어공학부에서는 다양한 전형이 존재하며, 다른 전형(예: 학생부종합전형)을 통해 합격할 가능성이 있습니다.
+추가적으로, 정시 성적 4.2는 상대적으로 낮은 점수로, 동의대학교 소프트웨어공학부에 지원하는 경우 경쟁이 치열한 만큼, 다른 전형을 고려해보는 것이 좋습니다. 더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하시거나 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 성적 기준에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언을 하고 있습니다. 원본 텍스트의 구체적인 수치(영어 등급 평균 4.82, 수능 4개 영역 등급 평균 5.73)를 언급하지 않아 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 화학환경공학부의 성적 기준에 대한 구체적인 언급이 없습니다. 그러나, 전반적으로 동의대학교의 공식 홈페이지를 참조하라는 조언은 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부에 대한 질문에 대한 답변을 제공하고 있으나, 원본 텍스트의 구체적인 성적 기준에 대한 정보가 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 일반적인 조언을 제공하고 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 구체적인 사실을 반영하지 않아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 일반적인 조언을 제공합니다. 그러나 원본 텍스트의 구체적인 내용과는 다소 거리가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6298630980375345</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 화학환경공학부에 대한 모집단위와 전형방법 등 자세한 내용이 포함되어 있지 않아 정확히 판단하기 어렵습니다. 동의대학교 화학환경공학부의 정시 일반학생전형에 대한 성적 산출 기준과 경쟁률 등을 확인하려면, 해당 대학의 공식 홈페이지(https://ipsi. deu.ac.kr/main.do)를 참조하거나 학교 관계자에게 직접 문의하는 것이 가장 정확한 방법입니다.
+특히, 동의대학교의 경우 각 전공별로 모집단위와 성적 산출 방식이 다소 다르므로, 공식 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 원본에서는 4.25라는 성적이 합격 가능성이 높다고 판단했으나, 생성된 응답에서는 합격하기 어렵다고 주장하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본의 결론과 정반대의 주장을 하고 있어, 정보가 상충합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본의 결론과는 다릅니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 일관성이 떨어져서 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 이유를 제시하고 있으나, 원본과의 불일치로 인해 전체적인 일관성이 떨어집니다. 각 이유는 명확하지만, 결론이 원본과 다르기 때문에 논리적 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본의 사실을 왜곡하고 있으며, 잘못된 정보를 포함하고 있습니다. 원본의 데이터와 결론을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본과의 불일치로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본의 의미와는 상반된 주장을 하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽지만, 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6239045956642592</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>4.25라는 성적을 가지고 동의대학교 화학환경공학부에 정시로 합격하기는 어렵다고 판단됩니다.
+이유는 다음과 같습니다:
+1. **경쟁률**: 동의대학교 화학환경공학부의 경쟁률은 매우 높습니다. 예를 들어, 2024년 모집단위의 경우 지원 인원이 많고 충원 합격자 수가 적어 경쟁률이 높게 나타납니다.
+2. **성적 평균**: 동의대학교 화학환경공학부의 성적 평균은 4.69 이상입니다. 이는 지원자의 성적이 상당히 높아야 합격할 수 있는 수준을 의미합니다.
+3. **표준 변환 점수**: 동의대학교 화학환경공학부의 표준 변환 점수 평균은 416.53입니다. 이는 지원자의 성적이 높아야 합격할 수 있는 수준을 의미합니다.
+4. **경쟁률과 충원 합격자 수**: 동의대학교 화학환경공학부의 경쟁률이 매우 높고, 충원 합격자 수가 적어 성적이 조금이라도 낮으면 불합격될 확률이 높습니다.
+따라서 4.25라는 성적을 가지고 동의대학교 화학환경공학부에 정시로 합격하기는 어렵다고 판단됩니다. 더 높은 성적을 기록하거나, 다른 전형이나 대학을 고려해보는 것이 좋을 것 같습니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트나 입학처에 문의하시는 것을 추천드립니다. (https://ipsi. deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 2024년도 정시모집의 전형요소 반영비율이 변경되었다고 언급하고 있으나, 이는 제공된 원문에 포함된 정보가 아닙니다. 원문에서는 평균 성적에 대한 정보만 제공되고 있으며, 전형요소 반영비율에 대한 내용은 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문에서 제시된 성적이 합격 가능성이 있다고 판단한 내용과 상충합니다. 원문은 4.2 성적이 합격 가능성이 있다고 명시했지만, 생성된 응답은 합격 가능성이 낮을 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있으나, 원문에서 제공된 구체적인 성적 정보와 합격 가능성에 대한 직접적인 언급이 부족합니다. 따라서 관련성은 있지만, 원문에 대한 직접적인 답변은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 일관성이 떨어져서 전체적인 일관성은 다소 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히 전형요소 반영비율에 대한 언급은 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 원문과의 일치성이 떨어지며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 원문의 맥락과는 다소 어긋나는 부분이 있습니다. 따라서 의미적으로 적절하다고 보기 어려운 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 표현을 사용하고 있습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.626391540685698</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>2024년도 정시모집의 경우, 전형요소 반영비율이 학생부교과성적 60% + 면접 40%로 변경되었습니다. 따라서 성적이 4.2정도라면 합격 가능성은 낮을 수 있습니다.
+하지만, 영화학과에서는 단순히 성적뿐만 아니라 면접 성적도 중요한 요소입니다. 따라서 면접에서 좋은 평가를 받는다면 합격 가능성은 높아질 수 있습니다.
+또한, 각 모집단위별로 모집인원이 다르므로, 해당 영화학과의 모집인원과 지원자들의 성적 분포를 확인하여 보다 정확한 판단을 내리시는 것이 좋습니다. 
+더 자세한 정보를 얻기 위해서는 입학관리팀이나 학교 홈페이지에서 공고된 내용을 확인하시거나, 직접 학교에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 문장도 면접 절차와 관련이 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 단계가 정확하게 나열되어 있습니다. 추가된 문장도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 면접 절차에 대한 설명이 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.8388818990588649</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 통해 지원자의 면접을 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
